--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Min enhet\Bil\Camaro\chassi\styrning\BMW E90 CAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F19FE7-AB30-4CBF-84C5-266FDC252D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC87926A-7689-477D-8EAF-D9B1B0DC2E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9" yWindow="94" windowWidth="25680" windowHeight="18155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8947" yWindow="60" windowWidth="19388" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -109,6 +109,27 @@
   </si>
   <si>
     <t>0xC8</t>
+  </si>
+  <si>
+    <t>200ms</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ctr 6</t>
+  </si>
+  <si>
+    <t>ctr 1</t>
+  </si>
+  <si>
+    <t>ctr 2</t>
+  </si>
+  <si>
+    <t>sum 0..4</t>
   </si>
 </sst>
 </file>
@@ -145,7 +166,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -166,8 +187,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,38 +469,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U44"/>
+  <dimension ref="A2:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.3046875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>170</v>
       </c>
@@ -487,7 +508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -543,69 +564,69 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
       <c r="B10" s="1">
         <f>B21</f>
-        <v>165</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" ref="C10:P10" si="0">C21</f>
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="0"/>
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="O10" s="1">
         <f t="shared" si="0"/>
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="P10" s="1">
         <f t="shared" si="0"/>
-        <v>179</v>
+        <v>259</v>
       </c>
       <c r="Q10" t="s">
         <v>11</v>
@@ -617,9 +638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>29</v>
       </c>
       <c r="B11">
         <v>64</v>
@@ -679,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -738,7 +759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -797,54 +818,54 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -858,55 +879,58 @@
       <c r="T14">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U14" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>5</v>
       </c>
       <c r="B15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -920,8 +944,11 @@
       <c r="T15">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="U15" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>6</v>
       </c>
@@ -980,7 +1007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1039,69 +1066,69 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
       <c r="B19">
         <f>SUM(B11:B18)+B9</f>
-        <v>505</v>
+        <v>330</v>
       </c>
       <c r="C19">
         <f t="shared" ref="C19:P19" si="1">SUM(C11:C18)+C9</f>
-        <v>506</v>
+        <v>331</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>507</v>
+        <v>332</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>508</v>
+        <v>333</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>509</v>
+        <v>334</v>
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>510</v>
+        <v>335</v>
       </c>
       <c r="H19">
         <f t="shared" si="1"/>
-        <v>511</v>
+        <v>336</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>512</v>
+        <v>337</v>
       </c>
       <c r="J19">
         <f t="shared" si="1"/>
-        <v>513</v>
+        <v>338</v>
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>514</v>
+        <v>339</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
-        <v>515</v>
+        <v>340</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>516</v>
+        <v>341</v>
       </c>
       <c r="N19">
         <f t="shared" si="1"/>
-        <v>517</v>
+        <v>342</v>
       </c>
       <c r="O19">
         <f t="shared" si="1"/>
-        <v>518</v>
+        <v>343</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>519</v>
+        <v>344</v>
       </c>
       <c r="R19">
         <f>SUM(R11:R18)</f>
@@ -1112,52 +1139,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R20">
         <v>6</v>
       </c>
@@ -1170,77 +1152,77 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21">
-        <f>B19-$S$20-255</f>
-        <v>165</v>
+        <f>B19-$S$20</f>
+        <v>245</v>
       </c>
       <c r="C21">
-        <f t="shared" ref="C21:P21" si="2">C19-$S$20-255</f>
-        <v>166</v>
+        <f t="shared" ref="C21:P21" si="2">C19-$S$20</f>
+        <v>246</v>
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>167</v>
+        <v>247</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="F21">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="H21">
-        <f>H19-$S$20-255</f>
-        <v>171</v>
+        <f t="shared" si="2"/>
+        <v>251</v>
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="J21">
         <f t="shared" si="2"/>
-        <v>173</v>
+        <v>253</v>
       </c>
       <c r="K21">
         <f t="shared" si="2"/>
-        <v>174</v>
+        <v>254</v>
       </c>
       <c r="L21">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="M21">
         <f t="shared" si="2"/>
-        <v>176</v>
+        <v>256</v>
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="O21">
         <f t="shared" si="2"/>
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="P21">
         <f t="shared" si="2"/>
-        <v>179</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>416</v>
       </c>
@@ -1248,7 +1230,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1301,54 +1283,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="B27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="L27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="M27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="N27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="O27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>194</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -1362,8 +1344,11 @@
       <c r="T27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="U27" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1425,7 +1410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1484,7 +1469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1543,7 +1528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1602,7 +1587,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1661,9 +1646,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>6</v>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>28</v>
       </c>
       <c r="B33">
         <f>80+B26</f>
@@ -1724,69 +1709,69 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="1">
         <f>B38</f>
-        <v>181</v>
-      </c>
-      <c r="C34" s="3">
+        <v>242</v>
+      </c>
+      <c r="C34" s="1">
         <f t="shared" ref="C34:P34" si="3">C38</f>
-        <v>182</v>
-      </c>
-      <c r="D34" s="3">
+        <v>243</v>
+      </c>
+      <c r="D34" s="1">
         <f t="shared" si="3"/>
-        <v>183</v>
-      </c>
-      <c r="E34" s="3">
+        <v>244</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="3"/>
-        <v>184</v>
-      </c>
-      <c r="F34" s="3">
+        <v>245</v>
+      </c>
+      <c r="F34" s="1">
         <f t="shared" si="3"/>
-        <v>185</v>
-      </c>
-      <c r="G34" s="3">
+        <v>246</v>
+      </c>
+      <c r="G34" s="1">
         <f t="shared" si="3"/>
-        <v>186</v>
-      </c>
-      <c r="H34" s="3">
+        <v>247</v>
+      </c>
+      <c r="H34" s="1">
         <f t="shared" si="3"/>
-        <v>187</v>
-      </c>
-      <c r="I34" s="3">
+        <v>248</v>
+      </c>
+      <c r="I34" s="1">
         <f t="shared" si="3"/>
-        <v>188</v>
-      </c>
-      <c r="J34" s="3">
+        <v>249</v>
+      </c>
+      <c r="J34" s="1">
         <f t="shared" si="3"/>
-        <v>189</v>
-      </c>
-      <c r="K34" s="3">
+        <v>250</v>
+      </c>
+      <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>190</v>
-      </c>
-      <c r="L34" s="3">
+        <v>251</v>
+      </c>
+      <c r="L34" s="1">
         <f t="shared" si="3"/>
-        <v>191</v>
-      </c>
-      <c r="M34" s="3">
+        <v>252</v>
+      </c>
+      <c r="M34" s="1">
         <f t="shared" si="3"/>
-        <v>192</v>
-      </c>
-      <c r="N34" s="3">
+        <v>253</v>
+      </c>
+      <c r="N34" s="1">
         <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-      <c r="O34" s="3">
+        <v>254</v>
+      </c>
+      <c r="O34" s="1">
         <f t="shared" si="3"/>
-        <v>194</v>
-      </c>
-      <c r="P34" s="3">
+        <v>255</v>
+      </c>
+      <c r="P34" s="1">
         <f t="shared" si="3"/>
-        <v>195</v>
+        <v>256</v>
       </c>
       <c r="Q34" t="s">
         <v>19</v>
@@ -1798,69 +1783,69 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36">
         <f>SUM(B26:B33)</f>
-        <v>530</v>
+        <v>336</v>
       </c>
       <c r="C36">
         <f t="shared" ref="C36:P36" si="4">SUM(C26:C33)</f>
-        <v>531</v>
+        <v>337</v>
       </c>
       <c r="D36">
         <f t="shared" si="4"/>
-        <v>532</v>
+        <v>338</v>
       </c>
       <c r="E36">
         <f t="shared" si="4"/>
-        <v>533</v>
+        <v>339</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>534</v>
+        <v>340</v>
       </c>
       <c r="G36">
         <f t="shared" si="4"/>
-        <v>535</v>
+        <v>341</v>
       </c>
       <c r="H36">
         <f t="shared" si="4"/>
-        <v>536</v>
+        <v>342</v>
       </c>
       <c r="I36">
         <f t="shared" si="4"/>
-        <v>537</v>
+        <v>343</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
-        <v>538</v>
+        <v>344</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
-        <v>539</v>
+        <v>345</v>
       </c>
       <c r="L36">
         <f t="shared" si="4"/>
-        <v>540</v>
+        <v>346</v>
       </c>
       <c r="M36">
         <f t="shared" si="4"/>
-        <v>541</v>
+        <v>347</v>
       </c>
       <c r="N36">
         <f t="shared" si="4"/>
-        <v>542</v>
+        <v>348</v>
       </c>
       <c r="O36">
         <f t="shared" si="4"/>
-        <v>543</v>
+        <v>349</v>
       </c>
       <c r="P36">
         <f t="shared" si="4"/>
-        <v>544</v>
+        <v>350</v>
       </c>
       <c r="R36">
         <f>SUM(R27:R33)</f>
@@ -1871,52 +1856,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R37">
         <v>8</v>
       </c>
@@ -1929,82 +1869,631 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="B38">
-        <f>B36-$S$37-255</f>
-        <v>181</v>
+        <f>B36-$S$37</f>
+        <v>242</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:P38" si="5">C36-$S$37-255</f>
-        <v>182</v>
+        <f t="shared" ref="C38:P38" si="5">C36-$S$37</f>
+        <v>243</v>
       </c>
       <c r="D38">
         <f t="shared" si="5"/>
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="E38">
         <f t="shared" si="5"/>
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="F38">
         <f t="shared" si="5"/>
-        <v>185</v>
+        <v>246</v>
       </c>
       <c r="G38">
         <f t="shared" si="5"/>
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="H38">
         <f t="shared" si="5"/>
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="I38">
         <f t="shared" si="5"/>
-        <v>188</v>
+        <v>249</v>
       </c>
       <c r="J38">
         <f t="shared" si="5"/>
-        <v>189</v>
+        <v>250</v>
       </c>
       <c r="K38">
         <f t="shared" si="5"/>
-        <v>190</v>
+        <v>251</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
-        <v>191</v>
+        <v>252</v>
       </c>
       <c r="M38">
         <f t="shared" si="5"/>
-        <v>192</v>
+        <v>253</v>
       </c>
       <c r="N38">
         <f t="shared" si="5"/>
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="O38">
         <f t="shared" si="5"/>
-        <v>194</v>
+        <v>255</v>
       </c>
       <c r="P38">
         <f t="shared" si="5"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>200</v>
       </c>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="4"/>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>7</v>
+      </c>
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <v>9</v>
+      </c>
+      <c r="L44">
+        <v>10</v>
+      </c>
+      <c r="M44">
+        <v>11</v>
+      </c>
+      <c r="N44">
+        <v>12</v>
+      </c>
+      <c r="O44">
+        <v>13</v>
+      </c>
+      <c r="P44">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>186</v>
+      </c>
+      <c r="C45">
+        <v>186</v>
+      </c>
+      <c r="D45">
+        <v>186</v>
+      </c>
+      <c r="E45">
+        <v>186</v>
+      </c>
+      <c r="F45">
+        <v>186</v>
+      </c>
+      <c r="G45">
+        <v>186</v>
+      </c>
+      <c r="H45">
+        <v>186</v>
+      </c>
+      <c r="I45">
+        <v>186</v>
+      </c>
+      <c r="J45">
+        <v>186</v>
+      </c>
+      <c r="K45">
+        <v>186</v>
+      </c>
+      <c r="L45">
+        <v>186</v>
+      </c>
+      <c r="M45">
+        <v>186</v>
+      </c>
+      <c r="N45">
+        <v>186</v>
+      </c>
+      <c r="O45">
+        <v>186</v>
+      </c>
+      <c r="P45">
+        <v>186</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>26</v>
+      </c>
+      <c r="R45">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>2</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>2</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+      <c r="K46">
+        <v>2</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46">
+        <v>2</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="Q46">
+        <v>2</v>
+      </c>
+      <c r="R46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
+        <f>B54</f>
+        <v>80</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50:P50" si="6">C54</f>
+        <v>81</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" si="6"/>
+        <v>87</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="6"/>
+        <v>89</v>
+      </c>
+      <c r="L50" s="1">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="M50" s="1">
+        <f t="shared" si="6"/>
+        <v>91</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+      <c r="O50" s="1">
+        <f t="shared" si="6"/>
+        <v>93</v>
+      </c>
+      <c r="P50" s="1">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>14</v>
+      </c>
+      <c r="R50">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52">
+        <f>SUM(B44:B49)</f>
+        <v>188</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:P52" si="7">SUM(C44:C49)</f>
+        <v>189</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="7"/>
+        <v>190</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="7"/>
+        <v>191</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="7"/>
+        <v>192</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="7"/>
+        <v>193</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="7"/>
+        <v>194</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="7"/>
+        <v>195</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="7"/>
+        <v>197</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="7"/>
+        <v>198</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="7"/>
+        <v>199</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="7"/>
+        <v>200</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="7"/>
+        <v>201</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="7"/>
+        <v>202</v>
+      </c>
+      <c r="R52">
+        <f>SUM(R45:R49)</f>
+        <v>200</v>
+      </c>
+      <c r="S52">
+        <f>R52-S53</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="R53">
+        <v>12</v>
+      </c>
+      <c r="S53" s="2">
+        <f>R52-R50</f>
+        <v>108</v>
+      </c>
+      <c r="U53">
+        <f>A43+S53</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54">
+        <f>B52-$S$53</f>
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:P54" si="8">C52-$S$53</f>
+        <v>81</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="8"/>
+        <v>91</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="8"/>
+        <v>92</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="8"/>
+        <v>93</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="8"/>
+        <v>94</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC87926A-7689-477D-8EAF-D9B1B0DC2E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B926A134-6DB2-4F30-8C11-D66BB042558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8947" yWindow="60" windowWidth="19388" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51" yWindow="137" windowWidth="25680" windowHeight="18154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -130,6 +130,24 @@
   </si>
   <si>
     <t>sum 0..4</t>
+  </si>
+  <si>
+    <t>100ms</t>
+  </si>
+  <si>
+    <t>0x130</t>
+  </si>
+  <si>
+    <t>0f</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>sum 0..3</t>
+  </si>
+  <si>
+    <t>c1=193</t>
   </si>
 </sst>
 </file>
@@ -145,7 +163,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -183,12 +207,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,38 +494,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U54"/>
+  <dimension ref="A2:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>170</v>
       </c>
@@ -508,7 +533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -564,7 +589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -638,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -700,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
@@ -759,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -818,7 +843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
@@ -883,7 +908,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>5</v>
       </c>
@@ -948,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1007,7 +1032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1066,7 +1091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1139,7 +1164,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R20">
         <v>6</v>
       </c>
@@ -1152,11 +1177,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <f>B19-$S$20</f>
         <v>245</v>
       </c>
@@ -1217,12 +1242,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>416</v>
       </c>
@@ -1230,7 +1255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +1308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1348,7 +1373,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1410,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1469,7 +1494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1528,7 +1553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1587,7 +1612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1646,7 +1671,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1709,7 +1734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1783,7 +1808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +1881,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R37">
         <v>8</v>
       </c>
@@ -1869,11 +1894,11 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>8</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <f>B36-$S$37</f>
         <v>242</v>
       </c>
@@ -1934,7 +1959,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>200</v>
       </c>
@@ -1943,7 +1968,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1993,7 +2018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2049,7 +2074,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2105,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2161,7 +2186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2217,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2273,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2344,7 +2369,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2417,7 +2442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R53">
         <v>12</v>
       </c>
@@ -2426,15 +2451,15 @@
         <v>108</v>
       </c>
       <c r="U53">
-        <f>A43+S53</f>
-        <v>308</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+        <f>A43+S53-255</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>8</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <f>B52-$S$53</f>
         <v>80</v>
       </c>
@@ -2493,6 +2518,566 @@
       <c r="P54">
         <f t="shared" si="8"/>
         <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>304</v>
+      </c>
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57">
+        <f>C58*16</f>
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:P57" si="9">D58*16</f>
+        <v>32</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="9"/>
+        <v>80</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="9"/>
+        <v>96</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="9"/>
+        <v>112</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="9"/>
+        <v>128</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="9"/>
+        <v>144</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="9"/>
+        <v>160</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="9"/>
+        <v>176</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="9"/>
+        <v>192</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="9"/>
+        <v>208</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="9"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>4</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>7</v>
+      </c>
+      <c r="J58">
+        <v>8</v>
+      </c>
+      <c r="K58">
+        <v>9</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>11</v>
+      </c>
+      <c r="N58">
+        <v>12</v>
+      </c>
+      <c r="O58">
+        <v>13</v>
+      </c>
+      <c r="P58">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>65</v>
+      </c>
+      <c r="C59">
+        <v>65</v>
+      </c>
+      <c r="D59">
+        <v>65</v>
+      </c>
+      <c r="E59">
+        <v>65</v>
+      </c>
+      <c r="F59">
+        <v>65</v>
+      </c>
+      <c r="G59">
+        <v>65</v>
+      </c>
+      <c r="H59">
+        <v>65</v>
+      </c>
+      <c r="I59">
+        <v>65</v>
+      </c>
+      <c r="J59">
+        <v>65</v>
+      </c>
+      <c r="K59">
+        <v>65</v>
+      </c>
+      <c r="L59">
+        <v>65</v>
+      </c>
+      <c r="M59">
+        <v>65</v>
+      </c>
+      <c r="N59">
+        <v>65</v>
+      </c>
+      <c r="O59">
+        <v>65</v>
+      </c>
+      <c r="P59">
+        <v>65</v>
+      </c>
+      <c r="Q59">
+        <v>41</v>
+      </c>
+      <c r="R59">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>67</v>
+      </c>
+      <c r="C60">
+        <v>67</v>
+      </c>
+      <c r="D60">
+        <v>67</v>
+      </c>
+      <c r="E60">
+        <v>67</v>
+      </c>
+      <c r="F60">
+        <v>67</v>
+      </c>
+      <c r="G60">
+        <v>67</v>
+      </c>
+      <c r="H60">
+        <v>67</v>
+      </c>
+      <c r="I60">
+        <v>67</v>
+      </c>
+      <c r="J60">
+        <v>67</v>
+      </c>
+      <c r="K60">
+        <v>67</v>
+      </c>
+      <c r="L60">
+        <v>67</v>
+      </c>
+      <c r="M60">
+        <v>67</v>
+      </c>
+      <c r="N60">
+        <v>67</v>
+      </c>
+      <c r="O60">
+        <v>67</v>
+      </c>
+      <c r="P60">
+        <v>67</v>
+      </c>
+      <c r="Q60">
+        <v>43</v>
+      </c>
+      <c r="R60">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>2</v>
+      </c>
+      <c r="B61">
+        <v>41</v>
+      </c>
+      <c r="C61">
+        <v>41</v>
+      </c>
+      <c r="D61">
+        <v>41</v>
+      </c>
+      <c r="E61">
+        <v>41</v>
+      </c>
+      <c r="F61">
+        <v>41</v>
+      </c>
+      <c r="G61">
+        <v>41</v>
+      </c>
+      <c r="H61">
+        <v>41</v>
+      </c>
+      <c r="I61">
+        <v>41</v>
+      </c>
+      <c r="J61">
+        <v>41</v>
+      </c>
+      <c r="K61">
+        <v>41</v>
+      </c>
+      <c r="L61">
+        <v>41</v>
+      </c>
+      <c r="M61">
+        <v>41</v>
+      </c>
+      <c r="N61">
+        <v>41</v>
+      </c>
+      <c r="O61">
+        <v>41</v>
+      </c>
+      <c r="P61">
+        <v>41</v>
+      </c>
+      <c r="Q61">
+        <v>29</v>
+      </c>
+      <c r="R61">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>15</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62">
+        <v>15</v>
+      </c>
+      <c r="F62">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>15</v>
+      </c>
+      <c r="H62">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>15</v>
+      </c>
+      <c r="J62">
+        <v>15</v>
+      </c>
+      <c r="K62">
+        <v>15</v>
+      </c>
+      <c r="L62">
+        <v>15</v>
+      </c>
+      <c r="M62">
+        <v>15</v>
+      </c>
+      <c r="N62">
+        <v>15</v>
+      </c>
+      <c r="O62">
+        <v>15</v>
+      </c>
+      <c r="P62">
+        <v>15</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>34</v>
+      </c>
+      <c r="R62">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63" s="1">
+        <f>B67</f>
+        <v>1</v>
+      </c>
+      <c r="C63" s="1">
+        <f t="shared" ref="C63:P63" si="10">C67</f>
+        <v>17</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="10"/>
+        <v>65</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="10"/>
+        <v>81</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="10"/>
+        <v>97</v>
+      </c>
+      <c r="I63" s="1">
+        <f t="shared" si="10"/>
+        <v>113</v>
+      </c>
+      <c r="J63" s="1">
+        <f t="shared" si="10"/>
+        <v>129</v>
+      </c>
+      <c r="K63" s="1">
+        <f t="shared" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="L63" s="1">
+        <f t="shared" si="10"/>
+        <v>161</v>
+      </c>
+      <c r="M63" s="1">
+        <f t="shared" si="10"/>
+        <v>177</v>
+      </c>
+      <c r="N63" s="1">
+        <f t="shared" si="10"/>
+        <v>193</v>
+      </c>
+      <c r="O63" s="1">
+        <f t="shared" si="10"/>
+        <v>209</v>
+      </c>
+      <c r="P63" s="1">
+        <f t="shared" si="10"/>
+        <v>225</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>35</v>
+      </c>
+      <c r="R63">
+        <v>193</v>
+      </c>
+      <c r="T63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>36</v>
+      </c>
+      <c r="B65">
+        <f>SUM(B59:B62)+(B58*16)</f>
+        <v>188</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:P65" si="11">SUM(C59:C62)+(C58*16)</f>
+        <v>204</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="11"/>
+        <v>220</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="11"/>
+        <v>236</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="11"/>
+        <v>252</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="11"/>
+        <v>268</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="11"/>
+        <v>284</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="11"/>
+        <v>300</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="11"/>
+        <v>316</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="11"/>
+        <v>332</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="11"/>
+        <v>348</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="11"/>
+        <v>364</v>
+      </c>
+      <c r="N65">
+        <f>SUM(N59:N62)+(N58*16)</f>
+        <v>380</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="11"/>
+        <v>396</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="11"/>
+        <v>412</v>
+      </c>
+      <c r="R65">
+        <f>SUM(R58:R62)+192</f>
+        <v>380</v>
+      </c>
+      <c r="S65">
+        <f>R65-S66</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="R66">
+        <v>12</v>
+      </c>
+      <c r="S66" s="2">
+        <f>R65-R63</f>
+        <v>187</v>
+      </c>
+      <c r="U66">
+        <f>A57+S66-255</f>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="B67" s="5">
+        <f>B65-$S$66</f>
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <f t="shared" ref="C67:P67" si="12">C65-$S$66</f>
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="12"/>
+        <v>65</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="12"/>
+        <v>97</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="12"/>
+        <v>113</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="12"/>
+        <v>129</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="12"/>
+        <v>161</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="12"/>
+        <v>177</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="12"/>
+        <v>193</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="12"/>
+        <v>209</v>
+      </c>
+      <c r="P67">
+        <f t="shared" si="12"/>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B926A134-6DB2-4F30-8C11-D66BB042558F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A33D6C-00D7-4D62-9151-CA7D0FF8AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51" yWindow="137" windowWidth="25680" windowHeight="18154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3188" yWindow="60" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -496,36 +496,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q67" sqref="Q67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.3046875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>170</v>
       </c>
@@ -533,7 +533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -589,7 +589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -843,7 +843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>4</v>
       </c>
@@ -908,7 +908,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>5</v>
       </c>
@@ -973,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R20">
         <v>6</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1242,12 +1242,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>416</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R37">
         <v>8</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>200</v>
       </c>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R53">
         <v>12</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>304</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0</v>
       </c>
@@ -2690,7 +2690,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>4</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>36</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R66">
         <v>12</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B67" s="5">
         <f>B65-$S$66</f>
         <v>1</v>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://etric-my.sharepoint.com/personal/ronald_hedstrom_etric_se/Documents/Dokument/Arduino/ESP32C6-LCD-CAN-gear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A33D6C-00D7-4D62-9151-CA7D0FF8AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A9A33D6C-00D7-4D62-9151-CA7D0FF8AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC1D7722-0A27-4045-AD52-14B57A952A95}"/>
   <bookViews>
-    <workbookView xWindow="3188" yWindow="60" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4354" yWindow="403" windowWidth="15137" windowHeight="12411" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -496,36 +496,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q67" sqref="Q67"/>
+    <sheetView tabSelected="1" topLeftCell="D41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>170</v>
       </c>
@@ -533,7 +533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -589,7 +589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -843,7 +843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
@@ -908,7 +908,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>5</v>
       </c>
@@ -973,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R20">
         <v>6</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1242,12 +1242,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>416</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R37">
         <v>8</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>200</v>
       </c>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R53">
         <v>12</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2634,12 +2634,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>0</v>
       </c>
       <c r="B59">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C59">
         <v>65</v>
@@ -2690,7 +2690,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2858,13 +2858,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>4</v>
       </c>
       <c r="B63" s="1">
         <f>B67</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" ref="C63:P63" si="10">C67</f>
@@ -2932,13 +2932,13 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>36</v>
       </c>
       <c r="B65">
         <f>SUM(B59:B62)+(B58*16)</f>
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C65">
         <f t="shared" ref="C65:P65" si="11">SUM(C59:C62)+(C58*16)</f>
@@ -3005,7 +3005,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R66">
         <v>12</v>
       </c>
@@ -3018,10 +3018,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B67" s="5">
         <f>B65-$S$66</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:P67" si="12">C65-$S$66</f>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://etric-my.sharepoint.com/personal/ronald_hedstrom_etric_se/Documents/Dokument/Arduino/ESP32C6-LCD-CAN-gear/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A9A33D6C-00D7-4D62-9151-CA7D0FF8AAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC1D7722-0A27-4045-AD52-14B57A952A95}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF8F57B-8943-4FAD-96F2-7B57523236EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4354" yWindow="403" windowWidth="15137" windowHeight="12411" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3188" yWindow="60" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -496,36 +496,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.3046875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>170</v>
       </c>
@@ -533,7 +533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -589,7 +589,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -725,7 +725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -784,7 +784,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -843,7 +843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>4</v>
       </c>
@@ -908,7 +908,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>5</v>
       </c>
@@ -973,7 +973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R20">
         <v>6</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1242,12 +1242,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>416</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R37">
         <v>8</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>200</v>
       </c>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R53">
         <v>12</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>304</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2634,12 +2634,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0</v>
       </c>
       <c r="B59">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C59">
         <v>65</v>
@@ -2690,7 +2690,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2746,7 +2746,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2858,57 +2858,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>4</v>
       </c>
       <c r="B63" s="1">
         <f>B67</f>
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="C63" s="1">
         <f t="shared" ref="C63:P63" si="10">C67</f>
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="D63" s="1">
         <f t="shared" si="10"/>
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="E63" s="1">
         <f t="shared" si="10"/>
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="F63" s="1">
         <f t="shared" si="10"/>
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="G63" s="1">
         <f t="shared" si="10"/>
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="H63" s="1">
         <f t="shared" si="10"/>
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="I63" s="1">
         <f t="shared" si="10"/>
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="10"/>
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K63" s="1">
         <f t="shared" si="10"/>
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="L63" s="1">
         <f t="shared" si="10"/>
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="M63" s="1">
         <f t="shared" si="10"/>
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="N63" s="1">
         <f t="shared" si="10"/>
@@ -2916,11 +2916,11 @@
       </c>
       <c r="O63" s="1">
         <f t="shared" si="10"/>
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="P63" s="1">
         <f t="shared" si="10"/>
-        <v>225</v>
+        <v>195</v>
       </c>
       <c r="Q63" t="s">
         <v>35</v>
@@ -2932,140 +2932,140 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>36</v>
       </c>
       <c r="B65">
-        <f>SUM(B59:B62)+(B58*16)</f>
-        <v>194</v>
+        <f>SUM(B58:B62)</f>
+        <v>188</v>
       </c>
       <c r="C65">
-        <f t="shared" ref="C65:P65" si="11">SUM(C59:C62)+(C58*16)</f>
-        <v>204</v>
+        <f t="shared" ref="C65:P65" si="11">SUM(C58:C62)</f>
+        <v>189</v>
       </c>
       <c r="D65">
         <f t="shared" si="11"/>
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="E65">
         <f t="shared" si="11"/>
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="F65">
         <f t="shared" si="11"/>
-        <v>252</v>
+        <v>192</v>
       </c>
       <c r="G65">
         <f t="shared" si="11"/>
-        <v>268</v>
+        <v>193</v>
       </c>
       <c r="H65">
         <f t="shared" si="11"/>
-        <v>284</v>
+        <v>194</v>
       </c>
       <c r="I65">
         <f t="shared" si="11"/>
-        <v>300</v>
+        <v>195</v>
       </c>
       <c r="J65">
         <f t="shared" si="11"/>
-        <v>316</v>
+        <v>196</v>
       </c>
       <c r="K65">
         <f t="shared" si="11"/>
-        <v>332</v>
+        <v>197</v>
       </c>
       <c r="L65">
         <f t="shared" si="11"/>
-        <v>348</v>
+        <v>198</v>
       </c>
       <c r="M65">
         <f t="shared" si="11"/>
-        <v>364</v>
+        <v>199</v>
       </c>
       <c r="N65">
-        <f>SUM(N59:N62)+(N58*16)</f>
-        <v>380</v>
+        <f t="shared" si="11"/>
+        <v>200</v>
       </c>
       <c r="O65">
         <f t="shared" si="11"/>
-        <v>396</v>
+        <v>201</v>
       </c>
       <c r="P65">
         <f t="shared" si="11"/>
-        <v>412</v>
+        <v>202</v>
       </c>
       <c r="R65">
-        <f>SUM(R58:R62)+192</f>
-        <v>380</v>
+        <f>SUM(R58:R62)+12</f>
+        <v>200</v>
       </c>
       <c r="S65">
         <f>R65-S66</f>
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R66">
         <v>12</v>
       </c>
       <c r="S66" s="2">
         <f>R65-R63</f>
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="U66">
         <f>A57+S66-255</f>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B67" s="5">
         <f>B65-$S$66</f>
-        <v>7</v>
+        <v>181</v>
       </c>
       <c r="C67">
         <f t="shared" ref="C67:P67" si="12">C65-$S$66</f>
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="D67">
         <f t="shared" si="12"/>
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="E67">
         <f t="shared" si="12"/>
-        <v>49</v>
+        <v>184</v>
       </c>
       <c r="F67">
         <f t="shared" si="12"/>
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="G67">
         <f t="shared" si="12"/>
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="H67">
         <f t="shared" si="12"/>
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="I67">
         <f t="shared" si="12"/>
-        <v>113</v>
+        <v>188</v>
       </c>
       <c r="J67">
         <f t="shared" si="12"/>
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="K67">
         <f t="shared" si="12"/>
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="L67">
         <f t="shared" si="12"/>
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="M67">
         <f t="shared" si="12"/>
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="N67">
         <f t="shared" si="12"/>
@@ -3073,11 +3073,11 @@
       </c>
       <c r="O67">
         <f t="shared" si="12"/>
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="P67">
         <f t="shared" si="12"/>
-        <v>225</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF8F57B-8943-4FAD-96F2-7B57523236EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97442D0B-F52F-4FFC-AD19-C789C7389F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3188" yWindow="60" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13830" yWindow="98" windowWidth="25148" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -148,6 +148,36 @@
   </si>
   <si>
     <t>c1=193</t>
+  </si>
+  <si>
+    <t>4H</t>
+  </si>
+  <si>
+    <t>4L</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>sum-7MOD16</t>
+  </si>
+  <si>
+    <t>sum 4L</t>
+  </si>
+  <si>
+    <t>0xb5</t>
   </si>
 </sst>
 </file>
@@ -163,7 +193,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +224,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -207,13 +243,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U67"/>
+  <dimension ref="A2:U74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2859,15 +2896,12 @@
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>4</v>
-      </c>
       <c r="B63" s="1">
-        <f>B67</f>
+        <f>B69</f>
         <v>181</v>
       </c>
       <c r="C63" s="1">
-        <f t="shared" ref="C63:P63" si="10">C67</f>
+        <f t="shared" ref="C63:P63" si="10">C69</f>
         <v>182</v>
       </c>
       <c r="D63" s="1">
@@ -2926,158 +2960,338 @@
         <v>35</v>
       </c>
       <c r="R63">
-        <v>193</v>
+        <v>12</v>
       </c>
       <c r="T63" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64">
+        <f>B58</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f t="shared" ref="C64:P64" si="11">C58</f>
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+    </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" s="6">
+        <v>4</v>
+      </c>
+      <c r="C65" s="6">
+        <v>5</v>
+      </c>
+      <c r="D65" s="6">
+        <v>6</v>
+      </c>
+      <c r="E65" s="6">
+        <v>7</v>
+      </c>
+      <c r="F65" s="6">
+        <v>8</v>
+      </c>
+      <c r="G65" s="6">
+        <v>9</v>
+      </c>
+      <c r="H65" s="6">
+        <v>10</v>
+      </c>
+      <c r="I65" s="6">
+        <v>11</v>
+      </c>
+      <c r="J65" s="6">
+        <v>12</v>
+      </c>
+      <c r="K65" s="6">
+        <v>13</v>
+      </c>
+      <c r="L65" s="6">
+        <v>14</v>
+      </c>
+      <c r="M65" s="6">
+        <v>15</v>
+      </c>
+      <c r="N65" s="6">
+        <v>1</v>
+      </c>
+      <c r="O65" s="6">
+        <v>2</v>
+      </c>
+      <c r="P65" s="6">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
         <v>36</v>
       </c>
-      <c r="B65">
+      <c r="B67">
         <f>SUM(B58:B62)</f>
         <v>188</v>
       </c>
-      <c r="C65">
-        <f t="shared" ref="C65:P65" si="11">SUM(C58:C62)</f>
+      <c r="C67">
+        <f t="shared" ref="C67:P67" si="12">SUM(C58:C62)</f>
         <v>189</v>
-      </c>
-      <c r="D65">
-        <f t="shared" si="11"/>
-        <v>190</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="11"/>
-        <v>191</v>
-      </c>
-      <c r="F65">
-        <f t="shared" si="11"/>
-        <v>192</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="11"/>
-        <v>193</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="11"/>
-        <v>194</v>
-      </c>
-      <c r="I65">
-        <f t="shared" si="11"/>
-        <v>195</v>
-      </c>
-      <c r="J65">
-        <f t="shared" si="11"/>
-        <v>196</v>
-      </c>
-      <c r="K65">
-        <f t="shared" si="11"/>
-        <v>197</v>
-      </c>
-      <c r="L65">
-        <f t="shared" si="11"/>
-        <v>198</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="11"/>
-        <v>199</v>
-      </c>
-      <c r="N65">
-        <f t="shared" si="11"/>
-        <v>200</v>
-      </c>
-      <c r="O65">
-        <f t="shared" si="11"/>
-        <v>201</v>
-      </c>
-      <c r="P65">
-        <f t="shared" si="11"/>
-        <v>202</v>
-      </c>
-      <c r="R65">
-        <f>SUM(R58:R62)+12</f>
-        <v>200</v>
-      </c>
-      <c r="S65">
-        <f>R65-S66</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R66">
-        <v>12</v>
-      </c>
-      <c r="S66" s="2">
-        <f>R65-R63</f>
-        <v>7</v>
-      </c>
-      <c r="U66">
-        <f>A57+S66-255</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B67" s="5">
-        <f>B65-$S$66</f>
-        <v>181</v>
-      </c>
-      <c r="C67">
-        <f t="shared" ref="C67:P67" si="12">C65-$S$66</f>
-        <v>182</v>
       </c>
       <c r="D67">
         <f t="shared" si="12"/>
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="E67">
         <f t="shared" si="12"/>
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="F67">
         <f t="shared" si="12"/>
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="G67">
         <f t="shared" si="12"/>
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="H67">
         <f t="shared" si="12"/>
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="I67">
         <f t="shared" si="12"/>
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="J67">
         <f t="shared" si="12"/>
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="K67">
         <f t="shared" si="12"/>
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L67">
         <f t="shared" si="12"/>
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M67">
         <f t="shared" si="12"/>
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N67">
         <f t="shared" si="12"/>
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O67">
         <f t="shared" si="12"/>
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P67">
         <f t="shared" si="12"/>
+        <v>202</v>
+      </c>
+      <c r="R67">
+        <f>SUM(R59:R63)</f>
+        <v>200</v>
+      </c>
+      <c r="S67">
+        <f>R67-S68</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="R68">
+        <v>12</v>
+      </c>
+      <c r="S68" s="2">
+        <v>7</v>
+      </c>
+      <c r="U68">
+        <f>A57+S68-255</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B69">
+        <f t="shared" ref="B69:M69" si="13">B67-$S$68</f>
+        <v>181</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="13"/>
+        <v>182</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="13"/>
+        <v>183</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="13"/>
+        <v>184</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="13"/>
+        <v>186</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="13"/>
+        <v>187</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="13"/>
+        <v>188</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="13"/>
+        <v>189</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="13"/>
+        <v>190</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="13"/>
+        <v>191</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="13"/>
+        <v>192</v>
+      </c>
+      <c r="N69">
+        <f>N67-$S$68</f>
+        <v>193</v>
+      </c>
+      <c r="O69">
+        <f t="shared" ref="O69:P69" si="14">O67-$S$68</f>
+        <v>194</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="14"/>
         <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>46</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <v>7</v>
+      </c>
+      <c r="E72">
+        <v>8</v>
+      </c>
+      <c r="F72">
+        <v>9</v>
+      </c>
+      <c r="G72" t="s">
+        <v>44</v>
+      </c>
+      <c r="H72" t="s">
+        <v>40</v>
+      </c>
+      <c r="I72" t="s">
+        <v>27</v>
+      </c>
+      <c r="J72" t="s">
+        <v>41</v>
+      </c>
+      <c r="K72" t="s">
+        <v>42</v>
+      </c>
+      <c r="L72" t="s">
+        <v>43</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72">
+        <v>2</v>
+      </c>
+      <c r="P72">
+        <v>3</v>
+      </c>
+      <c r="Q72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B74" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97442D0B-F52F-4FFC-AD19-C789C7389F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10438B08-C823-4133-99C1-8A31D6161034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13830" yWindow="98" windowWidth="25148" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="30" windowWidth="25148" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -533,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:U74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
@@ -3297,4 +3298,342 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8529B-222B-4E57-9E1F-B731C7543C9F}">
+  <dimension ref="A4:A67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10438B08-C823-4133-99C1-8A31D6161034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191D7846-AE93-4362-A74F-864DC212FAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="30" windowWidth="25148" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51" yWindow="137" windowWidth="24609" windowHeight="18154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -179,13 +179,73 @@
   </si>
   <si>
     <t>0xb5</t>
+  </si>
+  <si>
+    <t>ST_KL_R</t>
+  </si>
+  <si>
+    <t>ST_KL_15</t>
+  </si>
+  <si>
+    <t>ST_KL_50</t>
+  </si>
+  <si>
+    <t>ST_KEY_VLD</t>
+  </si>
+  <si>
+    <t>NO_KEY</t>
+  </si>
+  <si>
+    <t>IgnitionOff</t>
+  </si>
+  <si>
+    <t>AccOn</t>
+  </si>
+  <si>
+    <t>ST_KL15_HW</t>
+  </si>
+  <si>
+    <t>Counter_0x130</t>
+  </si>
+  <si>
+    <t>Checksum_0x130</t>
+  </si>
+  <si>
+    <t>lsb</t>
+  </si>
+  <si>
+    <t>msb</t>
+  </si>
+  <si>
+    <t>0x1D0</t>
+  </si>
+  <si>
+    <t>7c</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t>b1</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>b6</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>a6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +253,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF404040"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,6 +298,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -244,7 +317,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -252,6 +325,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,38 +607,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U74"/>
+  <dimension ref="A2:U84"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.3046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>170</v>
       </c>
@@ -571,7 +646,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -627,7 +702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -701,7 +776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -763,7 +838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
@@ -822,7 +897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -881,7 +956,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
@@ -946,7 +1021,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1011,7 +1086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1070,7 +1145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1129,7 +1204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1277,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R20">
         <v>6</v>
       </c>
@@ -1215,7 +1290,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1280,12 +1355,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>416</v>
       </c>
@@ -1293,7 +1368,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1346,7 +1421,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1411,7 +1486,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1473,7 +1548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1532,7 +1607,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1591,7 +1666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1650,7 +1725,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1709,7 +1784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1772,7 +1847,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1846,7 +1921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1919,7 +1994,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R37">
         <v>8</v>
       </c>
@@ -1932,7 +2007,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1997,7 +2072,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>200</v>
       </c>
@@ -2006,7 +2081,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2056,7 +2131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2112,7 +2187,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2168,7 +2243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2224,7 +2299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2280,7 +2355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2336,7 +2411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2407,7 +2482,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2480,7 +2555,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R53">
         <v>12</v>
       </c>
@@ -2493,7 +2568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2558,7 +2633,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>304</v>
       </c>
@@ -2622,7 +2697,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2672,7 +2747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>0</v>
       </c>
@@ -2728,7 +2803,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2784,7 +2859,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2840,7 +2915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2896,7 +2971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B63" s="1">
         <f>B69</f>
         <v>181</v>
@@ -2967,7 +3042,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3032,7 +3107,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -3085,7 +3160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -3158,7 +3233,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
       <c r="R68">
         <v>12</v>
       </c>
@@ -3170,7 +3245,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B69">
         <f t="shared" ref="B69:M69" si="13">B67-$S$68</f>
         <v>181</v>
@@ -3232,12 +3307,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>46</v>
       </c>
@@ -3290,9 +3365,147 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
       <c r="B74" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76">
+        <v>5</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>7</v>
+      </c>
+      <c r="J76">
+        <v>8</v>
+      </c>
+      <c r="K76">
+        <v>9</v>
+      </c>
+      <c r="L76">
+        <v>10</v>
+      </c>
+      <c r="M76">
+        <v>11</v>
+      </c>
+      <c r="N76">
+        <v>12</v>
+      </c>
+      <c r="O76">
+        <v>13</v>
+      </c>
+      <c r="P76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>2</v>
+      </c>
+      <c r="B79">
+        <v>43</v>
+      </c>
+      <c r="Q79">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>6</v>
+      </c>
+      <c r="B83" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>7</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3302,333 +3515,467 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8529B-222B-4E57-9E1F-B731C7543C9F}">
-  <dimension ref="A4:A67"/>
+  <dimension ref="A4:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+    <col min="1" max="1" width="4.61328125" customWidth="1"/>
+    <col min="3" max="3" width="15.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A5">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="E19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27">
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>30</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A36">
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A37">
+      <c r="C36" t="s">
+        <v>56</v>
+      </c>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="7">
         <v>33</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A38">
+      <c r="C37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="7">
         <v>34</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A39">
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="7">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A40">
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="7">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A41">
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="7">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A42">
+      <c r="C41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="7">
         <v>38</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A43">
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="7">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>48</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>49</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>56</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>58</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>61</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>62</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>63</v>
       </c>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191D7846-AE93-4362-A74F-864DC212FAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8372F0B-10BF-4E04-9E53-B4EC6CEA72CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51" yWindow="137" windowWidth="24609" windowHeight="18154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="172" windowWidth="25148" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -239,26 +239,70 @@
   </si>
   <si>
     <t>a6</t>
+  </si>
+  <si>
+    <t>TEMP_ENG</t>
+  </si>
+  <si>
+    <t>TEMP_EOI</t>
+  </si>
+  <si>
+    <t>ALIV_COU_DME</t>
+  </si>
+  <si>
+    <t>AIP_ENG</t>
+  </si>
+  <si>
+    <t>ST_ENG_RUN</t>
+  </si>
+  <si>
+    <t>ST_SW_WAUP</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>IJV_FU</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>CTR_SLCK</t>
+  </si>
+  <si>
+    <t>RPM_IDLG_TAR</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>0x50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="7"/>
-      <color rgb="FF404040"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -317,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -326,7 +370,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,38 +650,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U84"/>
+  <dimension ref="A2:U86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.3046875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>170</v>
       </c>
@@ -646,7 +689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -702,7 +745,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -776,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -838,7 +881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>2</v>
       </c>
@@ -897,7 +940,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>3</v>
       </c>
@@ -956,7 +999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>4</v>
       </c>
@@ -1021,7 +1064,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1086,7 +1129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1145,7 +1188,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>7</v>
       </c>
@@ -1204,7 +1247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1277,7 +1320,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R20">
         <v>6</v>
       </c>
@@ -1290,7 +1333,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1355,12 +1398,12 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>416</v>
       </c>
@@ -1368,7 +1411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1421,7 +1464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1486,7 +1529,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1548,7 +1591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1607,7 +1650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1666,7 +1709,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1725,7 +1768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1784,7 +1827,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -1847,7 +1890,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1921,7 +1964,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>7</v>
       </c>
@@ -1994,7 +2037,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R37">
         <v>8</v>
       </c>
@@ -2007,7 +2050,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -2072,7 +2115,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>200</v>
       </c>
@@ -2081,7 +2124,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2131,7 +2174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>0</v>
       </c>
@@ -2187,7 +2230,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2243,7 +2286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>30</v>
       </c>
@@ -2299,7 +2342,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2355,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2411,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>5</v>
       </c>
@@ -2482,7 +2525,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>31</v>
       </c>
@@ -2555,7 +2598,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R53">
         <v>12</v>
       </c>
@@ -2568,7 +2611,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2633,7 +2676,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>304</v>
       </c>
@@ -2697,7 +2740,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>33</v>
       </c>
@@ -2747,7 +2790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>0</v>
       </c>
@@ -2803,7 +2846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>1</v>
       </c>
@@ -2859,7 +2902,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2915,7 +2958,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2971,7 +3014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B63" s="1">
         <f>B69</f>
         <v>181</v>
@@ -3042,7 +3085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>38</v>
       </c>
@@ -3107,7 +3150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>39</v>
       </c>
@@ -3160,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>36</v>
       </c>
@@ -3233,7 +3276,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R68">
         <v>12</v>
       </c>
@@ -3245,7 +3288,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B69">
         <f t="shared" ref="B69:M69" si="13">B67-$S$68</f>
         <v>181</v>
@@ -3307,12 +3350,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>46</v>
       </c>
@@ -3365,146 +3408,133 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B74" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>464</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>60</v>
       </c>
-      <c r="B76">
-        <v>0</v>
-      </c>
-      <c r="C76">
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
         <v>1</v>
       </c>
-      <c r="D76">
+      <c r="D78">
         <v>2</v>
       </c>
-      <c r="E76">
+      <c r="E78">
         <v>3</v>
       </c>
-      <c r="F76">
+      <c r="F78">
         <v>4</v>
       </c>
-      <c r="G76">
+      <c r="G78">
         <v>5</v>
       </c>
-      <c r="H76">
+      <c r="H78">
         <v>6</v>
       </c>
-      <c r="I76">
+      <c r="I78">
         <v>7</v>
       </c>
-      <c r="J76">
+      <c r="J78">
         <v>8</v>
       </c>
-      <c r="K76">
+      <c r="K78">
         <v>9</v>
       </c>
-      <c r="L76">
+      <c r="L78">
         <v>10</v>
       </c>
-      <c r="M76">
+      <c r="M78">
         <v>11</v>
       </c>
-      <c r="N76">
+      <c r="N78">
         <v>12</v>
       </c>
-      <c r="O76">
+      <c r="O78">
         <v>13</v>
       </c>
-      <c r="P76">
+      <c r="P78">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
         <v>61</v>
       </c>
-      <c r="Q77" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A78">
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A80">
         <v>1</v>
       </c>
-      <c r="B78" t="s">
+      <c r="Q80" t="s">
         <v>62</v>
       </c>
-      <c r="Q78" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A79">
-        <v>2</v>
-      </c>
-      <c r="B79">
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q81">
         <v>43</v>
       </c>
-      <c r="Q79">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A80">
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A82">
         <v>3</v>
       </c>
-      <c r="B80" t="s">
+      <c r="Q82" t="s">
         <v>63</v>
       </c>
-      <c r="Q80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A81">
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A83">
         <v>4</v>
       </c>
-      <c r="B81" t="s">
+      <c r="Q83" t="s">
         <v>64</v>
       </c>
-      <c r="Q81" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A82">
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A84">
         <v>5</v>
       </c>
-      <c r="B82" t="s">
+      <c r="Q84" t="s">
         <v>65</v>
       </c>
-      <c r="Q82" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A83">
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A85">
         <v>6</v>
       </c>
-      <c r="B83" t="s">
+      <c r="Q85" t="s">
         <v>66</v>
       </c>
-      <c r="Q83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A84">
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A86">
         <v>7</v>
       </c>
-      <c r="B84" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q84" t="s">
+      <c r="Q86" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3515,19 +3545,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8529B-222B-4E57-9E1F-B731C7543C9F}">
-  <dimension ref="A4:H67"/>
+  <dimension ref="A4:J67"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.61328125" customWidth="1"/>
-    <col min="3" max="3" width="15.69140625" customWidth="1"/>
+    <col min="1" max="1" width="4.59765625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -3540,11 +3570,14 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -3554,11 +3587,11 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -3568,11 +3601,11 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -3582,17 +3615,11 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -3602,8 +3629,11 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -3613,8 +3643,11 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -3624,8 +3657,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -3638,346 +3674,564 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="E19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G27" t="s">
+        <v>73</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>24</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>27</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>32</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="8"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
+      <c r="J36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>33</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>36</v>
       </c>
       <c r="C40" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>39</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G44" t="s">
+        <v>77</v>
+      </c>
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>44</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A52">
+      <c r="G51" t="s">
+        <v>77</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A52" s="7">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A53">
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A53" s="7">
         <v>49</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A54">
+      <c r="G53" t="s">
+        <v>80</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A54" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A55">
+      <c r="I54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A55" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A56">
+      <c r="I55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A56" s="7">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A57">
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A57" s="7">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A58">
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A58" s="7">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A59">
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A59" s="7">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>56</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G60" t="s">
+        <v>81</v>
+      </c>
+      <c r="J60" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G62" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>59</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G64" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>61</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>62</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>63</v>
+      </c>
+      <c r="G67" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8372F0B-10BF-4E04-9E53-B4EC6CEA72CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6DA661-61CC-4972-AB43-36765E2ADBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="172" windowWidth="25148" windowHeight="15945" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -259,37 +259,79 @@
     <t>ST_SW_WAUP</t>
   </si>
   <si>
-    <t>7C</t>
-  </si>
-  <si>
-    <t>FF</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
     <t>IJV_FU</t>
   </si>
   <si>
-    <t>2D</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
     <t>CTR_SLCK</t>
   </si>
   <si>
     <t>RPM_IDLG_TAR</t>
   </si>
   <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>0x50</t>
+    <t>1014 hPa</t>
+  </si>
+  <si>
+    <t>80 grdC</t>
+  </si>
+  <si>
+    <t>0x80</t>
+  </si>
+  <si>
+    <t>0xD0</t>
+  </si>
+  <si>
+    <t>0x3A</t>
+  </si>
+  <si>
+    <t>0xCE</t>
+  </si>
+  <si>
+    <t>0x91</t>
+  </si>
+  <si>
+    <t>725 rpm</t>
+  </si>
+  <si>
+    <t>no req. SLCK</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>15054 ul</t>
+  </si>
+  <si>
+    <t>0x60</t>
+  </si>
+  <si>
+    <t>0x60+ctr</t>
+  </si>
+  <si>
+    <t>0x0D</t>
+  </si>
+  <si>
+    <t>V_VEH</t>
+  </si>
+  <si>
+    <t>ST_VEH_DVCO</t>
+  </si>
+  <si>
+    <t>ACLH_VEH_LN_DSC</t>
+  </si>
+  <si>
+    <t>ACLH_VEH_ACRO_DSC</t>
+  </si>
+  <si>
+    <t>ANGV_YAW_DSC</t>
+  </si>
+  <si>
+    <t>ALIV_V</t>
+  </si>
+  <si>
+    <t>CHKSM_V_V</t>
+  </si>
+  <si>
+    <t>ctr</t>
   </si>
 </sst>
 </file>
@@ -305,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +390,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -361,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -370,6 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,15 +699,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U86"/>
+  <dimension ref="A2:U85"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:21" x14ac:dyDescent="0.45">
@@ -1402,13 +1452,72 @@
       <c r="A24" t="s">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>416</v>
       </c>
-      <c r="B25" t="s">
-        <v>21</v>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>C26*16</f>
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:P25" si="3">D26*16</f>
+        <v>32</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>176</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>208</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.45">
@@ -1832,50 +1941,49 @@
         <v>28</v>
       </c>
       <c r="B33">
-        <f>80+B26</f>
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="C33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="H33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="I33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="J33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="K33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="L33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="M33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="N33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="O33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="P33">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="Q33">
         <v>58</v>
@@ -1896,63 +2004,63 @@
       </c>
       <c r="B34" s="1">
         <f>B38</f>
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" ref="C34:P34" si="3">C38</f>
-        <v>243</v>
+        <f t="shared" ref="C34:P34" si="4">C38</f>
+        <v>186</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="3"/>
-        <v>244</v>
+        <f t="shared" si="4"/>
+        <v>202</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="3"/>
-        <v>245</v>
+        <f t="shared" si="4"/>
+        <v>218</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="3"/>
-        <v>246</v>
+        <f t="shared" si="4"/>
+        <v>234</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="3"/>
-        <v>247</v>
+        <f t="shared" si="4"/>
+        <v>250</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="3"/>
-        <v>248</v>
+        <f t="shared" si="4"/>
+        <v>266</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="3"/>
-        <v>249</v>
+        <f t="shared" si="4"/>
+        <v>282</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
-        <v>250</v>
+        <f t="shared" si="4"/>
+        <v>298</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
-        <v>251</v>
+        <f t="shared" si="4"/>
+        <v>314</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="3"/>
-        <v>252</v>
+        <f t="shared" si="4"/>
+        <v>330</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="3"/>
-        <v>253</v>
+        <f t="shared" si="4"/>
+        <v>346</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="3"/>
-        <v>254</v>
+        <f t="shared" si="4"/>
+        <v>362</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="3"/>
-        <v>255</v>
+        <f t="shared" si="4"/>
+        <v>378</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="3"/>
-        <v>256</v>
+        <f t="shared" si="4"/>
+        <v>394</v>
       </c>
       <c r="Q34" t="s">
         <v>19</v>
@@ -1969,64 +2077,64 @@
         <v>7</v>
       </c>
       <c r="B36">
-        <f>SUM(B26:B33)</f>
-        <v>336</v>
+        <f>SUM(B27:B33)+B25</f>
+        <v>264</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:P36" si="4">SUM(C26:C33)</f>
-        <v>337</v>
+        <f t="shared" ref="C36:P36" si="5">SUM(C27:C33)+C25</f>
+        <v>280</v>
       </c>
       <c r="D36">
-        <f t="shared" si="4"/>
-        <v>338</v>
+        <f t="shared" si="5"/>
+        <v>296</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
-        <v>339</v>
+        <f t="shared" si="5"/>
+        <v>312</v>
       </c>
       <c r="F36">
-        <f t="shared" si="4"/>
-        <v>340</v>
+        <f t="shared" si="5"/>
+        <v>328</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
-        <v>341</v>
+        <f t="shared" si="5"/>
+        <v>344</v>
       </c>
       <c r="H36">
-        <f t="shared" si="4"/>
-        <v>342</v>
+        <f t="shared" si="5"/>
+        <v>360</v>
       </c>
       <c r="I36">
-        <f t="shared" si="4"/>
-        <v>343</v>
+        <f t="shared" si="5"/>
+        <v>376</v>
       </c>
       <c r="J36">
-        <f t="shared" si="4"/>
-        <v>344</v>
+        <f t="shared" si="5"/>
+        <v>392</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
-        <v>345</v>
+        <f t="shared" si="5"/>
+        <v>408</v>
       </c>
       <c r="L36">
-        <f t="shared" si="4"/>
-        <v>346</v>
+        <f t="shared" si="5"/>
+        <v>424</v>
       </c>
       <c r="M36">
-        <f t="shared" si="4"/>
-        <v>347</v>
+        <f t="shared" si="5"/>
+        <v>440</v>
       </c>
       <c r="N36">
-        <f t="shared" si="4"/>
-        <v>348</v>
+        <f t="shared" si="5"/>
+        <v>456</v>
       </c>
       <c r="O36">
-        <f t="shared" si="4"/>
-        <v>349</v>
+        <f t="shared" si="5"/>
+        <v>472</v>
       </c>
       <c r="P36">
-        <f t="shared" si="4"/>
-        <v>350</v>
+        <f t="shared" si="5"/>
+        <v>488</v>
       </c>
       <c r="R36">
         <f>SUM(R27:R33)</f>
@@ -2039,7 +2147,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.45">
       <c r="R37">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S37" s="2">
         <f>R36-R34</f>
@@ -2056,1486 +2164,1507 @@
       </c>
       <c r="B38" s="5">
         <f>B36-$S$37</f>
-        <v>242</v>
+        <v>170</v>
       </c>
       <c r="C38">
-        <f t="shared" ref="C38:P38" si="5">C36-$S$37</f>
-        <v>243</v>
+        <f t="shared" ref="C38:P38" si="6">C36-$S$37</f>
+        <v>186</v>
       </c>
       <c r="D38">
-        <f t="shared" si="5"/>
-        <v>244</v>
+        <f t="shared" si="6"/>
+        <v>202</v>
       </c>
       <c r="E38">
-        <f t="shared" si="5"/>
-        <v>245</v>
+        <f t="shared" si="6"/>
+        <v>218</v>
       </c>
       <c r="F38">
-        <f t="shared" si="5"/>
-        <v>246</v>
+        <f t="shared" si="6"/>
+        <v>234</v>
       </c>
       <c r="G38">
-        <f t="shared" si="5"/>
-        <v>247</v>
+        <f t="shared" si="6"/>
+        <v>250</v>
       </c>
       <c r="H38">
-        <f t="shared" si="5"/>
-        <v>248</v>
+        <f t="shared" si="6"/>
+        <v>266</v>
       </c>
       <c r="I38">
-        <f t="shared" si="5"/>
-        <v>249</v>
+        <f t="shared" si="6"/>
+        <v>282</v>
       </c>
       <c r="J38">
-        <f t="shared" si="5"/>
-        <v>250</v>
+        <f t="shared" si="6"/>
+        <v>298</v>
       </c>
       <c r="K38">
-        <f t="shared" si="5"/>
-        <v>251</v>
+        <f t="shared" si="6"/>
+        <v>314</v>
       </c>
       <c r="L38">
-        <f t="shared" si="5"/>
-        <v>252</v>
+        <f t="shared" si="6"/>
+        <v>330</v>
       </c>
       <c r="M38">
-        <f t="shared" si="5"/>
-        <v>253</v>
+        <f t="shared" si="6"/>
+        <v>346</v>
       </c>
       <c r="N38">
-        <f t="shared" si="5"/>
-        <v>254</v>
+        <f t="shared" si="6"/>
+        <v>362</v>
       </c>
       <c r="O38">
-        <f t="shared" si="5"/>
-        <v>255</v>
+        <f t="shared" si="6"/>
+        <v>378</v>
       </c>
       <c r="P38">
-        <f t="shared" si="5"/>
-        <v>256</v>
+        <f t="shared" si="6"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>464</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42">
+        <v>5</v>
+      </c>
+      <c r="H42">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>8</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>11</v>
+      </c>
+      <c r="N42">
+        <v>12</v>
+      </c>
+      <c r="O42">
+        <v>13</v>
+      </c>
+      <c r="P42">
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A43">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" s="3"/>
+        <v>79</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
+      <c r="A44">
         <v>1</v>
       </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-      <c r="F44">
-        <v>4</v>
-      </c>
-      <c r="G44">
-        <v>5</v>
-      </c>
-      <c r="H44">
-        <v>6</v>
-      </c>
-      <c r="I44">
-        <v>7</v>
-      </c>
-      <c r="J44">
-        <v>8</v>
-      </c>
-      <c r="K44">
-        <v>9</v>
-      </c>
-      <c r="L44">
-        <v>10</v>
-      </c>
-      <c r="M44">
-        <v>11</v>
-      </c>
-      <c r="N44">
-        <v>12</v>
-      </c>
-      <c r="O44">
-        <v>13</v>
-      </c>
-      <c r="P44">
-        <v>14</v>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>0</v>
-      </c>
-      <c r="B45">
-        <v>186</v>
-      </c>
-      <c r="C45">
-        <v>186</v>
-      </c>
-      <c r="D45">
-        <v>186</v>
-      </c>
-      <c r="E45">
-        <v>186</v>
-      </c>
-      <c r="F45">
-        <v>186</v>
-      </c>
-      <c r="G45">
-        <v>186</v>
-      </c>
-      <c r="H45">
-        <v>186</v>
-      </c>
-      <c r="I45">
-        <v>186</v>
-      </c>
-      <c r="J45">
-        <v>186</v>
-      </c>
-      <c r="K45">
-        <v>186</v>
-      </c>
-      <c r="L45">
-        <v>186</v>
-      </c>
-      <c r="M45">
-        <v>186</v>
-      </c>
-      <c r="N45">
-        <v>186</v>
-      </c>
-      <c r="O45">
-        <v>186</v>
-      </c>
-      <c r="P45">
-        <v>186</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>26</v>
-      </c>
-      <c r="R45">
-        <v>186</v>
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q45">
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>2</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-      <c r="G46">
-        <v>2</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>2</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46">
-        <v>2</v>
-      </c>
-      <c r="L46">
-        <v>2</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <v>2</v>
-      </c>
-      <c r="O46">
-        <v>2</v>
-      </c>
-      <c r="P46">
-        <v>2</v>
-      </c>
-      <c r="Q46">
-        <v>2</v>
-      </c>
-      <c r="R46">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A47" t="s">
-        <v>30</v>
-      </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
       </c>
       <c r="Q47" t="s">
-        <v>27</v>
-      </c>
-      <c r="R47">
-        <v>12</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A48">
-        <v>3</v>
-      </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A49">
-        <v>4</v>
-      </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A50">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>200</v>
+      </c>
+      <c r="B54" t="s">
+        <v>25</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>4</v>
+      </c>
+      <c r="G55">
         <v>5</v>
       </c>
-      <c r="B50" s="1">
-        <f>B54</f>
-        <v>80</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" ref="C50:P50" si="6">C54</f>
-        <v>81</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="6"/>
-        <v>82</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="F50" s="1">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-      <c r="G50" s="1">
-        <f t="shared" si="6"/>
-        <v>85</v>
-      </c>
-      <c r="H50" s="1">
-        <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-      <c r="I50" s="1">
-        <f t="shared" si="6"/>
-        <v>87</v>
-      </c>
-      <c r="J50" s="1">
-        <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="K50" s="1">
-        <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="L50" s="1">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="M50" s="1">
-        <f t="shared" si="6"/>
-        <v>91</v>
-      </c>
-      <c r="N50" s="1">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="O50" s="1">
-        <f t="shared" si="6"/>
-        <v>93</v>
-      </c>
-      <c r="P50" s="1">
-        <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="Q50" t="s">
+      <c r="H55">
+        <v>6</v>
+      </c>
+      <c r="I55">
+        <v>7</v>
+      </c>
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="K55">
+        <v>9</v>
+      </c>
+      <c r="L55">
+        <v>10</v>
+      </c>
+      <c r="M55">
+        <v>11</v>
+      </c>
+      <c r="N55">
+        <v>12</v>
+      </c>
+      <c r="O55">
+        <v>13</v>
+      </c>
+      <c r="P55">
         <v>14</v>
       </c>
-      <c r="R50">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A52" t="s">
-        <v>31</v>
-      </c>
-      <c r="B52">
-        <f>SUM(B44:B49)</f>
-        <v>188</v>
-      </c>
-      <c r="C52">
-        <f t="shared" ref="C52:P52" si="7">SUM(C44:C49)</f>
-        <v>189</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="7"/>
-        <v>190</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="7"/>
-        <v>191</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="7"/>
-        <v>192</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="7"/>
-        <v>193</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="7"/>
-        <v>194</v>
-      </c>
-      <c r="I52">
-        <f t="shared" si="7"/>
-        <v>195</v>
-      </c>
-      <c r="J52">
-        <f t="shared" si="7"/>
-        <v>196</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="7"/>
-        <v>197</v>
-      </c>
-      <c r="L52">
-        <f t="shared" si="7"/>
-        <v>198</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="7"/>
-        <v>199</v>
-      </c>
-      <c r="N52">
-        <f t="shared" si="7"/>
-        <v>200</v>
-      </c>
-      <c r="O52">
-        <f t="shared" si="7"/>
-        <v>201</v>
-      </c>
-      <c r="P52">
-        <f t="shared" si="7"/>
-        <v>202</v>
-      </c>
-      <c r="R52">
-        <f>SUM(R45:R49)</f>
-        <v>200</v>
-      </c>
-      <c r="S52">
-        <f>R52-S53</f>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R53">
-        <v>12</v>
-      </c>
-      <c r="S53" s="2">
-        <f>R52-R50</f>
-        <v>108</v>
-      </c>
-      <c r="U53">
-        <f>A43+S53-255</f>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="5">
-        <f>B52-$S$53</f>
-        <v>80</v>
-      </c>
-      <c r="C54">
-        <f t="shared" ref="C54:P54" si="8">C52-$S$53</f>
-        <v>81</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="8"/>
-        <v>82</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="8"/>
-        <v>83</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="8"/>
-        <v>85</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="8"/>
-        <v>86</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="8"/>
-        <v>87</v>
-      </c>
-      <c r="J54">
-        <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="8"/>
-        <v>89</v>
-      </c>
-      <c r="L54">
-        <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="8"/>
-        <v>91</v>
-      </c>
-      <c r="N54">
-        <f t="shared" si="8"/>
-        <v>92</v>
-      </c>
-      <c r="O54">
-        <f t="shared" si="8"/>
-        <v>93</v>
-      </c>
-      <c r="P54">
-        <f t="shared" si="8"/>
-        <v>94</v>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>186</v>
+      </c>
+      <c r="C56">
+        <v>186</v>
+      </c>
+      <c r="D56">
+        <v>186</v>
+      </c>
+      <c r="E56">
+        <v>186</v>
+      </c>
+      <c r="F56">
+        <v>186</v>
+      </c>
+      <c r="G56">
+        <v>186</v>
+      </c>
+      <c r="H56">
+        <v>186</v>
+      </c>
+      <c r="I56">
+        <v>186</v>
+      </c>
+      <c r="J56">
+        <v>186</v>
+      </c>
+      <c r="K56">
+        <v>186</v>
+      </c>
+      <c r="L56">
+        <v>186</v>
+      </c>
+      <c r="M56">
+        <v>186</v>
+      </c>
+      <c r="N56">
+        <v>186</v>
+      </c>
+      <c r="O56">
+        <v>186</v>
+      </c>
+      <c r="P56">
+        <v>186</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>26</v>
+      </c>
+      <c r="R56">
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A57">
-        <v>304</v>
-      </c>
-      <c r="B57" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
       </c>
       <c r="C57">
-        <f>C58*16</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:P57" si="9">D58*16</f>
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E57">
-        <f t="shared" si="9"/>
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="F57">
-        <f t="shared" si="9"/>
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="G57">
-        <f t="shared" si="9"/>
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="H57">
-        <f t="shared" si="9"/>
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <f t="shared" si="9"/>
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="J57">
-        <f t="shared" si="9"/>
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="K57">
-        <f t="shared" si="9"/>
-        <v>144</v>
+        <v>2</v>
       </c>
       <c r="L57">
-        <f t="shared" si="9"/>
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="M57">
-        <f t="shared" si="9"/>
-        <v>176</v>
+        <v>2</v>
       </c>
       <c r="N57">
-        <f t="shared" si="9"/>
-        <v>192</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <f t="shared" si="9"/>
-        <v>208</v>
+        <v>2</v>
       </c>
       <c r="P57">
-        <f t="shared" si="9"/>
-        <v>224</v>
+        <v>2</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J58">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K58">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>27</v>
+      </c>
+      <c r="R58">
         <v>12</v>
-      </c>
-      <c r="O58">
-        <v>13</v>
-      </c>
-      <c r="P58">
-        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="G59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="K59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="O59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="P59">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="E60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="K60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="R60">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A61">
-        <v>2</v>
-      </c>
-      <c r="B61">
-        <v>41</v>
-      </c>
-      <c r="C61">
-        <v>41</v>
-      </c>
-      <c r="D61">
-        <v>41</v>
-      </c>
-      <c r="E61">
-        <v>41</v>
-      </c>
-      <c r="F61">
-        <v>41</v>
-      </c>
-      <c r="G61">
-        <v>41</v>
-      </c>
-      <c r="H61">
-        <v>41</v>
-      </c>
-      <c r="I61">
-        <v>41</v>
-      </c>
-      <c r="J61">
-        <v>41</v>
-      </c>
-      <c r="K61">
-        <v>41</v>
-      </c>
-      <c r="L61">
-        <v>41</v>
-      </c>
-      <c r="M61">
-        <v>41</v>
-      </c>
-      <c r="N61">
-        <v>41</v>
-      </c>
-      <c r="O61">
-        <v>41</v>
-      </c>
-      <c r="P61">
-        <v>41</v>
-      </c>
-      <c r="Q61">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="B61" s="1">
+        <f>B65</f>
+        <v>80</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ref="C61:P61" si="7">C65</f>
+        <v>81</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="7"/>
+        <v>83</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="7"/>
+        <v>85</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="7"/>
+        <v>86</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" si="7"/>
+        <v>87</v>
+      </c>
+      <c r="J61" s="1">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="K61" s="1">
+        <f t="shared" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="L61" s="1">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="M61" s="1">
+        <f t="shared" si="7"/>
+        <v>91</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="O61" s="1">
+        <f t="shared" si="7"/>
+        <v>93</v>
+      </c>
+      <c r="P61" s="1">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>14</v>
       </c>
       <c r="R61">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>3</v>
-      </c>
-      <c r="B62">
-        <v>15</v>
-      </c>
-      <c r="C62">
-        <v>15</v>
-      </c>
-      <c r="D62">
-        <v>15</v>
-      </c>
-      <c r="E62">
-        <v>15</v>
-      </c>
-      <c r="F62">
-        <v>15</v>
-      </c>
-      <c r="G62">
-        <v>15</v>
-      </c>
-      <c r="H62">
-        <v>15</v>
-      </c>
-      <c r="I62">
-        <v>15</v>
-      </c>
-      <c r="J62">
-        <v>15</v>
-      </c>
-      <c r="K62">
-        <v>15</v>
-      </c>
-      <c r="L62">
-        <v>15</v>
-      </c>
-      <c r="M62">
-        <v>15</v>
-      </c>
-      <c r="N62">
-        <v>15</v>
-      </c>
-      <c r="O62">
-        <v>15</v>
-      </c>
-      <c r="P62">
-        <v>15</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>34</v>
-      </c>
-      <c r="R62">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B63" s="1">
-        <f>B69</f>
-        <v>181</v>
-      </c>
-      <c r="C63" s="1">
-        <f t="shared" ref="C63:P63" si="10">C69</f>
-        <v>182</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="A63" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63">
+        <f>SUM(B55:B60)</f>
+        <v>188</v>
+      </c>
+      <c r="C63">
+        <f t="shared" ref="C63:P63" si="8">SUM(C55:C60)</f>
+        <v>189</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="8"/>
+        <v>190</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="8"/>
+        <v>191</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="8"/>
+        <v>192</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="8"/>
+        <v>193</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="8"/>
+        <v>194</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="8"/>
+        <v>195</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="8"/>
+        <v>196</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="8"/>
+        <v>197</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="8"/>
+        <v>198</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="8"/>
+        <v>199</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="8"/>
+        <v>200</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="8"/>
+        <v>201</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="8"/>
+        <v>202</v>
+      </c>
+      <c r="R63">
+        <f>SUM(R56:R60)</f>
+        <v>200</v>
+      </c>
+      <c r="S63">
+        <f>R63-S64</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="R64">
+        <v>12</v>
+      </c>
+      <c r="S64" s="2">
+        <f>R63-R61</f>
+        <v>108</v>
+      </c>
+      <c r="U64">
+        <f>A54+S64-255</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="5">
+        <f>B63-$S$64</f>
+        <v>80</v>
+      </c>
+      <c r="C65">
+        <f t="shared" ref="C65:P65" si="9">C63-$S$64</f>
+        <v>81</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="9"/>
+        <v>83</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="9"/>
+        <v>84</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="9"/>
+        <v>85</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="9"/>
+        <v>86</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="9"/>
+        <v>87</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="9"/>
+        <v>88</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="9"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>304</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68">
+        <f>C69*16</f>
+        <v>16</v>
+      </c>
+      <c r="D68">
+        <f t="shared" ref="D68:P68" si="10">D69*16</f>
+        <v>32</v>
+      </c>
+      <c r="E68">
         <f t="shared" si="10"/>
-        <v>183</v>
-      </c>
-      <c r="E63" s="1">
+        <v>48</v>
+      </c>
+      <c r="F68">
         <f t="shared" si="10"/>
-        <v>184</v>
-      </c>
-      <c r="F63" s="1">
+        <v>64</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="10"/>
-        <v>185</v>
-      </c>
-      <c r="G63" s="1">
+        <v>80</v>
+      </c>
+      <c r="H68">
         <f t="shared" si="10"/>
-        <v>186</v>
-      </c>
-      <c r="H63" s="1">
+        <v>96</v>
+      </c>
+      <c r="I68">
         <f t="shared" si="10"/>
-        <v>187</v>
-      </c>
-      <c r="I63" s="1">
+        <v>112</v>
+      </c>
+      <c r="J68">
         <f t="shared" si="10"/>
-        <v>188</v>
-      </c>
-      <c r="J63" s="1">
+        <v>128</v>
+      </c>
+      <c r="K68">
         <f t="shared" si="10"/>
-        <v>189</v>
-      </c>
-      <c r="K63" s="1">
+        <v>144</v>
+      </c>
+      <c r="L68">
         <f t="shared" si="10"/>
-        <v>190</v>
-      </c>
-      <c r="L63" s="1">
+        <v>160</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="10"/>
-        <v>191</v>
-      </c>
-      <c r="M63" s="1">
+        <v>176</v>
+      </c>
+      <c r="N68">
         <f t="shared" si="10"/>
         <v>192</v>
       </c>
-      <c r="N63" s="1">
+      <c r="O68">
         <f t="shared" si="10"/>
+        <v>208</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="10"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>33</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>6</v>
+      </c>
+      <c r="I69">
+        <v>7</v>
+      </c>
+      <c r="J69">
+        <v>8</v>
+      </c>
+      <c r="K69">
+        <v>9</v>
+      </c>
+      <c r="L69">
+        <v>10</v>
+      </c>
+      <c r="M69">
+        <v>11</v>
+      </c>
+      <c r="N69">
+        <v>12</v>
+      </c>
+      <c r="O69">
+        <v>13</v>
+      </c>
+      <c r="P69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>65</v>
+      </c>
+      <c r="C70">
+        <v>65</v>
+      </c>
+      <c r="D70">
+        <v>65</v>
+      </c>
+      <c r="E70">
+        <v>65</v>
+      </c>
+      <c r="F70">
+        <v>65</v>
+      </c>
+      <c r="G70">
+        <v>65</v>
+      </c>
+      <c r="H70">
+        <v>65</v>
+      </c>
+      <c r="I70">
+        <v>65</v>
+      </c>
+      <c r="J70">
+        <v>65</v>
+      </c>
+      <c r="K70">
+        <v>65</v>
+      </c>
+      <c r="L70">
+        <v>65</v>
+      </c>
+      <c r="M70">
+        <v>65</v>
+      </c>
+      <c r="N70">
+        <v>65</v>
+      </c>
+      <c r="O70">
+        <v>65</v>
+      </c>
+      <c r="P70">
+        <v>65</v>
+      </c>
+      <c r="Q70">
+        <v>41</v>
+      </c>
+      <c r="R70">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>67</v>
+      </c>
+      <c r="C71">
+        <v>67</v>
+      </c>
+      <c r="D71">
+        <v>67</v>
+      </c>
+      <c r="E71">
+        <v>67</v>
+      </c>
+      <c r="F71">
+        <v>67</v>
+      </c>
+      <c r="G71">
+        <v>67</v>
+      </c>
+      <c r="H71">
+        <v>67</v>
+      </c>
+      <c r="I71">
+        <v>67</v>
+      </c>
+      <c r="J71">
+        <v>67</v>
+      </c>
+      <c r="K71">
+        <v>67</v>
+      </c>
+      <c r="L71">
+        <v>67</v>
+      </c>
+      <c r="M71">
+        <v>67</v>
+      </c>
+      <c r="N71">
+        <v>67</v>
+      </c>
+      <c r="O71">
+        <v>67</v>
+      </c>
+      <c r="P71">
+        <v>67</v>
+      </c>
+      <c r="Q71">
+        <v>43</v>
+      </c>
+      <c r="R71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>2</v>
+      </c>
+      <c r="B72">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <v>41</v>
+      </c>
+      <c r="D72">
+        <v>41</v>
+      </c>
+      <c r="E72">
+        <v>41</v>
+      </c>
+      <c r="F72">
+        <v>41</v>
+      </c>
+      <c r="G72">
+        <v>41</v>
+      </c>
+      <c r="H72">
+        <v>41</v>
+      </c>
+      <c r="I72">
+        <v>41</v>
+      </c>
+      <c r="J72">
+        <v>41</v>
+      </c>
+      <c r="K72">
+        <v>41</v>
+      </c>
+      <c r="L72">
+        <v>41</v>
+      </c>
+      <c r="M72">
+        <v>41</v>
+      </c>
+      <c r="N72">
+        <v>41</v>
+      </c>
+      <c r="O72">
+        <v>41</v>
+      </c>
+      <c r="P72">
+        <v>41</v>
+      </c>
+      <c r="Q72">
+        <v>29</v>
+      </c>
+      <c r="R72">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>15</v>
+      </c>
+      <c r="C73">
+        <v>15</v>
+      </c>
+      <c r="D73">
+        <v>15</v>
+      </c>
+      <c r="E73">
+        <v>15</v>
+      </c>
+      <c r="F73">
+        <v>15</v>
+      </c>
+      <c r="G73">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>15</v>
+      </c>
+      <c r="I73">
+        <v>15</v>
+      </c>
+      <c r="J73">
+        <v>15</v>
+      </c>
+      <c r="K73">
+        <v>15</v>
+      </c>
+      <c r="L73">
+        <v>15</v>
+      </c>
+      <c r="M73">
+        <v>15</v>
+      </c>
+      <c r="N73">
+        <v>15</v>
+      </c>
+      <c r="O73">
+        <v>15</v>
+      </c>
+      <c r="P73">
+        <v>15</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>34</v>
+      </c>
+      <c r="R73">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B74" s="1">
+        <f>B80</f>
+        <v>181</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" ref="C74:P74" si="11">C80</f>
+        <v>182</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="11"/>
+        <v>183</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="11"/>
+        <v>184</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="11"/>
+        <v>185</v>
+      </c>
+      <c r="G74" s="1">
+        <f t="shared" si="11"/>
+        <v>186</v>
+      </c>
+      <c r="H74" s="1">
+        <f t="shared" si="11"/>
+        <v>187</v>
+      </c>
+      <c r="I74" s="1">
+        <f t="shared" si="11"/>
+        <v>188</v>
+      </c>
+      <c r="J74" s="1">
+        <f t="shared" si="11"/>
+        <v>189</v>
+      </c>
+      <c r="K74" s="1">
+        <f t="shared" si="11"/>
+        <v>190</v>
+      </c>
+      <c r="L74" s="1">
+        <f t="shared" si="11"/>
+        <v>191</v>
+      </c>
+      <c r="M74" s="1">
+        <f t="shared" si="11"/>
+        <v>192</v>
+      </c>
+      <c r="N74" s="1">
+        <f t="shared" si="11"/>
         <v>193</v>
       </c>
-      <c r="O63" s="1">
-        <f t="shared" si="10"/>
+      <c r="O74" s="1">
+        <f t="shared" si="11"/>
         <v>194</v>
       </c>
-      <c r="P63" s="1">
-        <f t="shared" si="10"/>
+      <c r="P74" s="1">
+        <f t="shared" si="11"/>
         <v>195</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="Q74" t="s">
         <v>35</v>
       </c>
-      <c r="R63">
+      <c r="R74">
         <v>12</v>
       </c>
-      <c r="T63" t="s">
+      <c r="T74" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A64" t="s">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
         <v>38</v>
       </c>
-      <c r="B64">
-        <f>B58</f>
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <f t="shared" ref="C64:P64" si="11">C58</f>
+      <c r="B75">
+        <f>B69</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f t="shared" ref="C75:P75" si="12">C69</f>
         <v>1</v>
       </c>
-      <c r="D64">
-        <f t="shared" si="11"/>
+      <c r="D75">
+        <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="11"/>
+      <c r="E75">
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="11"/>
+      <c r="F75">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="G64">
-        <f t="shared" si="11"/>
+      <c r="G75">
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="H64">
-        <f t="shared" si="11"/>
+      <c r="H75">
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="I64">
-        <f t="shared" si="11"/>
+      <c r="I75">
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="J64">
-        <f t="shared" si="11"/>
+      <c r="J75">
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="K64">
-        <f t="shared" si="11"/>
+      <c r="K75">
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="L64">
-        <f t="shared" si="11"/>
+      <c r="L75">
+        <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="M64">
-        <f t="shared" si="11"/>
+      <c r="M75">
+        <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="N64">
-        <f t="shared" si="11"/>
+      <c r="N75">
+        <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="O64">
-        <f t="shared" si="11"/>
+      <c r="O75">
+        <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="P64">
-        <f t="shared" si="11"/>
+      <c r="P75">
+        <f t="shared" si="12"/>
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
         <v>39</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B76" s="6">
         <v>4</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C76" s="6">
         <v>5</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D76" s="6">
         <v>6</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E76" s="6">
         <v>7</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F76" s="6">
         <v>8</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G76" s="6">
         <v>9</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H76" s="6">
         <v>10</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I76" s="6">
         <v>11</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J76" s="6">
         <v>12</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K76" s="6">
         <v>13</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L76" s="6">
         <v>14</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M76" s="6">
         <v>15</v>
       </c>
-      <c r="N65" s="6">
+      <c r="N76" s="6">
         <v>1</v>
       </c>
-      <c r="O65" s="6">
+      <c r="O76" s="6">
         <v>2</v>
       </c>
-      <c r="P65" s="6">
+      <c r="P76" s="6">
         <v>3</v>
       </c>
-      <c r="R65">
+      <c r="R76">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A67" t="s">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
         <v>36</v>
       </c>
-      <c r="B67">
-        <f>SUM(B58:B62)</f>
+      <c r="B78">
+        <f>SUM(B69:B73)</f>
         <v>188</v>
       </c>
-      <c r="C67">
-        <f t="shared" ref="C67:P67" si="12">SUM(C58:C62)</f>
+      <c r="C78">
+        <f t="shared" ref="C78:P78" si="13">SUM(C69:C73)</f>
         <v>189</v>
       </c>
-      <c r="D67">
-        <f t="shared" si="12"/>
-        <v>190</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="12"/>
-        <v>191</v>
-      </c>
-      <c r="F67">
-        <f t="shared" si="12"/>
-        <v>192</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="12"/>
-        <v>193</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="12"/>
-        <v>194</v>
-      </c>
-      <c r="I67">
-        <f t="shared" si="12"/>
-        <v>195</v>
-      </c>
-      <c r="J67">
-        <f t="shared" si="12"/>
-        <v>196</v>
-      </c>
-      <c r="K67">
-        <f t="shared" si="12"/>
-        <v>197</v>
-      </c>
-      <c r="L67">
-        <f t="shared" si="12"/>
-        <v>198</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="12"/>
-        <v>199</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="12"/>
-        <v>200</v>
-      </c>
-      <c r="O67">
-        <f t="shared" si="12"/>
-        <v>201</v>
-      </c>
-      <c r="P67">
-        <f t="shared" si="12"/>
-        <v>202</v>
-      </c>
-      <c r="R67">
-        <f>SUM(R59:R63)</f>
-        <v>200</v>
-      </c>
-      <c r="S67">
-        <f>R67-S68</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R68">
-        <v>12</v>
-      </c>
-      <c r="S68" s="2">
-        <v>7</v>
-      </c>
-      <c r="U68">
-        <f>A57+S68-255</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B69">
-        <f t="shared" ref="B69:M69" si="13">B67-$S$68</f>
-        <v>181</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="13"/>
-        <v>182</v>
-      </c>
-      <c r="D69">
-        <f t="shared" si="13"/>
-        <v>183</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="13"/>
-        <v>184</v>
-      </c>
-      <c r="F69">
-        <f t="shared" si="13"/>
-        <v>185</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="13"/>
-        <v>186</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="13"/>
-        <v>187</v>
-      </c>
-      <c r="I69">
-        <f t="shared" si="13"/>
-        <v>188</v>
-      </c>
-      <c r="J69">
-        <f t="shared" si="13"/>
-        <v>189</v>
-      </c>
-      <c r="K69">
+      <c r="D78">
         <f t="shared" si="13"/>
         <v>190</v>
       </c>
-      <c r="L69">
+      <c r="E78">
         <f t="shared" si="13"/>
         <v>191</v>
       </c>
-      <c r="M69">
+      <c r="F78">
         <f t="shared" si="13"/>
         <v>192</v>
       </c>
-      <c r="N69">
-        <f>N67-$S$68</f>
+      <c r="G78">
+        <f t="shared" si="13"/>
         <v>193</v>
       </c>
-      <c r="O69">
-        <f t="shared" ref="O69:P69" si="14">O67-$S$68</f>
+      <c r="H78">
+        <f t="shared" si="13"/>
         <v>194</v>
       </c>
-      <c r="P69">
+      <c r="I78">
+        <f t="shared" si="13"/>
+        <v>195</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="13"/>
+        <v>196</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="13"/>
+        <v>197</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="13"/>
+        <v>198</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="13"/>
+        <v>199</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="13"/>
+        <v>200</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="13"/>
+        <v>201</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="13"/>
+        <v>202</v>
+      </c>
+      <c r="R78">
+        <f>SUM(R70:R74)</f>
+        <v>200</v>
+      </c>
+      <c r="S78">
+        <f>R78-S79</f>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="R79">
+        <v>12</v>
+      </c>
+      <c r="S79" s="2">
+        <v>7</v>
+      </c>
+      <c r="U79">
+        <f>A68+S79-255</f>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B80">
+        <f t="shared" ref="B80:M80" si="14">B78-$S$79</f>
+        <v>181</v>
+      </c>
+      <c r="C80">
         <f t="shared" si="14"/>
+        <v>182</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="14"/>
+        <v>183</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="14"/>
+        <v>184</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="14"/>
+        <v>185</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="14"/>
+        <v>186</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="14"/>
+        <v>187</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="14"/>
+        <v>188</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="14"/>
+        <v>189</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="14"/>
+        <v>190</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="14"/>
+        <v>191</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="14"/>
+        <v>192</v>
+      </c>
+      <c r="N80">
+        <f>N78-$S$79</f>
+        <v>193</v>
+      </c>
+      <c r="O80">
+        <f t="shared" ref="O80:P80" si="15">O78-$S$79</f>
+        <v>194</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="15"/>
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B71" t="s">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B82" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A72" t="s">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
         <v>46</v>
       </c>
-      <c r="B72">
+      <c r="B83">
         <v>5</v>
       </c>
-      <c r="C72">
+      <c r="C83">
         <v>6</v>
       </c>
-      <c r="D72">
+      <c r="D83">
         <v>7</v>
       </c>
-      <c r="E72">
+      <c r="E83">
         <v>8</v>
       </c>
-      <c r="F72">
+      <c r="F83">
         <v>9</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G83" t="s">
         <v>44</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H83" t="s">
         <v>40</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I83" t="s">
         <v>27</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J83" t="s">
         <v>41</v>
       </c>
-      <c r="K72" t="s">
+      <c r="K83" t="s">
         <v>42</v>
       </c>
-      <c r="L72" t="s">
+      <c r="L83" t="s">
         <v>43</v>
       </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
         <v>1</v>
       </c>
-      <c r="O72">
+      <c r="O83">
         <v>2</v>
       </c>
-      <c r="P72">
+      <c r="P83">
         <v>3</v>
       </c>
-      <c r="Q72">
+      <c r="Q83">
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B74" t="s">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B85" t="s">
         <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A77">
-        <v>464</v>
-      </c>
-      <c r="B77" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78">
-        <v>3</v>
-      </c>
-      <c r="F78">
-        <v>4</v>
-      </c>
-      <c r="G78">
-        <v>5</v>
-      </c>
-      <c r="H78">
-        <v>6</v>
-      </c>
-      <c r="I78">
-        <v>7</v>
-      </c>
-      <c r="J78">
-        <v>8</v>
-      </c>
-      <c r="K78">
-        <v>9</v>
-      </c>
-      <c r="L78">
-        <v>10</v>
-      </c>
-      <c r="M78">
-        <v>11</v>
-      </c>
-      <c r="N78">
-        <v>12</v>
-      </c>
-      <c r="O78">
-        <v>13</v>
-      </c>
-      <c r="P78">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A79">
-        <v>0</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A80">
-        <v>1</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>30</v>
-      </c>
-      <c r="B81" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q81">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A82">
-        <v>3</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A83">
-        <v>4</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A84">
-        <v>5</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A85">
-        <v>6</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A86">
-        <v>7</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3545,19 +3674,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8529B-222B-4E57-9E1F-B731C7543C9F}">
-  <dimension ref="A4:J67"/>
+  <dimension ref="A2:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.59765625" customWidth="1"/>
     <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="9.06640625" style="8"/>
+    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="G2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="7">
         <v>0</v>
       </c>
@@ -3570,14 +3710,20 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -3587,11 +3733,14 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -3601,11 +3750,14 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -3615,11 +3767,14 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -3629,11 +3784,14 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -3643,11 +3801,14 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -3657,11 +3818,14 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -3674,564 +3838,810 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>52</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I12" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="L12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L16" t="s">
+        <v>92</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>13</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L17" t="s">
+        <v>92</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L18" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>15</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" s="7">
         <v>16</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" s="7">
         <v>17</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" s="7">
         <v>18</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" s="7">
         <v>19</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" s="7">
         <v>20</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I24">
-        <v>1</v>
-      </c>
-      <c r="J24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" s="7">
         <v>21</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" s="7">
         <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>53</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I26">
+      <c r="H26" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" s="7">
         <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>54</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="I28" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" t="s">
+        <v>93</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>25</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>27</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>29</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>30</v>
       </c>
       <c r="C34" t="s">
         <v>55</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>31</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L35" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" s="7">
         <v>32</v>
       </c>
       <c r="C36" t="s">
         <v>56</v>
       </c>
-      <c r="G36" t="s">
-        <v>77</v>
-      </c>
-      <c r="J36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G36" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L36" t="s">
+        <v>94</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" s="7">
         <v>33</v>
       </c>
       <c r="C37" t="s">
         <v>56</v>
       </c>
-      <c r="G37" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" s="7">
         <v>34</v>
       </c>
       <c r="C38" t="s">
         <v>56</v>
       </c>
-      <c r="G38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G38" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" s="7">
         <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>56</v>
       </c>
-      <c r="G39" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" s="7">
         <v>36</v>
       </c>
       <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="G40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G40" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" s="7">
         <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>57</v>
       </c>
-      <c r="G41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G41" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" s="7">
         <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
-      <c r="G42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G42" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" s="7">
         <v>39</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
       </c>
-      <c r="G43" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G43" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>40</v>
       </c>
-      <c r="G44" t="s">
-        <v>77</v>
-      </c>
-      <c r="J44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G44" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L44" t="s">
+        <v>95</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>41</v>
       </c>
-      <c r="G45" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L45" t="s">
+        <v>95</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>42</v>
       </c>
-      <c r="G46" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L46" t="s">
+        <v>95</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>43</v>
       </c>
-      <c r="G47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G47" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L47" t="s">
+        <v>95</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>44</v>
       </c>
-      <c r="G48" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G48" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L48" t="s">
+        <v>95</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>45</v>
       </c>
-      <c r="G49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G49" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L49" t="s">
+        <v>95</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>46</v>
       </c>
-      <c r="G50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L50" t="s">
+        <v>95</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>47</v>
       </c>
-      <c r="G51" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G51" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L51" t="s">
+        <v>95</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" s="7">
         <v>48</v>
       </c>
-      <c r="G52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G52" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="8">
+        <v>1</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L52" t="s">
+        <v>95</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" s="7">
         <v>49</v>
       </c>
-      <c r="G53" t="s">
-        <v>80</v>
-      </c>
-      <c r="I53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G53" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>95</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" s="7">
         <v>50</v>
       </c>
-      <c r="I54">
+      <c r="H54" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L54" t="s">
+        <v>95</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" s="7">
         <v>51</v>
       </c>
-      <c r="I55">
+      <c r="H55" s="8">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="L55" t="s">
+        <v>95</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" s="7">
         <v>52</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H56" s="8">
+        <v>0</v>
+      </c>
+      <c r="I56" s="8">
+        <v>0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>96</v>
+      </c>
+      <c r="N56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" s="7">
         <v>53</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H57" s="8">
+        <v>0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" s="7">
         <v>54</v>
       </c>
-      <c r="I58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H58" s="8">
+        <v>0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" s="7">
         <v>55</v>
       </c>
-      <c r="I59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H59" s="8">
+        <v>0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>56</v>
       </c>
-      <c r="G60" t="s">
-        <v>81</v>
-      </c>
-      <c r="J60" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G60" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>57</v>
       </c>
-      <c r="G61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G61" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>58</v>
       </c>
-      <c r="G62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G62" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>59</v>
       </c>
-      <c r="G63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G63" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>60</v>
       </c>
-      <c r="G64" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G64" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L64" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>61</v>
       </c>
-      <c r="G65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G65" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>62</v>
       </c>
-      <c r="G66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G66" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>63</v>
       </c>
-      <c r="G67" t="s">
-        <v>81</v>
+      <c r="G67" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L67" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6DA661-61CC-4972-AB43-36765E2ADBB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C17D3E-5F20-43FE-ACB6-50E1DED34F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="117">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -121,12 +121,6 @@
     <t>c</t>
   </si>
   <si>
-    <t xml:space="preserve"> ctr 6</t>
-  </si>
-  <si>
-    <t>ctr 1</t>
-  </si>
-  <si>
     <t>ctr 2</t>
   </si>
   <si>
@@ -145,18 +139,9 @@
     <t>c1</t>
   </si>
   <si>
-    <t>sum 0..3</t>
-  </si>
-  <si>
-    <t>c1=193</t>
-  </si>
-  <si>
     <t>4H</t>
   </si>
   <si>
-    <t>4L</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -178,9 +163,6 @@
     <t>sum 4L</t>
   </si>
   <si>
-    <t>0xb5</t>
-  </si>
-  <si>
     <t>ST_KL_R</t>
   </si>
   <si>
@@ -301,9 +283,6 @@
     <t>15054 ul</t>
   </si>
   <si>
-    <t>0x60</t>
-  </si>
-  <si>
     <t>0x60+ctr</t>
   </si>
   <si>
@@ -331,7 +310,82 @@
     <t>CHKSM_V_V</t>
   </si>
   <si>
-    <t>ctr</t>
+    <t>ctr 0-E</t>
+  </si>
+  <si>
+    <t>move fwd</t>
+  </si>
+  <si>
+    <t>BYTE</t>
+  </si>
+  <si>
+    <t>(ctr) 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (high nibble ctr) 6</t>
+  </si>
+  <si>
+    <t>0x16</t>
+  </si>
+  <si>
+    <t>0x00</t>
+  </si>
+  <si>
+    <t>0x08</t>
+  </si>
+  <si>
+    <t>0x5E</t>
+  </si>
+  <si>
+    <t>0x6C</t>
+  </si>
+  <si>
+    <t>0x5C</t>
+  </si>
+  <si>
+    <t>sum 0..4L</t>
+  </si>
+  <si>
+    <t>CHKSM_TORQ_3_DME</t>
+  </si>
+  <si>
+    <t>ALIV_TORQ_3_DME</t>
+  </si>
+  <si>
+    <t>TORQ_DVCH</t>
+  </si>
+  <si>
+    <t>ANG_ACPD</t>
+  </si>
+  <si>
+    <t>RPM_ENG</t>
+  </si>
+  <si>
+    <t>RPM_ENG_ERR</t>
+  </si>
+  <si>
+    <t>ST_IDLG_ENG</t>
+  </si>
+  <si>
+    <t>ST_CLCTR_V</t>
+  </si>
+  <si>
+    <t>RQAM_FU</t>
+  </si>
+  <si>
+    <t>0x1A</t>
+  </si>
+  <si>
+    <t>10% throttle</t>
+  </si>
+  <si>
+    <t>0x1F</t>
+  </si>
+  <si>
+    <t>0x40</t>
+  </si>
+  <si>
+    <t>2000 rpm</t>
   </si>
 </sst>
 </file>
@@ -347,7 +401,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,8 +450,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -405,11 +483,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -417,8 +513,32 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -699,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U85"/>
+  <dimension ref="A2:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -870,8 +990,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>29</v>
+      <c r="A11" s="26" t="s">
+        <v>94</v>
       </c>
       <c r="B11">
         <v>64</v>
@@ -1764,49 +1884,49 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -1937,8 +2057,8 @@
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>28</v>
+      <c r="A33" s="26" t="s">
+        <v>95</v>
       </c>
       <c r="B33">
         <v>8</v>
@@ -2004,63 +2124,63 @@
       </c>
       <c r="B34" s="1">
         <f>B38</f>
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ref="C34:P34" si="4">C38</f>
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="4"/>
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="4"/>
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="4"/>
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="4"/>
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="4"/>
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="4"/>
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="4"/>
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="4"/>
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="4"/>
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="4"/>
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="4"/>
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="4"/>
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="4"/>
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Q34" t="s">
         <v>19</v>
@@ -2078,66 +2198,66 @@
       </c>
       <c r="B36">
         <f>SUM(B27:B33)+B25</f>
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="C36">
-        <f t="shared" ref="C36:P36" si="5">SUM(C27:C33)+C25</f>
-        <v>280</v>
+        <f t="shared" ref="C36:R36" si="5">SUM(C27:C33)+C25</f>
+        <v>288</v>
       </c>
       <c r="D36">
         <f t="shared" si="5"/>
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="E36">
         <f t="shared" si="5"/>
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="I36">
         <f t="shared" si="5"/>
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="J36">
         <f t="shared" si="5"/>
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="K36">
         <f t="shared" si="5"/>
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="O36">
         <f t="shared" si="5"/>
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="P36">
         <f t="shared" si="5"/>
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="R36">
-        <f>SUM(R27:R33)</f>
+        <f t="shared" si="5"/>
         <v>344</v>
       </c>
       <c r="S36">
@@ -2164,63 +2284,66 @@
       </c>
       <c r="B38" s="5">
         <f>B36-$S$37</f>
-        <v>170</v>
-      </c>
-      <c r="C38">
+        <v>178</v>
+      </c>
+      <c r="C38" s="5">
         <f t="shared" ref="C38:P38" si="6">C36-$S$37</f>
-        <v>186</v>
-      </c>
-      <c r="D38">
+        <v>194</v>
+      </c>
+      <c r="D38" s="5">
         <f t="shared" si="6"/>
-        <v>202</v>
-      </c>
-      <c r="E38">
+        <v>210</v>
+      </c>
+      <c r="E38" s="5">
         <f t="shared" si="6"/>
-        <v>218</v>
-      </c>
-      <c r="F38">
+        <v>226</v>
+      </c>
+      <c r="F38" s="5">
         <f t="shared" si="6"/>
-        <v>234</v>
-      </c>
-      <c r="G38">
+        <v>242</v>
+      </c>
+      <c r="G38" s="5">
         <f t="shared" si="6"/>
-        <v>250</v>
-      </c>
-      <c r="H38">
+        <v>258</v>
+      </c>
+      <c r="H38" s="5">
         <f t="shared" si="6"/>
-        <v>266</v>
-      </c>
-      <c r="I38">
+        <v>274</v>
+      </c>
+      <c r="I38" s="5">
         <f t="shared" si="6"/>
-        <v>282</v>
-      </c>
-      <c r="J38">
+        <v>290</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" si="6"/>
-        <v>298</v>
-      </c>
-      <c r="K38">
+        <v>306</v>
+      </c>
+      <c r="K38" s="5">
         <f t="shared" si="6"/>
-        <v>314</v>
-      </c>
-      <c r="L38">
+        <v>322</v>
+      </c>
+      <c r="L38" s="5">
         <f t="shared" si="6"/>
-        <v>330</v>
-      </c>
-      <c r="M38">
+        <v>338</v>
+      </c>
+      <c r="M38" s="5">
         <f t="shared" si="6"/>
-        <v>346</v>
-      </c>
-      <c r="N38">
+        <v>354</v>
+      </c>
+      <c r="N38" s="5">
         <f t="shared" si="6"/>
-        <v>362</v>
-      </c>
-      <c r="O38">
+        <v>370</v>
+      </c>
+      <c r="O38" s="5">
         <f t="shared" si="6"/>
-        <v>378</v>
-      </c>
-      <c r="P38">
+        <v>386</v>
+      </c>
+      <c r="P38" s="5">
         <f t="shared" si="6"/>
-        <v>394</v>
+        <v>402</v>
+      </c>
+      <c r="S38" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.45">
@@ -2228,12 +2351,12 @@
         <v>464</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2286,10 +2409,13 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="C43">
+        <v>128</v>
       </c>
       <c r="Q43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.45">
@@ -2297,18 +2423,24 @@
         <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+      <c r="C44">
+        <v>128</v>
       </c>
       <c r="Q44" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="C45">
+        <v>96</v>
       </c>
       <c r="Q45">
         <v>43</v>
@@ -2319,10 +2451,13 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="C46">
+        <v>208</v>
       </c>
       <c r="Q46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.45">
@@ -2330,10 +2465,13 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>76</v>
+      </c>
+      <c r="C47">
+        <v>206</v>
       </c>
       <c r="Q47" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.45">
@@ -2341,10 +2479,13 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>75</v>
+      </c>
+      <c r="C48">
+        <v>58</v>
       </c>
       <c r="Q48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.45">
@@ -2352,10 +2493,13 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>83</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
       </c>
       <c r="Q49" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.45">
@@ -2363,10 +2507,13 @@
         <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>77</v>
+      </c>
+      <c r="C50">
+        <v>145</v>
       </c>
       <c r="Q50" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.45">
@@ -2542,7 +2689,7 @@
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2781,7 +2928,7 @@
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B63">
         <f>SUM(B55:B60)</f>
@@ -2828,7 +2975,7 @@
         <v>198</v>
       </c>
       <c r="M63">
-        <f t="shared" si="8"/>
+        <f>SUM(M55:M60)</f>
         <v>199</v>
       </c>
       <c r="N63">
@@ -2929,13 +3076,16 @@
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
+      <c r="S65" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>304</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C68">
         <f>C69*16</f>
@@ -2996,7 +3146,7 @@
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -3049,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="C70">
         <v>65</v>
@@ -3105,7 +3255,7 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C71">
         <v>67</v>
@@ -3161,7 +3311,7 @@
         <v>2</v>
       </c>
       <c r="B72">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>41</v>
@@ -3217,7 +3367,7 @@
         <v>3</v>
       </c>
       <c r="B73">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="C73">
         <v>15</v>
@@ -3262,409 +3412,309 @@
         <v>15</v>
       </c>
       <c r="Q73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R73">
         <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B74" s="1">
-        <f>B80</f>
-        <v>181</v>
-      </c>
-      <c r="C74" s="1">
-        <f t="shared" ref="C74:P74" si="11">C80</f>
-        <v>182</v>
-      </c>
-      <c r="D74" s="1">
+      <c r="A74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75" s="1">
+        <f>B79</f>
+        <v>-100</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" ref="C75:P75" si="11">C79</f>
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
         <f t="shared" si="11"/>
-        <v>183</v>
-      </c>
-      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
         <f t="shared" si="11"/>
-        <v>184</v>
-      </c>
-      <c r="F74" s="1">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1">
         <f t="shared" si="11"/>
-        <v>185</v>
-      </c>
-      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="G75" s="1">
         <f t="shared" si="11"/>
-        <v>186</v>
-      </c>
-      <c r="H74" s="1">
+        <v>5</v>
+      </c>
+      <c r="H75" s="1">
         <f t="shared" si="11"/>
-        <v>187</v>
-      </c>
-      <c r="I74" s="1">
+        <v>6</v>
+      </c>
+      <c r="I75" s="1">
         <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="J75" s="1">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="K75" s="1">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="L75" s="1">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="M75" s="1">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="N75" s="1">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="O75" s="1">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="P75" s="1">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77">
+        <f>SUM(B69:B73)</f>
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <f>SUM(C69:C73)</f>
+        <v>189</v>
+      </c>
+      <c r="D77">
+        <f>SUM(D69:D73)</f>
+        <v>190</v>
+      </c>
+      <c r="E77">
+        <f>SUM(E69:E73)</f>
+        <v>191</v>
+      </c>
+      <c r="F77">
+        <f>SUM(F69:F73)</f>
+        <v>192</v>
+      </c>
+      <c r="G77">
+        <f>SUM(G69:G73)</f>
+        <v>193</v>
+      </c>
+      <c r="H77">
+        <f>SUM(H69:H73)</f>
+        <v>194</v>
+      </c>
+      <c r="I77">
+        <f>SUM(I69:I73)</f>
+        <v>195</v>
+      </c>
+      <c r="J77">
+        <f>SUM(J69:J73)</f>
+        <v>196</v>
+      </c>
+      <c r="K77">
+        <f>SUM(K69:K73)</f>
+        <v>197</v>
+      </c>
+      <c r="L77">
+        <f>SUM(L69:L73)</f>
+        <v>198</v>
+      </c>
+      <c r="M77">
+        <f>SUM(M69:M73)</f>
+        <v>199</v>
+      </c>
+      <c r="N77">
+        <f>SUM(N69:N73)</f>
+        <v>200</v>
+      </c>
+      <c r="O77">
+        <f>SUM(O69:O73)</f>
+        <v>201</v>
+      </c>
+      <c r="P77">
+        <f>SUM(P69:P73)</f>
+        <v>202</v>
+      </c>
+      <c r="R77">
+        <f>SUM(R70:R73)</f>
         <v>188</v>
       </c>
-      <c r="J74" s="1">
-        <f t="shared" si="11"/>
-        <v>189</v>
-      </c>
-      <c r="K74" s="1">
-        <f t="shared" si="11"/>
-        <v>190</v>
-      </c>
-      <c r="L74" s="1">
-        <f t="shared" si="11"/>
-        <v>191</v>
-      </c>
-      <c r="M74" s="1">
-        <f t="shared" si="11"/>
-        <v>192</v>
-      </c>
-      <c r="N74" s="1">
-        <f t="shared" si="11"/>
-        <v>193</v>
-      </c>
-      <c r="O74" s="1">
-        <f t="shared" si="11"/>
-        <v>194</v>
-      </c>
-      <c r="P74" s="1">
-        <f t="shared" si="11"/>
-        <v>195</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>35</v>
-      </c>
-      <c r="R74">
-        <v>12</v>
-      </c>
-      <c r="T74" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75">
-        <f>B69</f>
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <f t="shared" ref="C75:P75" si="12">C69</f>
+      <c r="S77">
+        <f>R77-S78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="R78">
         <v>1</v>
       </c>
-      <c r="D75">
-        <f t="shared" si="12"/>
+      <c r="S78" s="2">
+        <f>R77-R75</f>
+        <v>188</v>
+      </c>
+      <c r="U78">
+        <f>A68+S78-255</f>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B79">
+        <f>B77-$S$78</f>
+        <v>-100</v>
+      </c>
+      <c r="C79">
+        <f>C77-S78</f>
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <f t="shared" ref="B79:M79" si="12">D77-$S$78</f>
         <v>2</v>
       </c>
-      <c r="E75">
+      <c r="E79">
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="F75">
+      <c r="F79">
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="G75">
+      <c r="G79">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="H75">
+      <c r="H79">
         <f t="shared" si="12"/>
         <v>6</v>
       </c>
-      <c r="I75">
+      <c r="I79">
         <f t="shared" si="12"/>
         <v>7</v>
       </c>
-      <c r="J75">
+      <c r="J79">
         <f t="shared" si="12"/>
         <v>8</v>
       </c>
-      <c r="K75">
+      <c r="K79">
         <f t="shared" si="12"/>
         <v>9</v>
       </c>
-      <c r="L75">
+      <c r="L79">
         <f t="shared" si="12"/>
         <v>10</v>
       </c>
-      <c r="M75">
+      <c r="M79">
         <f t="shared" si="12"/>
         <v>11</v>
       </c>
-      <c r="N75">
-        <f t="shared" si="12"/>
+      <c r="N79">
+        <f>N77-$S$78</f>
         <v>12</v>
       </c>
-      <c r="O75">
-        <f t="shared" si="12"/>
+      <c r="O79">
+        <f t="shared" ref="O79:P79" si="13">O77-$S$78</f>
         <v>13</v>
       </c>
-      <c r="P75">
-        <f t="shared" si="12"/>
+      <c r="P79">
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>41</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
         <v>39</v>
       </c>
-      <c r="B76" s="6">
+      <c r="H82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" t="s">
+        <v>36</v>
+      </c>
+      <c r="K82" t="s">
+        <v>37</v>
+      </c>
+      <c r="L82" t="s">
+        <v>38</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>2</v>
+      </c>
+      <c r="P82">
+        <v>3</v>
+      </c>
+      <c r="Q82">
         <v>4</v>
       </c>
-      <c r="C76" s="6">
-        <v>5</v>
-      </c>
-      <c r="D76" s="6">
-        <v>6</v>
-      </c>
-      <c r="E76" s="6">
-        <v>7</v>
-      </c>
-      <c r="F76" s="6">
-        <v>8</v>
-      </c>
-      <c r="G76" s="6">
-        <v>9</v>
-      </c>
-      <c r="H76" s="6">
-        <v>10</v>
-      </c>
-      <c r="I76" s="6">
-        <v>11</v>
-      </c>
-      <c r="J76" s="6">
-        <v>12</v>
-      </c>
-      <c r="K76" s="6">
-        <v>13</v>
-      </c>
-      <c r="L76" s="6">
-        <v>14</v>
-      </c>
-      <c r="M76" s="6">
-        <v>15</v>
-      </c>
-      <c r="N76" s="6">
-        <v>1</v>
-      </c>
-      <c r="O76" s="6">
-        <v>2</v>
-      </c>
-      <c r="P76" s="6">
-        <v>3</v>
-      </c>
-      <c r="R76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>36</v>
-      </c>
-      <c r="B78">
-        <f>SUM(B69:B73)</f>
-        <v>188</v>
-      </c>
-      <c r="C78">
-        <f t="shared" ref="C78:P78" si="13">SUM(C69:C73)</f>
-        <v>189</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="13"/>
-        <v>190</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="13"/>
-        <v>191</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="13"/>
-        <v>192</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="13"/>
-        <v>193</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="13"/>
-        <v>194</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="13"/>
-        <v>195</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="13"/>
-        <v>196</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="13"/>
-        <v>197</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="13"/>
-        <v>198</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="13"/>
-        <v>199</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="13"/>
-        <v>200</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="13"/>
-        <v>201</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="13"/>
-        <v>202</v>
-      </c>
-      <c r="R78">
-        <f>SUM(R70:R74)</f>
-        <v>200</v>
-      </c>
-      <c r="S78">
-        <f>R78-S79</f>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R79">
-        <v>12</v>
-      </c>
-      <c r="S79" s="2">
-        <v>7</v>
-      </c>
-      <c r="U79">
-        <f>A68+S79-255</f>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B80">
-        <f t="shared" ref="B80:M80" si="14">B78-$S$79</f>
-        <v>181</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="14"/>
-        <v>182</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="14"/>
-        <v>183</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="14"/>
-        <v>184</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="14"/>
-        <v>185</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="14"/>
-        <v>186</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="14"/>
-        <v>187</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="14"/>
-        <v>188</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="14"/>
-        <v>189</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="14"/>
-        <v>190</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="14"/>
-        <v>191</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="14"/>
-        <v>192</v>
-      </c>
-      <c r="N80">
-        <f>N78-$S$79</f>
-        <v>193</v>
-      </c>
-      <c r="O80">
-        <f t="shared" ref="O80:P80" si="15">O78-$S$79</f>
-        <v>194</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="15"/>
-        <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B82" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A83" t="s">
-        <v>46</v>
-      </c>
-      <c r="B83">
-        <v>5</v>
-      </c>
-      <c r="C83">
-        <v>6</v>
-      </c>
-      <c r="D83">
-        <v>7</v>
-      </c>
-      <c r="E83">
-        <v>8</v>
-      </c>
-      <c r="F83">
-        <v>9</v>
-      </c>
-      <c r="G83" t="s">
-        <v>44</v>
-      </c>
-      <c r="H83" t="s">
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="B84" t="s">
         <v>40</v>
-      </c>
-      <c r="I83" t="s">
-        <v>27</v>
-      </c>
-      <c r="J83" t="s">
-        <v>41</v>
-      </c>
-      <c r="K83" t="s">
-        <v>42</v>
-      </c>
-      <c r="L83" t="s">
-        <v>43</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>1</v>
-      </c>
-      <c r="O83">
-        <v>2</v>
-      </c>
-      <c r="P83">
-        <v>3</v>
-      </c>
-      <c r="Q83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B85" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3674,974 +3724,1947 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8529B-222B-4E57-9E1F-B731C7543C9F}">
-  <dimension ref="A2:N67"/>
+  <dimension ref="A1:V66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.59765625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.06640625" style="8"/>
-    <col min="12" max="12" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.73046875" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" customWidth="1"/>
+    <col min="3" max="3" width="5.53125" customWidth="1"/>
+    <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.86328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.06640625" style="7"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9.06640625" style="8"/>
+    <col min="13" max="13" width="2.86328125" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="10" customWidth="1"/>
+    <col min="15" max="15" width="1.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="9.06640625" style="10"/>
+    <col min="18" max="18" width="2.86328125" customWidth="1"/>
+    <col min="19" max="19" width="19.46484375" style="27" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.86328125" style="27" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.06640625" style="27"/>
+    <col min="22" max="22" width="11" style="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="G2" s="8" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="11">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="14"/>
+      <c r="N3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="15">
+        <v>1</v>
+      </c>
+      <c r="P3" s="15">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="15"/>
+      <c r="S3" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+    </row>
+    <row r="4" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16">
+        <v>0</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="I4" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="N4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="20">
+        <v>0</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="S4" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4" s="29"/>
+      <c r="U4" s="29"/>
+      <c r="V4" s="29"/>
+    </row>
+    <row r="5" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16">
+        <v>0</v>
+      </c>
+      <c r="B5" s="17">
+        <v>2</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="I5" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="N5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="20">
+        <v>1</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="S5" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="29"/>
+    </row>
+    <row r="6" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="16">
+        <v>0</v>
+      </c>
+      <c r="B6" s="17">
+        <v>3</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="I6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" s="19">
+        <v>1</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="N6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="20">
+        <v>0</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="S6" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="29"/>
+    </row>
+    <row r="7" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16">
+        <v>0</v>
+      </c>
+      <c r="B7" s="17">
+        <v>4</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="I7" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="N7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="20">
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="20"/>
+      <c r="S7" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="T7" s="29"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="29"/>
+    </row>
+    <row r="8" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="16">
+        <v>0</v>
+      </c>
+      <c r="B8" s="17">
+        <v>5</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="I8" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="N8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="O8" s="20">
+        <v>0</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="S8" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
+      <c r="V8" s="29"/>
+    </row>
+    <row r="9" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16">
+        <v>0</v>
+      </c>
+      <c r="B9" s="17">
+        <v>6</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="I9" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="N9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="O9" s="20">
+        <v>1</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="S9" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="T9" s="29"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row r="10" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="21">
+        <v>0</v>
+      </c>
+      <c r="B10" s="22">
+        <v>7</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="I10" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="24">
+        <v>1</v>
+      </c>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="N10" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="25">
+        <v>0</v>
+      </c>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="S10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A11" s="9">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O11" s="10">
+        <v>1</v>
+      </c>
+      <c r="P11" s="10">
+        <v>3</v>
+      </c>
+      <c r="S11" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A12" s="9">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O12" s="10">
+        <v>1</v>
+      </c>
+      <c r="S12" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="N13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O13" s="10">
+        <v>0</v>
+      </c>
+      <c r="S13" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O14" s="10">
+        <v>0</v>
+      </c>
+      <c r="S14" s="27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A15" s="9">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A16" s="9">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17" s="9">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="S17" s="27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18" s="9">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="11">
+        <v>2</v>
+      </c>
+      <c r="B19" s="12">
+        <v>16</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="I19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="14"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="15"/>
+      <c r="S19" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+    </row>
+    <row r="20" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="16">
+        <v>2</v>
+      </c>
+      <c r="B20" s="17">
+        <v>17</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="I20" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0</v>
+      </c>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="S20" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+    </row>
+    <row r="21" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16">
+        <v>2</v>
+      </c>
+      <c r="B21" s="17">
+        <v>18</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="I21" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0</v>
+      </c>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="S21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+    </row>
+    <row r="22" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="16">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17">
+        <v>19</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="I22" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="19">
+        <v>0</v>
+      </c>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="S22" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+    </row>
+    <row r="23" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16">
+        <v>2</v>
+      </c>
+      <c r="B23" s="17">
+        <v>20</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>6</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="I23" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="19">
+        <v>0</v>
+      </c>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="20"/>
+      <c r="S23" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+    </row>
+    <row r="24" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="16">
+        <v>2</v>
+      </c>
+      <c r="B24" s="17">
+        <v>21</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="I24" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="19">
+        <v>0</v>
+      </c>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="S24" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+    </row>
+    <row r="25" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="16">
+        <v>2</v>
+      </c>
+      <c r="B25" s="17">
+        <v>22</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="I25" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="19">
+        <v>0</v>
+      </c>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="N25" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="20">
+        <v>0</v>
+      </c>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="S25" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+    </row>
+    <row r="26" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="21">
+        <v>2</v>
+      </c>
+      <c r="B26" s="22">
+        <v>23</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="23">
+        <v>0</v>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="I26" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="24">
+        <v>0</v>
+      </c>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="N26" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="O26" s="25">
+        <v>0</v>
+      </c>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="25"/>
+      <c r="S26" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="T26" s="30"/>
+      <c r="U26" s="30"/>
+      <c r="V26" s="30"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A27" s="9">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" s="10">
+        <v>0</v>
+      </c>
+      <c r="S27" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="U27" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="V27" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A28" s="9">
+        <v>3</v>
+      </c>
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="10">
+        <v>0</v>
+      </c>
+      <c r="S28" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A29" s="9">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10">
+        <v>0</v>
+      </c>
+      <c r="S29" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A30" s="9">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
+      <c r="O30" s="10">
+        <v>0</v>
+      </c>
+      <c r="S30" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A31" s="9">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="10">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10">
+        <v>4</v>
+      </c>
+      <c r="S31" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A32" s="9">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="8">
+        <v>0</v>
+      </c>
+      <c r="O32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A33" s="9">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O33" s="10">
+        <v>1</v>
+      </c>
+      <c r="S33" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A34" s="9">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34" s="10">
+        <v>0</v>
+      </c>
+      <c r="S34" s="30" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="11">
+        <v>4</v>
+      </c>
+      <c r="B35" s="12">
+        <v>32</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="I35" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J35" s="14">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="L35" s="14"/>
+      <c r="N35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q35" s="15"/>
+      <c r="S35" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="T35" s="28"/>
+      <c r="U35" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="V35" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="16">
+        <v>4</v>
+      </c>
+      <c r="B36" s="17">
+        <v>33</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="I36" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="19">
+        <v>0</v>
+      </c>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="N36" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q36" s="20"/>
+      <c r="S36" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+    </row>
+    <row r="37" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="16">
+        <v>4</v>
+      </c>
+      <c r="B37" s="17">
+        <v>34</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="I37" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" s="19">
+        <v>0</v>
+      </c>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="N37" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q37" s="20"/>
+      <c r="S37" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+    </row>
+    <row r="38" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A38" s="16">
+        <v>4</v>
+      </c>
+      <c r="B38" s="17">
+        <v>35</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="I38" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="19">
+        <v>0</v>
+      </c>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="N38" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q38" s="20"/>
+      <c r="S38" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+    </row>
+    <row r="39" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A39" s="16">
+        <v>4</v>
+      </c>
+      <c r="B39" s="17">
+        <v>36</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="I39" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="19">
+        <v>0</v>
+      </c>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="N39" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="S39" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+    </row>
+    <row r="40" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="16">
+        <v>4</v>
+      </c>
+      <c r="B40" s="17">
+        <v>37</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="I40" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="19">
+        <v>0</v>
+      </c>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="N40" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="S40" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+    </row>
+    <row r="41" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="16">
+        <v>4</v>
+      </c>
+      <c r="B41" s="17">
+        <v>38</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="I41" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="J41" s="19">
+        <v>0</v>
+      </c>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="N41" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="S41" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+    </row>
+    <row r="42" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="21">
+        <v>4</v>
+      </c>
+      <c r="B42" s="22">
+        <v>39</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="I42" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="24">
+        <v>1</v>
+      </c>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="N42" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="O42" s="25"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="25"/>
+      <c r="S42" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A43" s="9">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J43" s="8">
+        <v>0</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S43" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="U43" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A44" s="9">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J44" s="8">
+        <v>0</v>
+      </c>
+      <c r="S44" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A45" s="9">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J45" s="8">
+        <v>0</v>
+      </c>
+      <c r="S45" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A46" s="9">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J46" s="8">
+        <v>0</v>
+      </c>
+      <c r="S46" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A47" s="9">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J47" s="8">
+        <v>0</v>
+      </c>
+      <c r="S47" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A48" s="9">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J48" s="8">
+        <v>0</v>
+      </c>
+      <c r="S48" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A49" s="9">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I49" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J49" s="8">
+        <v>0</v>
+      </c>
+      <c r="S49" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A50" s="9">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J50" s="8">
+        <v>0</v>
+      </c>
+      <c r="S50" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A51" s="11">
+        <v>6</v>
+      </c>
+      <c r="B51" s="12">
+        <v>48</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="13">
+        <v>1</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J51" s="14">
+        <v>0</v>
+      </c>
+      <c r="K51" s="14">
+        <v>8</v>
+      </c>
+      <c r="L51" s="14"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="S51" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="T51" s="28">
+        <v>0</v>
+      </c>
+      <c r="U51" s="28"/>
+      <c r="V51" s="28"/>
+    </row>
+    <row r="52" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A52" s="16">
+        <v>6</v>
+      </c>
+      <c r="B52" s="17">
+        <v>49</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="18">
+        <v>0</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="I52" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="19">
+        <v>0</v>
+      </c>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="S52" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="T52" s="29">
+        <v>0</v>
+      </c>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+    </row>
+    <row r="53" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A53" s="16">
+        <v>6</v>
+      </c>
+      <c r="B53" s="17">
+        <v>50</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18">
+        <v>1</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="I53" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J53" s="19">
+        <v>0</v>
+      </c>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="S53" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="T53" s="29">
+        <v>1</v>
+      </c>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+    </row>
+    <row r="54" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A54" s="16">
+        <v>6</v>
+      </c>
+      <c r="B54" s="17">
+        <v>51</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18">
+        <v>1</v>
+      </c>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="I54" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="J54" s="19">
+        <v>1</v>
+      </c>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="S54" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="T54" s="29">
+        <v>0</v>
+      </c>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+    </row>
+    <row r="55" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="16">
+        <v>6</v>
+      </c>
+      <c r="B55" s="17">
+        <v>52</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18">
+        <v>0</v>
+      </c>
+      <c r="F55" s="18">
+        <v>0</v>
+      </c>
+      <c r="G55" s="18"/>
+      <c r="I55" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J55" s="19"/>
+      <c r="K55" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L55" s="19"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="S55" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="T55" s="29">
+        <v>1</v>
+      </c>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+    </row>
+    <row r="56" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A56" s="16">
+        <v>6</v>
+      </c>
+      <c r="B56" s="17">
+        <v>53</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18">
+        <v>0</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="I56" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J56" s="19"/>
+      <c r="K56" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L56" s="19"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="S56" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="T56" s="29">
+        <v>0</v>
+      </c>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+    </row>
+    <row r="57" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A57" s="16">
+        <v>6</v>
+      </c>
+      <c r="B57" s="17">
+        <v>54</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18">
+        <v>0</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="I57" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="L57" s="19"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="S57" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="T57" s="29">
+        <v>0</v>
+      </c>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+    </row>
+    <row r="58" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A58" s="21">
+        <v>6</v>
+      </c>
+      <c r="B58" s="22">
+        <v>55</v>
+      </c>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23">
+        <v>0</v>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="I58" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="L58" s="24"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="S58" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="T58" s="30">
+        <v>1</v>
+      </c>
+      <c r="U58" s="30"/>
+      <c r="V58" s="30"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A59" s="9">
+        <v>7</v>
+      </c>
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I59" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S59" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A60" s="9">
+        <v>7</v>
+      </c>
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I60" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S60" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A61" s="9">
+        <v>7</v>
+      </c>
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S61" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A62" s="9">
+        <v>7</v>
+      </c>
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S62" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A63" s="9">
+        <v>7</v>
+      </c>
+      <c r="B63">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="7">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="7">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="7">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="7">
+      <c r="D63" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S63" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A64" s="9">
         <v>7</v>
       </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="L12" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>12</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L16" t="s">
-        <v>92</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>13</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L17" t="s">
-        <v>92</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="L18" t="s">
-        <v>92</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>15</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A20" s="7">
-        <v>16</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="8">
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" t="s">
-        <v>93</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A21" s="7">
-        <v>17</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="I64" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S64" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A65" s="9">
+        <v>7</v>
+      </c>
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A22" s="7">
-        <v>18</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="I65" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S65" s="29" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
+      <c r="A66" s="9">
+        <v>7</v>
+      </c>
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A23" s="7">
-        <v>19</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A24" s="7">
-        <v>20</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="8">
-        <v>0</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A25" s="7">
-        <v>21</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A26" s="7">
-        <v>22</v>
-      </c>
-      <c r="C26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A27" s="7">
-        <v>23</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>24</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="L28" t="s">
-        <v>93</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>25</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>26</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>27</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>28</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>29</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>30</v>
-      </c>
-      <c r="C34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L34" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>31</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L35" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A36" s="7">
-        <v>32</v>
-      </c>
-      <c r="C36" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L36" t="s">
-        <v>94</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A37" s="7">
-        <v>33</v>
-      </c>
-      <c r="C37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A38" s="7">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A39" s="7">
-        <v>35</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A40" s="7">
-        <v>36</v>
-      </c>
-      <c r="C40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A41" s="7">
-        <v>37</v>
-      </c>
-      <c r="C41" t="s">
-        <v>57</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A42" s="7">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A43" s="7">
-        <v>39</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>40</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L44" t="s">
-        <v>95</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <v>41</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L45" t="s">
-        <v>95</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A46">
-        <v>42</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L46" t="s">
-        <v>95</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>43</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L47" t="s">
-        <v>95</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A48">
-        <v>44</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L48" t="s">
-        <v>95</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A49">
-        <v>45</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L49" t="s">
-        <v>95</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A50">
-        <v>46</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L50" t="s">
-        <v>95</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A51">
-        <v>47</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="L51" t="s">
-        <v>95</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A52" s="7">
-        <v>48</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H52" s="8">
-        <v>1</v>
-      </c>
-      <c r="I52" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J52" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="L52" t="s">
-        <v>95</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A53" s="7">
-        <v>49</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="H53" s="8">
-        <v>0</v>
-      </c>
-      <c r="L53" t="s">
-        <v>95</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A54" s="7">
-        <v>50</v>
-      </c>
-      <c r="H54" s="8">
-        <v>1</v>
-      </c>
-      <c r="L54" t="s">
-        <v>95</v>
-      </c>
-      <c r="M54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A55" s="7">
-        <v>51</v>
-      </c>
-      <c r="H55" s="8">
-        <v>1</v>
-      </c>
-      <c r="L55" t="s">
-        <v>95</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A56" s="7">
-        <v>52</v>
-      </c>
-      <c r="H56" s="8">
-        <v>0</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0</v>
-      </c>
-      <c r="L56" t="s">
-        <v>96</v>
-      </c>
-      <c r="N56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A57" s="7">
-        <v>53</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0</v>
-      </c>
-      <c r="L57" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A58" s="7">
-        <v>54</v>
-      </c>
-      <c r="H58" s="8">
-        <v>0</v>
-      </c>
-      <c r="L58" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A59" s="7">
-        <v>55</v>
-      </c>
-      <c r="H59" s="8">
-        <v>0</v>
-      </c>
-      <c r="L59" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A60">
-        <v>56</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="L60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A61">
-        <v>57</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A62">
-        <v>58</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A63">
-        <v>59</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L63" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A64">
-        <v>60</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L64" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A65">
-        <v>61</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L65" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A66">
-        <v>62</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A67">
-        <v>63</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="L67" t="s">
-        <v>97</v>
+      <c r="I66" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="S66" s="27" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C17D3E-5F20-43FE-ACB6-50E1DED34F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60314B1C-24E1-4667-A16D-C09327E1BD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51" yWindow="137" windowWidth="20786" windowHeight="18154" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad3" sheetId="3" r:id="rId2"/>
+    <sheet name="Blad2" sheetId="4" r:id="rId2"/>
+    <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="132">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -229,27 +230,15 @@
     <t>TEMP_EOI</t>
   </si>
   <si>
-    <t>ALIV_COU_DME</t>
-  </si>
-  <si>
     <t>AIP_ENG</t>
   </si>
   <si>
-    <t>ST_ENG_RUN</t>
-  </si>
-  <si>
     <t>ST_SW_WAUP</t>
   </si>
   <si>
     <t>IJV_FU</t>
   </si>
   <si>
-    <t>CTR_SLCK</t>
-  </si>
-  <si>
-    <t>RPM_IDLG_TAR</t>
-  </si>
-  <si>
     <t>1014 hPa</t>
   </si>
   <si>
@@ -319,9 +308,6 @@
     <t>BYTE</t>
   </si>
   <si>
-    <t>(ctr) 1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> (high nibble ctr) 6</t>
   </si>
   <si>
@@ -386,6 +372,66 @@
   </si>
   <si>
     <t>2000 rpm</t>
+  </si>
+  <si>
+    <t>AccPedal</t>
+  </si>
+  <si>
+    <t>TerminalStatus</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>EngineData</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>chksum</t>
+  </si>
+  <si>
+    <t>low nibble ctr</t>
+  </si>
+  <si>
+    <t>1a0</t>
+  </si>
+  <si>
+    <t>ALIV_COUNT_DME</t>
+  </si>
+  <si>
+    <t>ST_ENGINE_RUN</t>
+  </si>
+  <si>
+    <t>CTL_SLCK</t>
+  </si>
+  <si>
+    <t>RPM_IDLE_TARGET</t>
+  </si>
+  <si>
+    <t>1d0</t>
+  </si>
+  <si>
+    <t>0xC4</t>
+  </si>
+  <si>
+    <t>SteeringWheelAngle</t>
+  </si>
+  <si>
+    <t>STWA</t>
+  </si>
+  <si>
+    <t>STWA_V</t>
+  </si>
+  <si>
+    <t>bd</t>
+  </si>
+  <si>
+    <t>fc</t>
+  </si>
+  <si>
+    <t>f1</t>
   </si>
 </sst>
 </file>
@@ -401,7 +447,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -474,6 +520,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -505,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -522,11 +574,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -537,8 +584,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -819,182 +878,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:U84"/>
+  <dimension ref="A2:V84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.3828125" customWidth="1"/>
+    <col min="3" max="3" width="10.23046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>170</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>7</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>8</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>9</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>11</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>12</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>13</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>14</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>15</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
-        <f>B21</f>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <f>C21</f>
         <v>245</v>
       </c>
-      <c r="C10" s="1">
-        <f t="shared" ref="C10:P10" si="0">C21</f>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:Q10" si="0">D21</f>
         <v>246</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>247</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <f t="shared" si="0"/>
         <v>248</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <f t="shared" si="0"/>
         <v>251</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <f t="shared" si="0"/>
         <v>255</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <f t="shared" si="0"/>
         <v>257</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <f t="shared" si="0"/>
         <v>259</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>11</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>251</v>
       </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A11" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11">
-        <v>64</v>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1</v>
       </c>
       <c r="C11">
         <v>64</v>
@@ -1039,24 +1101,24 @@
         <v>64</v>
       </c>
       <c r="Q11">
+        <v>64</v>
+      </c>
+      <c r="R11">
         <v>46</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>70</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>4</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A12">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B12">
         <v>2</v>
-      </c>
-      <c r="B12">
-        <v>26</v>
       </c>
       <c r="C12">
         <v>26</v>
@@ -1100,22 +1162,22 @@
       <c r="P12">
         <v>26</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="Q12">
+        <v>26</v>
+      </c>
+      <c r="R12" t="s">
         <v>12</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>26</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A13">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B13">
         <v>3</v>
-      </c>
-      <c r="B13">
-        <v>92</v>
       </c>
       <c r="C13">
         <v>92</v>
@@ -1159,23 +1221,23 @@
       <c r="P13">
         <v>92</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="Q13">
+        <v>92</v>
+      </c>
+      <c r="R13" t="s">
         <v>14</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>92</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A14">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
         <v>0</v>
       </c>
@@ -1224,23 +1286,23 @@
       <c r="R14">
         <v>0</v>
       </c>
-      <c r="S14" t="s">
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14" t="s">
         <v>2</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>32</v>
       </c>
-      <c r="U14" s="4">
+      <c r="V14" s="4">
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B15">
         <v>5</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
         <v>0</v>
       </c>
@@ -1289,22 +1351,22 @@
       <c r="R15">
         <v>0</v>
       </c>
-      <c r="S15" t="s">
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15" t="s">
         <v>3</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>40</v>
       </c>
-      <c r="U15" s="4">
+      <c r="V15" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A16">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B16">
         <v>6</v>
-      </c>
-      <c r="B16">
-        <v>148</v>
       </c>
       <c r="C16">
         <v>148</v>
@@ -1349,22 +1411,22 @@
         <v>148</v>
       </c>
       <c r="Q16">
+        <v>148</v>
+      </c>
+      <c r="R16">
         <v>94</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>148</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A17">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="B17">
         <v>7</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
       <c r="C17">
         <v>0</v>
       </c>
@@ -1413,293 +1475,293 @@
       <c r="R17">
         <v>0</v>
       </c>
-      <c r="T17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="U17">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-      <c r="B19">
-        <f>SUM(B11:B18)+B9</f>
+      <c r="C19">
+        <f>SUM(C11:C18)+C9</f>
         <v>330</v>
       </c>
-      <c r="C19">
-        <f t="shared" ref="C19:P19" si="1">SUM(C11:C18)+C9</f>
+      <c r="D19">
+        <f t="shared" ref="D19:Q19" si="1">SUM(D11:D18)+D9</f>
         <v>331</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="1"/>
         <v>332</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <f t="shared" si="1"/>
         <v>333</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <f t="shared" si="1"/>
         <v>334</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="1"/>
         <v>335</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="1"/>
         <v>336</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <f t="shared" si="1"/>
         <v>337</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="1"/>
         <v>338</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <f t="shared" si="1"/>
         <v>339</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f t="shared" si="1"/>
         <v>340</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <f t="shared" si="1"/>
         <v>341</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <f t="shared" si="1"/>
         <v>342</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <f t="shared" si="1"/>
         <v>343</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <f t="shared" si="1"/>
         <v>344</v>
       </c>
-      <c r="R19">
-        <f>SUM(R11:R18)</f>
+      <c r="S19">
+        <f>SUM(S11:S18)</f>
         <v>336</v>
       </c>
-      <c r="S19">
-        <f>R19-85</f>
+      <c r="T19">
+        <f>S19-85</f>
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R20">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="S20">
         <v>6</v>
       </c>
-      <c r="S20" s="2">
-        <f>R19-R10</f>
+      <c r="T20" s="2">
+        <f>S19-S10</f>
         <v>85</v>
       </c>
-      <c r="U20">
-        <f>A8+S20</f>
+      <c r="V20">
+        <f>A8+T20</f>
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="5">
-        <f>B19-$S$20</f>
+      <c r="C21" s="5">
+        <f>C19-$T$20</f>
         <v>245</v>
       </c>
-      <c r="C21">
-        <f t="shared" ref="C21:P21" si="2">C19-$S$20</f>
+      <c r="D21">
+        <f t="shared" ref="D21:Q21" si="2">D19-$T$20</f>
         <v>246</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="2"/>
         <v>247</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <f t="shared" si="2"/>
         <v>248</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <f t="shared" si="2"/>
         <v>249</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <f t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="2"/>
         <v>253</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" si="2"/>
         <v>254</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="2"/>
         <v>255</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <f t="shared" si="2"/>
         <v>257</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f t="shared" si="2"/>
         <v>258</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <f t="shared" si="2"/>
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>416</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
-        <f>C26*16</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>D26*16</f>
         <v>16</v>
       </c>
-      <c r="D25">
-        <f t="shared" ref="D25:P25" si="3">D26*16</f>
+      <c r="E25">
+        <f t="shared" ref="E25:Q25" si="3">E26*16</f>
         <v>32</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <f t="shared" si="3"/>
         <v>144</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <f t="shared" si="3"/>
         <v>176</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <f t="shared" si="3"/>
         <v>192</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <f t="shared" si="3"/>
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>5</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>7</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>8</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>9</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>10</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>11</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>12</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>13</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>14</v>
       </c>
-      <c r="T26" t="s">
+      <c r="U26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>0</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
       <c r="C27">
         <v>0</v>
       </c>
@@ -1748,23 +1810,23 @@
       <c r="R27">
         <v>0</v>
       </c>
-      <c r="S27" t="s">
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27" t="s">
         <v>9</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27" s="4">
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27" s="4">
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="B28">
-        <v>128</v>
-      </c>
       <c r="C28">
         <v>128</v>
       </c>
@@ -1808,25 +1870,25 @@
         <v>128</v>
       </c>
       <c r="Q28">
+        <v>128</v>
+      </c>
+      <c r="R28">
         <v>80</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>128</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>10</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
       <c r="C29">
         <v>0</v>
       </c>
@@ -1875,17 +1937,17 @@
       <c r="R29">
         <v>0</v>
       </c>
-      <c r="T29">
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="U29">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="B30">
-        <v>8</v>
-      </c>
       <c r="C30">
         <v>8</v>
       </c>
@@ -1929,22 +1991,22 @@
         <v>8</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R30">
         <v>0</v>
       </c>
-      <c r="T30">
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="U30">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="B31">
-        <v>128</v>
-      </c>
       <c r="C31">
         <v>128</v>
       </c>
@@ -1988,22 +2050,22 @@
         <v>128</v>
       </c>
       <c r="Q31">
+        <v>128</v>
+      </c>
+      <c r="R31">
         <v>80</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>128</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
       <c r="C32">
         <v>0</v>
       </c>
@@ -2052,17 +2114,18 @@
       <c r="R32">
         <v>0</v>
       </c>
-      <c r="T32">
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="U32">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="A33" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33">
-        <v>8</v>
-      </c>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="A33" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="21"/>
       <c r="C33">
         <v>8</v>
       </c>
@@ -2106,481 +2169,481 @@
         <v>8</v>
       </c>
       <c r="Q33">
+        <v>8</v>
+      </c>
+      <c r="R33">
         <v>58</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>88</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>4</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="B34" s="1">
-        <f>B38</f>
+      <c r="C34" s="1">
+        <f>C38</f>
         <v>178</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" ref="C34:P34" si="4">C38</f>
+      <c r="D34" s="1">
+        <f t="shared" ref="D34:Q34" si="4">D38</f>
         <v>194</v>
       </c>
-      <c r="D34" s="1">
+      <c r="E34" s="1">
         <f t="shared" si="4"/>
         <v>210</v>
       </c>
-      <c r="E34" s="1">
+      <c r="F34" s="1">
         <f t="shared" si="4"/>
         <v>226</v>
       </c>
-      <c r="F34" s="1">
+      <c r="G34" s="1">
         <f t="shared" si="4"/>
         <v>242</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <f t="shared" si="4"/>
         <v>258</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <f t="shared" si="4"/>
         <v>306</v>
       </c>
-      <c r="K34" s="1">
+      <c r="L34" s="1">
         <f t="shared" si="4"/>
         <v>322</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <f t="shared" si="4"/>
         <v>338</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <f t="shared" si="4"/>
         <v>354</v>
       </c>
-      <c r="N34" s="1">
+      <c r="O34" s="1">
         <f t="shared" si="4"/>
         <v>370</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <f t="shared" si="4"/>
         <v>386</v>
       </c>
-      <c r="P34" s="1">
+      <c r="Q34" s="1">
         <f t="shared" si="4"/>
         <v>402</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="R34" t="s">
         <v>19</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>250</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>7</v>
       </c>
-      <c r="B36">
-        <f>SUM(B27:B33)+B25</f>
+      <c r="C36">
+        <f>SUM(C27:C33)+C25</f>
         <v>272</v>
       </c>
-      <c r="C36">
-        <f t="shared" ref="C36:R36" si="5">SUM(C27:C33)+C25</f>
+      <c r="D36">
+        <f t="shared" ref="D36:S36" si="5">SUM(D27:D33)+D25</f>
         <v>288</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <f t="shared" si="5"/>
         <v>304</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <f t="shared" si="5"/>
         <v>320</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <f t="shared" si="5"/>
         <v>336</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="5"/>
         <v>352</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="5"/>
         <v>368</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <f t="shared" si="5"/>
         <v>384</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <f t="shared" si="5"/>
         <v>400</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <f t="shared" si="5"/>
         <v>416</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f t="shared" si="5"/>
         <v>432</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <f t="shared" si="5"/>
         <v>448</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <f t="shared" si="5"/>
         <v>464</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <f t="shared" si="5"/>
         <v>480</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <f t="shared" si="5"/>
         <v>496</v>
       </c>
-      <c r="R36">
-        <f t="shared" si="5"/>
+      <c r="S36">
+        <f>SUM(S27:S33)+S25</f>
         <v>344</v>
       </c>
-      <c r="S36">
-        <f>R36-S37</f>
+      <c r="T36">
+        <f>S36-T37</f>
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R37">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="S37">
         <v>5</v>
       </c>
-      <c r="S37" s="2">
-        <f>R36-R34</f>
+      <c r="T37" s="2">
+        <f>S36-S34</f>
         <v>94</v>
       </c>
-      <c r="U37">
-        <f>A25+S37-255</f>
+      <c r="V37">
+        <f>A25+T37-255</f>
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="5">
-        <f>B36-$S$37</f>
+      <c r="C38" s="5">
+        <f>C36-$T$37</f>
         <v>178</v>
       </c>
-      <c r="C38" s="5">
-        <f t="shared" ref="C38:P38" si="6">C36-$S$37</f>
+      <c r="D38" s="5">
+        <f t="shared" ref="D38:Q38" si="6">D36-$T$37</f>
         <v>194</v>
       </c>
-      <c r="D38" s="5">
+      <c r="E38" s="5">
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="E38" s="5">
+      <c r="F38" s="5">
         <f t="shared" si="6"/>
         <v>226</v>
       </c>
-      <c r="F38" s="5">
+      <c r="G38" s="5">
         <f t="shared" si="6"/>
         <v>242</v>
       </c>
-      <c r="G38" s="5">
+      <c r="H38" s="5">
         <f t="shared" si="6"/>
         <v>258</v>
       </c>
-      <c r="H38" s="5">
+      <c r="I38" s="5">
         <f t="shared" si="6"/>
         <v>274</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5">
         <f t="shared" si="6"/>
         <v>290</v>
       </c>
-      <c r="J38" s="5">
+      <c r="K38" s="5">
         <f t="shared" si="6"/>
         <v>306</v>
       </c>
-      <c r="K38" s="5">
+      <c r="L38" s="5">
         <f t="shared" si="6"/>
         <v>322</v>
       </c>
-      <c r="L38" s="5">
+      <c r="M38" s="5">
         <f t="shared" si="6"/>
         <v>338</v>
       </c>
-      <c r="M38" s="5">
+      <c r="N38" s="5">
         <f t="shared" si="6"/>
         <v>354</v>
       </c>
-      <c r="N38" s="5">
+      <c r="O38" s="5">
         <f t="shared" si="6"/>
         <v>370</v>
       </c>
-      <c r="O38" s="5">
+      <c r="P38" s="5">
         <f t="shared" si="6"/>
         <v>386</v>
       </c>
-      <c r="P38" s="5">
+      <c r="Q38" s="5">
         <f t="shared" si="6"/>
         <v>402</v>
       </c>
-      <c r="S38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="T38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>464</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>54</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
       <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
         <v>1</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>3</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>4</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>5</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>6</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>7</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>8</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>9</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>10</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>11</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>12</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>13</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>0</v>
       </c>
-      <c r="B43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43">
         <v>128</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="R43" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>1</v>
       </c>
-      <c r="B44" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44">
         <v>128</v>
       </c>
-      <c r="Q44" t="s">
+      <c r="R44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>28</v>
       </c>
-      <c r="B45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45">
         <v>96</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3</v>
       </c>
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>70</v>
+      </c>
+      <c r="D46">
         <v>208</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="R46" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>4</v>
       </c>
-      <c r="B47" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47">
         <v>206</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="R47" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>5</v>
       </c>
-      <c r="B48" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48">
         <v>58</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="R48" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>6</v>
       </c>
-      <c r="B49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49">
         <v>13</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="R49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>7</v>
       </c>
-      <c r="B50" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50">
         <v>145</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="R50" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>200</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>25</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>24</v>
       </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
         <v>1</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>2</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>3</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>4</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>5</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>6</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>7</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>8</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>9</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>10</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>11</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>12</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>13</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>0</v>
-      </c>
-      <c r="B56">
-        <v>186</v>
       </c>
       <c r="C56">
         <v>186</v>
@@ -2624,20 +2687,20 @@
       <c r="P56">
         <v>186</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="Q56">
+        <v>186</v>
+      </c>
+      <c r="R56" t="s">
         <v>26</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>1</v>
       </c>
-      <c r="B57">
-        <v>2</v>
-      </c>
       <c r="C57">
         <v>2</v>
       </c>
@@ -2686,14 +2749,14 @@
       <c r="R57">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="S57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>28</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
       <c r="C58">
         <v>0</v>
       </c>
@@ -2736,20 +2799,20 @@
       <c r="P58">
         <v>0</v>
       </c>
-      <c r="Q58" t="s">
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58" t="s">
         <v>27</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
       <c r="C59">
         <v>0</v>
       </c>
@@ -2798,14 +2861,14 @@
       <c r="R59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="S59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>4</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
       <c r="C60">
         <v>0</v>
       </c>
@@ -2854,355 +2917,355 @@
       <c r="R60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="S60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>5</v>
       </c>
-      <c r="B61" s="1">
-        <f>B65</f>
+      <c r="C61" s="1">
+        <f>C65</f>
         <v>80</v>
       </c>
-      <c r="C61" s="1">
-        <f t="shared" ref="C61:P61" si="7">C65</f>
+      <c r="D61" s="1">
+        <f t="shared" ref="D61:Q61" si="7">D65</f>
         <v>81</v>
       </c>
-      <c r="D61" s="1">
+      <c r="E61" s="1">
         <f t="shared" si="7"/>
         <v>82</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <f t="shared" si="7"/>
         <v>83</v>
       </c>
-      <c r="F61" s="1">
+      <c r="G61" s="1">
         <f t="shared" si="7"/>
         <v>84</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <f t="shared" si="7"/>
         <v>85</v>
       </c>
-      <c r="H61" s="1">
+      <c r="I61" s="1">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="I61" s="1">
+      <c r="J61" s="1">
         <f t="shared" si="7"/>
         <v>87</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <f t="shared" si="7"/>
         <v>88</v>
       </c>
-      <c r="K61" s="1">
+      <c r="L61" s="1">
         <f t="shared" si="7"/>
         <v>89</v>
       </c>
-      <c r="L61" s="1">
+      <c r="M61" s="1">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="M61" s="1">
+      <c r="N61" s="1">
         <f t="shared" si="7"/>
         <v>91</v>
       </c>
-      <c r="N61" s="1">
+      <c r="O61" s="1">
         <f t="shared" si="7"/>
         <v>92</v>
       </c>
-      <c r="O61" s="1">
+      <c r="P61" s="1">
         <f t="shared" si="7"/>
         <v>93</v>
       </c>
-      <c r="P61" s="1">
+      <c r="Q61" s="1">
         <f t="shared" si="7"/>
         <v>94</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="R61" t="s">
         <v>14</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>29</v>
       </c>
-      <c r="B63">
-        <f>SUM(B55:B60)</f>
+      <c r="C63">
+        <f>SUM(C55:C60)</f>
         <v>188</v>
       </c>
-      <c r="C63">
-        <f t="shared" ref="C63:P63" si="8">SUM(C55:C60)</f>
+      <c r="D63">
+        <f t="shared" ref="D63:Q63" si="8">SUM(D55:D60)</f>
         <v>189</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <f t="shared" si="8"/>
         <v>190</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <f t="shared" si="8"/>
         <v>191</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <f t="shared" si="8"/>
         <v>192</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <f t="shared" si="8"/>
         <v>193</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <f t="shared" si="8"/>
         <v>194</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <f t="shared" si="8"/>
         <v>195</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <f t="shared" si="8"/>
         <v>196</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <f t="shared" si="8"/>
         <v>198</v>
       </c>
-      <c r="M63">
-        <f>SUM(M55:M60)</f>
+      <c r="N63">
+        <f>SUM(N55:N60)</f>
         <v>199</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <f t="shared" si="8"/>
         <v>201</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <f t="shared" si="8"/>
         <v>202</v>
       </c>
-      <c r="R63">
-        <f>SUM(R56:R60)</f>
+      <c r="S63">
+        <f>SUM(S56:S60)</f>
         <v>200</v>
       </c>
-      <c r="S63">
-        <f>R63-S64</f>
+      <c r="T63">
+        <f>S63-T64</f>
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R64">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="S64">
         <v>12</v>
       </c>
-      <c r="S64" s="2">
-        <f>R63-R61</f>
+      <c r="T64" s="2">
+        <f>S63-S61</f>
         <v>108</v>
       </c>
-      <c r="U64">
-        <f>A54+S64-255</f>
+      <c r="V64">
+        <f>A54+T64-255</f>
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="5">
-        <f>B63-$S$64</f>
+      <c r="C65" s="5">
+        <f>C63-$T$64</f>
         <v>80</v>
       </c>
-      <c r="C65">
-        <f t="shared" ref="C65:P65" si="9">C63-$S$64</f>
+      <c r="D65">
+        <f t="shared" ref="D65:Q65" si="9">D63-$T$64</f>
         <v>81</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <f t="shared" si="9"/>
         <v>82</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <f t="shared" si="9"/>
         <v>83</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <f t="shared" si="9"/>
         <v>84</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <f t="shared" si="9"/>
         <v>85</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <f t="shared" si="9"/>
         <v>86</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <f t="shared" si="9"/>
         <v>87</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <f t="shared" si="9"/>
         <v>88</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <f t="shared" si="9"/>
         <v>89</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <f t="shared" si="9"/>
         <v>91</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <f t="shared" si="9"/>
         <v>92</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <f t="shared" si="9"/>
         <v>93</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
-      <c r="S65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="T65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>304</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>30</v>
       </c>
-      <c r="C68">
-        <f>C69*16</f>
+      <c r="D68">
+        <f>D69*16</f>
         <v>16</v>
       </c>
-      <c r="D68">
-        <f t="shared" ref="D68:P68" si="10">D69*16</f>
+      <c r="E68">
+        <f t="shared" ref="E68:Q68" si="10">E69*16</f>
         <v>32</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <f t="shared" si="10"/>
         <v>64</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <f t="shared" si="10"/>
         <v>80</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <f t="shared" si="10"/>
         <v>96</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <f t="shared" si="10"/>
         <v>112</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <f t="shared" si="10"/>
         <v>128</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <f t="shared" si="10"/>
         <v>160</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <f t="shared" si="10"/>
         <v>176</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <f t="shared" si="10"/>
         <v>192</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <f t="shared" si="10"/>
         <v>208</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <f t="shared" si="10"/>
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>31</v>
       </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
       <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
         <v>1</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>2</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>3</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>4</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>5</v>
       </c>
-      <c r="H69">
+      <c r="I69">
         <v>6</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>7</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>8</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>9</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>10</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>11</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>12</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>13</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>0</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>45</v>
-      </c>
-      <c r="C70">
-        <v>65</v>
       </c>
       <c r="D70">
         <v>65</v>
@@ -3244,21 +3307,21 @@
         <v>65</v>
       </c>
       <c r="Q70">
+        <v>65</v>
+      </c>
+      <c r="R70">
         <v>41</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>1</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>3</v>
-      </c>
-      <c r="C71">
-        <v>67</v>
       </c>
       <c r="D71">
         <v>67</v>
@@ -3300,21 +3363,21 @@
         <v>67</v>
       </c>
       <c r="Q71">
+        <v>67</v>
+      </c>
+      <c r="R71">
         <v>43</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>2</v>
       </c>
-      <c r="B72">
-        <v>0</v>
-      </c>
       <c r="C72">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>41</v>
@@ -3356,21 +3419,21 @@
         <v>41</v>
       </c>
       <c r="Q72">
+        <v>41</v>
+      </c>
+      <c r="R72">
         <v>29</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>3</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>40</v>
-      </c>
-      <c r="C73">
-        <v>15</v>
       </c>
       <c r="D73">
         <v>15</v>
@@ -3411,18 +3474,20 @@
       <c r="P73">
         <v>15</v>
       </c>
-      <c r="Q73" t="s">
+      <c r="Q73">
+        <v>15</v>
+      </c>
+      <c r="R73" t="s">
         <v>32</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>34</v>
       </c>
-      <c r="B74" s="6"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -3437,283 +3502,284 @@
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="Q74" s="6"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>4</v>
       </c>
-      <c r="B75" s="1">
-        <f>B79</f>
+      <c r="C75" s="1">
+        <f>C79</f>
         <v>-100</v>
       </c>
-      <c r="C75" s="1">
-        <f t="shared" ref="C75:P75" si="11">C79</f>
+      <c r="D75" s="1">
+        <f t="shared" ref="D75:Q75" si="11">D79</f>
         <v>1</v>
       </c>
-      <c r="D75" s="1">
+      <c r="E75" s="1">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="E75" s="1">
+      <c r="F75" s="1">
         <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="F75" s="1">
+      <c r="G75" s="1">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="H75" s="1">
+      <c r="I75" s="1">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="I75" s="1">
+      <c r="J75" s="1">
         <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="J75" s="1">
+      <c r="K75" s="1">
         <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="K75" s="1">
+      <c r="L75" s="1">
         <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="L75" s="1">
+      <c r="M75" s="1">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="M75" s="1">
+      <c r="N75" s="1">
         <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="N75" s="1">
+      <c r="O75" s="1">
         <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="O75" s="1">
+      <c r="P75" s="1">
         <f t="shared" si="11"/>
         <v>13</v>
       </c>
-      <c r="P75" s="1">
+      <c r="Q75" s="1">
         <f t="shared" si="11"/>
         <v>14</v>
       </c>
-      <c r="Q75" t="s">
+      <c r="R75" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>102</v>
-      </c>
-      <c r="B77">
-        <f>SUM(B69:B73)</f>
+        <v>97</v>
+      </c>
+      <c r="C77">
+        <f t="shared" ref="C77:Q77" si="12">SUM(C69:C73)</f>
         <v>88</v>
       </c>
-      <c r="C77">
-        <f>SUM(C69:C73)</f>
+      <c r="D77">
+        <f t="shared" si="12"/>
         <v>189</v>
       </c>
-      <c r="D77">
-        <f>SUM(D69:D73)</f>
+      <c r="E77">
+        <f t="shared" si="12"/>
         <v>190</v>
       </c>
-      <c r="E77">
-        <f>SUM(E69:E73)</f>
+      <c r="F77">
+        <f t="shared" si="12"/>
         <v>191</v>
       </c>
-      <c r="F77">
-        <f>SUM(F69:F73)</f>
+      <c r="G77">
+        <f t="shared" si="12"/>
         <v>192</v>
       </c>
-      <c r="G77">
-        <f>SUM(G69:G73)</f>
+      <c r="H77">
+        <f t="shared" si="12"/>
         <v>193</v>
       </c>
-      <c r="H77">
-        <f>SUM(H69:H73)</f>
+      <c r="I77">
+        <f t="shared" si="12"/>
         <v>194</v>
       </c>
-      <c r="I77">
-        <f>SUM(I69:I73)</f>
+      <c r="J77">
+        <f t="shared" si="12"/>
         <v>195</v>
       </c>
-      <c r="J77">
-        <f>SUM(J69:J73)</f>
+      <c r="K77">
+        <f t="shared" si="12"/>
         <v>196</v>
       </c>
-      <c r="K77">
-        <f>SUM(K69:K73)</f>
+      <c r="L77">
+        <f t="shared" si="12"/>
         <v>197</v>
       </c>
-      <c r="L77">
-        <f>SUM(L69:L73)</f>
+      <c r="M77">
+        <f t="shared" si="12"/>
         <v>198</v>
       </c>
-      <c r="M77">
-        <f>SUM(M69:M73)</f>
+      <c r="N77">
+        <f t="shared" si="12"/>
         <v>199</v>
       </c>
-      <c r="N77">
-        <f>SUM(N69:N73)</f>
+      <c r="O77">
+        <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="O77">
-        <f>SUM(O69:O73)</f>
+      <c r="P77">
+        <f t="shared" si="12"/>
         <v>201</v>
       </c>
-      <c r="P77">
-        <f>SUM(P69:P73)</f>
+      <c r="Q77">
+        <f t="shared" si="12"/>
         <v>202</v>
       </c>
-      <c r="R77">
-        <f>SUM(R70:R73)</f>
+      <c r="S77">
+        <f>SUM(S70:S73)</f>
         <v>188</v>
       </c>
-      <c r="S77">
-        <f>R77-S78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="R78">
+      <c r="T77">
+        <f>S77-T78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="S78">
         <v>1</v>
       </c>
-      <c r="S78" s="2">
-        <f>R77-R75</f>
+      <c r="T78" s="2">
+        <f>S77-S75</f>
         <v>188</v>
       </c>
-      <c r="U78">
-        <f>A68+S78-255</f>
+      <c r="V78">
+        <f>A68+T78-255</f>
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B79">
-        <f>B77-$S$78</f>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C79">
+        <f>C77-$T$78</f>
         <v>-100</v>
       </c>
-      <c r="C79">
-        <f>C77-S78</f>
+      <c r="D79">
+        <f>D77-T78</f>
         <v>1</v>
       </c>
-      <c r="D79">
-        <f t="shared" ref="B79:M79" si="12">D77-$S$78</f>
+      <c r="E79">
+        <f t="shared" ref="E79:N79" si="13">E77-$T$78</f>
         <v>2</v>
       </c>
-      <c r="E79">
-        <f t="shared" si="12"/>
+      <c r="F79">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="12"/>
+      <c r="G79">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="12"/>
+      <c r="H79">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="H79">
-        <f t="shared" si="12"/>
+      <c r="I79">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="I79">
-        <f t="shared" si="12"/>
+      <c r="J79">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="J79">
-        <f t="shared" si="12"/>
+      <c r="K79">
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="K79">
-        <f t="shared" si="12"/>
+      <c r="L79">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="L79">
-        <f t="shared" si="12"/>
+      <c r="M79">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="M79">
-        <f t="shared" si="12"/>
+      <c r="N79">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="N79">
-        <f>N77-$S$78</f>
+      <c r="O79">
+        <f>O77-$T$78</f>
         <v>12</v>
       </c>
-      <c r="O79">
-        <f t="shared" ref="O79:P79" si="13">O77-$S$78</f>
+      <c r="P79">
+        <f t="shared" ref="P79:Q79" si="14">P77-$T$78</f>
         <v>13</v>
       </c>
-      <c r="P79">
-        <f t="shared" si="13"/>
+      <c r="Q79">
+        <f t="shared" si="14"/>
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.45">
-      <c r="B80" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>41</v>
       </c>
-      <c r="B82">
+      <c r="C82">
         <v>5</v>
       </c>
-      <c r="C82">
+      <c r="D82">
         <v>6</v>
       </c>
-      <c r="D82">
+      <c r="E82">
         <v>7</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>8</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>9</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>39</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>35</v>
       </c>
-      <c r="I82" t="s">
+      <c r="J82" t="s">
         <v>27</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>36</v>
       </c>
-      <c r="K82" t="s">
+      <c r="L82" t="s">
         <v>37</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>38</v>
       </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
       <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
         <v>1</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>2</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <v>3</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="B84" t="s">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="C84" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3723,58 +3789,128 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8529B-222B-4E57-9E1F-B731C7543C9F}">
-  <dimension ref="A1:V66"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{900D8570-1276-4EE4-A636-72257A56D86F}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X11" sqref="X11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8529B-222B-4E57-9E1F-B731C7543C9F}">
+  <dimension ref="A1:AJ72"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE16" sqref="AE16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" customWidth="1"/>
-    <col min="3" max="3" width="5.53125" customWidth="1"/>
-    <col min="4" max="4" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.86328125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.06640625" style="7"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.86328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="9.06640625" style="8"/>
-    <col min="13" max="13" width="2.86328125" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="10" customWidth="1"/>
-    <col min="15" max="15" width="1.86328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="9.06640625" style="10"/>
-    <col min="18" max="18" width="2.86328125" customWidth="1"/>
-    <col min="19" max="19" width="19.46484375" style="27" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.86328125" style="27" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.06640625" style="27"/>
-    <col min="22" max="22" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.69140625" customWidth="1"/>
+    <col min="2" max="2" width="4.61328125" customWidth="1"/>
+    <col min="3" max="3" width="5.53515625" customWidth="1"/>
+    <col min="4" max="4" width="19.4609375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.84375" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" style="22"/>
+    <col min="7" max="7" width="11" style="22" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.15234375" customWidth="1"/>
+    <col min="9" max="10" width="5.921875" customWidth="1"/>
+    <col min="11" max="11" width="15.69140625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="1.84375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.23046875" style="10"/>
+    <col min="16" max="16" width="5.61328125" customWidth="1"/>
+    <col min="17" max="17" width="5.765625" customWidth="1"/>
+    <col min="18" max="18" width="5.4609375" customWidth="1"/>
+    <col min="19" max="19" width="19.3046875" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.84375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.07421875" style="8"/>
+    <col min="23" max="23" width="7.69140625" customWidth="1"/>
+    <col min="24" max="25" width="7.61328125" customWidth="1"/>
+    <col min="26" max="26" width="16.765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.765625" style="7" customWidth="1"/>
+    <col min="28" max="29" width="9.23046875" style="7"/>
+    <col min="30" max="30" width="6.3046875" customWidth="1"/>
+    <col min="33" max="35" width="9.23046875" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="11">
+        <f>HEX2DEC(H1)</f>
+        <v>170</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="11">
+        <f>HEX2DEC(P1)</f>
+        <v>304</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X1" s="11">
+        <f>HEX2DEC(W1)</f>
+        <v>416</v>
+      </c>
+      <c r="Z1" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="27" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AD1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE1" s="11">
+        <f>HEX2DEC(AD1)</f>
+        <v>464</v>
+      </c>
+      <c r="AG1" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ1" s="34"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="D2" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG2" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -3784,1887 +3920,2727 @@
       <c r="C3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11">
+        <f>HEX2DEC(H3)</f>
+        <v>251</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="15">
+        <v>1</v>
+      </c>
+      <c r="M3" s="15">
+        <v>5</v>
+      </c>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="11">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="11">
+        <f>HEX2DEC(P3)</f>
+        <v>65</v>
+      </c>
+      <c r="S3" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="14">
+        <v>0</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="V3" s="14"/>
+      <c r="W3" s="11">
+        <v>0</v>
+      </c>
+      <c r="X3" s="11">
+        <f>HEX2DEC(W3)</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="J3" s="14">
-        <v>0</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="N3" s="15" t="s">
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" s="11">
+        <f>HEX2DEC(AD3)</f>
+        <v>124</v>
+      </c>
+      <c r="AG3" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="25">
+        <v>0</v>
+      </c>
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="K4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="15">
-        <v>1</v>
-      </c>
-      <c r="P3" s="15">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="15"/>
-      <c r="S3" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-    </row>
-    <row r="4" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="16">
-        <v>0</v>
-      </c>
-      <c r="B4" s="17">
-        <v>1</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="I4" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="19">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="N4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="20">
-        <v>0</v>
-      </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
+      <c r="L4" s="28">
+        <v>0</v>
+      </c>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
       <c r="S4" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="T4" s="29"/>
+        <v>80</v>
+      </c>
+      <c r="T4" s="29">
+        <v>0</v>
+      </c>
       <c r="U4" s="29"/>
       <c r="V4" s="29"/>
-    </row>
-    <row r="5" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="16">
-        <v>0</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="Z4" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AG4" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+    </row>
+    <row r="5" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="25">
+        <v>0</v>
+      </c>
+      <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="I5" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J5" s="19">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="N5" s="20" t="s">
+      <c r="D5" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="K5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="20">
+      <c r="L5" s="28">
         <v>1</v>
       </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="28"/>
       <c r="S5" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="T5" s="29"/>
+        <v>80</v>
+      </c>
+      <c r="T5" s="29">
+        <v>0</v>
+      </c>
       <c r="U5" s="29"/>
       <c r="V5" s="29"/>
-    </row>
-    <row r="6" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="16">
-        <v>0</v>
-      </c>
-      <c r="B6" s="17">
+      <c r="Z5" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AG5" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+    </row>
+    <row r="6" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25">
+        <v>0</v>
+      </c>
+      <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="I6" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J6" s="19">
+      <c r="D6" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="K6" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="28">
+        <v>0</v>
+      </c>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="S6" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="T6" s="29">
         <v>1</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="N6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="20">
-        <v>0</v>
-      </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="S6" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="T6" s="29"/>
       <c r="U6" s="29"/>
       <c r="V6" s="29"/>
-    </row>
-    <row r="7" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="16">
-        <v>0</v>
-      </c>
-      <c r="B7" s="17">
+      <c r="Z6" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AG6" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+    </row>
+    <row r="7" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="25">
+        <v>0</v>
+      </c>
+      <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="I7" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J7" s="19">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="N7" s="20" t="s">
+      <c r="D7" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="K7" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="20">
-        <v>0</v>
-      </c>
-      <c r="P7" s="20">
+      <c r="L7" s="28">
+        <v>0</v>
+      </c>
+      <c r="M7" s="28">
         <v>4</v>
       </c>
-      <c r="Q7" s="20"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
       <c r="S7" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="T7" s="29"/>
+        <v>80</v>
+      </c>
+      <c r="T7" s="29">
+        <v>0</v>
+      </c>
       <c r="U7" s="29"/>
       <c r="V7" s="29"/>
-    </row>
-    <row r="8" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="16">
-        <v>0</v>
-      </c>
-      <c r="B8" s="17">
+      <c r="Z7" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="30"/>
+      <c r="AC7" s="30"/>
+      <c r="AG7" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH7" s="36"/>
+      <c r="AI7" s="36"/>
+    </row>
+    <row r="8" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="25">
+        <v>0</v>
+      </c>
+      <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="I8" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J8" s="19">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="N8" s="20" t="s">
+      <c r="D8" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="K8" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="O8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
+      <c r="L8" s="28">
+        <v>0</v>
+      </c>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
       <c r="S8" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="T8" s="29"/>
+        <v>80</v>
+      </c>
+      <c r="T8" s="29">
+        <v>0</v>
+      </c>
       <c r="U8" s="29"/>
       <c r="V8" s="29"/>
-    </row>
-    <row r="9" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="16">
-        <v>0</v>
-      </c>
-      <c r="B9" s="17">
+      <c r="Z8" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AG8" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH8" s="36"/>
+      <c r="AI8" s="36"/>
+    </row>
+    <row r="9" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="25">
+        <v>0</v>
+      </c>
+      <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="I9" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" s="19">
+      <c r="D9" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="K9" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="28">
         <v>1</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="N9" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="20">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="S9" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" s="29">
         <v>1</v>
       </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="S9" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="T9" s="29"/>
       <c r="U9" s="29"/>
       <c r="V9" s="29"/>
-    </row>
-    <row r="10" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="21">
-        <v>0</v>
-      </c>
-      <c r="B10" s="22">
+      <c r="Z9" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AG9" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH9" s="36"/>
+      <c r="AI9" s="36"/>
+    </row>
+    <row r="10" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="16">
+        <v>0</v>
+      </c>
+      <c r="B10" s="17">
         <v>7</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="K10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="S10" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="19">
+        <v>1</v>
+      </c>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="Z10" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="I10" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="24">
-        <v>1</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="N10" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="25">
-        <v>0</v>
-      </c>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="S10" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="T10" s="30"/>
-      <c r="U10" s="30"/>
-      <c r="V10" s="30"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="AA10" s="18"/>
+      <c r="AB10" s="18"/>
+      <c r="AC10" s="18"/>
+      <c r="AG10" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="9">
         <v>1</v>
       </c>
       <c r="B11">
         <v>8</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11">
+        <v>46</v>
+      </c>
+      <c r="I11" s="25">
+        <f>HEX2DEC(H11)</f>
+        <v>70</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="10">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
+        <v>3</v>
+      </c>
+      <c r="P11">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="25">
+        <f>HEX2DEC(P11)</f>
+        <v>67</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T11" s="8">
+        <v>0</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11">
+        <v>80</v>
+      </c>
+      <c r="X11" s="25">
+        <f>HEX2DEC(W11)</f>
+        <v>128</v>
+      </c>
+      <c r="Z11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O11" s="10">
-        <v>1</v>
-      </c>
-      <c r="P11" s="10">
-        <v>3</v>
-      </c>
-      <c r="S11" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="AB11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE11" s="11">
+        <f>HEX2DEC(AD11)</f>
+        <v>255</v>
+      </c>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI11" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="9">
         <v>1</v>
       </c>
       <c r="B12">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="10">
+        <v>1</v>
+      </c>
+      <c r="S12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I12" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O12" s="10">
-        <v>1</v>
-      </c>
-      <c r="S12" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="AG12" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="9">
         <v>1</v>
       </c>
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" s="10">
+        <v>0</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="N13" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O13" s="10">
-        <v>0</v>
-      </c>
-      <c r="S13" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="AG13" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="9">
         <v>1</v>
       </c>
       <c r="B14">
         <v>11</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="10">
+        <v>0</v>
+      </c>
+      <c r="S14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="O14" s="10">
-        <v>0</v>
-      </c>
-      <c r="S14" s="27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="AG14" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="9">
         <v>1</v>
       </c>
       <c r="B15">
         <v>12</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" s="11"/>
+      <c r="J15" s="25"/>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T15" s="8">
+        <v>1</v>
+      </c>
+      <c r="U15" s="8">
+        <v>1</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J15" s="8">
-        <v>1</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0</v>
-      </c>
-      <c r="S15" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="AG15" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="9">
         <v>1</v>
       </c>
       <c r="B16">
         <v>13</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="S16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="S16" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="AG16" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>1</v>
       </c>
       <c r="B17">
         <v>14</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="T17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="AG17" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>1</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="AG18" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11">
         <v>2</v>
       </c>
       <c r="B19" s="12">
         <v>16</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="13">
-        <v>0</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="I19" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J19" s="14">
-        <v>0</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="14"/>
+      <c r="D19" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="11">
+        <f>HEX2DEC(H19)</f>
+        <v>26</v>
+      </c>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15">
+        <v>0</v>
+      </c>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
-      <c r="P19" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15"/>
-      <c r="S19" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="T19" s="28"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="28"/>
-    </row>
-    <row r="20" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="16">
+      <c r="P19" s="11">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="11">
+        <f>HEX2DEC(P19)</f>
+        <v>41</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="T19" s="14">
+        <v>0</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="V19" s="14"/>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <f>HEX2DEC(W19)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="11">
+        <v>43</v>
+      </c>
+      <c r="AE19" s="11">
+        <f>HEX2DEC(AD19)</f>
+        <v>67</v>
+      </c>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="25">
         <v>2</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="26">
         <v>17</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="I20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J20" s="19">
-        <v>0</v>
-      </c>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
+      <c r="D20" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
       <c r="S20" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="T20" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="T20" s="29">
+        <v>0</v>
+      </c>
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
-    </row>
-    <row r="21" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="16">
+      <c r="Z20" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA20" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="30"/>
+      <c r="AC20" s="30"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+    </row>
+    <row r="21" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="25">
         <v>2</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="26">
         <v>18</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="18">
-        <v>0</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="I21" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="19">
-        <v>0</v>
-      </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
+      <c r="D21" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
       <c r="S21" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="T21" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="T21" s="29">
+        <v>0</v>
+      </c>
       <c r="U21" s="29"/>
       <c r="V21" s="29"/>
-    </row>
-    <row r="22" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="16">
+      <c r="Z21" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA21" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="30"/>
+      <c r="AC21" s="30"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+    </row>
+    <row r="22" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="25">
         <v>2</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="26">
         <v>19</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="I22" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="19">
-        <v>0</v>
-      </c>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
+      <c r="D22" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
       <c r="S22" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="T22" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="T22" s="29">
+        <v>0</v>
+      </c>
       <c r="U22" s="29"/>
       <c r="V22" s="29"/>
-    </row>
-    <row r="23" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="16">
+      <c r="Z22" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA22" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+    </row>
+    <row r="23" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="25">
         <v>2</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="26">
         <v>20</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="18">
-        <v>6</v>
-      </c>
-      <c r="G23" s="18"/>
-      <c r="I23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J23" s="19">
-        <v>0</v>
-      </c>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="20"/>
+      <c r="D23" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28">
+        <v>0</v>
+      </c>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
       <c r="S23" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="T23" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="T23" s="29">
+        <v>0</v>
+      </c>
       <c r="U23" s="29"/>
       <c r="V23" s="29"/>
-    </row>
-    <row r="24" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="16">
+      <c r="Z23" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA23" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="30">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="30"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+    </row>
+    <row r="24" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="25">
         <v>2</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="26">
         <v>21</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="E24" s="18">
-        <v>1</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="I24" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J24" s="19">
-        <v>0</v>
-      </c>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
+      <c r="D24" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
       <c r="S24" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="T24" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="T24" s="29">
+        <v>0</v>
+      </c>
       <c r="U24" s="29"/>
       <c r="V24" s="29"/>
-    </row>
-    <row r="25" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="16">
+      <c r="Z24" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA24" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+    </row>
+    <row r="25" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="25">
         <v>2</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="26">
         <v>22</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="18">
-        <v>1</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="I25" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="19">
-        <v>0</v>
-      </c>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="N25" s="20" t="s">
+      <c r="D25" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="K25" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="20">
-        <v>0</v>
-      </c>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
+      <c r="L25" s="28">
+        <v>0</v>
+      </c>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
       <c r="S25" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="T25" s="29"/>
+        <v>82</v>
+      </c>
+      <c r="T25" s="29">
+        <v>0</v>
+      </c>
       <c r="U25" s="29"/>
       <c r="V25" s="29"/>
-    </row>
-    <row r="26" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="21">
+      <c r="Z25" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA25" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="30"/>
+      <c r="AC25" s="30"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="36"/>
+      <c r="AI25" s="36"/>
+    </row>
+    <row r="26" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="16">
         <v>2</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="17">
         <v>23</v>
       </c>
-      <c r="D26" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="23">
-        <v>0</v>
-      </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="I26" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="J26" s="24">
-        <v>0</v>
-      </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="N26" s="25" t="s">
+      <c r="D26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="K26" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="O26" s="25">
-        <v>0</v>
-      </c>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="S26" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="T26" s="30"/>
-      <c r="U26" s="30"/>
-      <c r="V26" s="30"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="L26" s="20">
+        <v>0</v>
+      </c>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="S26" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="T26" s="19">
+        <v>0</v>
+      </c>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="Z26" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA26" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="18"/>
+      <c r="AC26" s="18"/>
+      <c r="AG26" s="37"/>
+      <c r="AH26" s="37"/>
+      <c r="AI26" s="37"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A27" s="9">
         <v>3</v>
       </c>
       <c r="B27">
         <v>24</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="O27" s="10">
-        <v>0</v>
-      </c>
-      <c r="P27" s="10">
-        <v>0</v>
-      </c>
-      <c r="S27" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="U27" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="V27" s="27" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="D27" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="25">
+        <f>HEX2DEC(H27)</f>
+        <v>92</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="L27" s="10">
+        <v>0</v>
+      </c>
+      <c r="M27" s="10">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="25">
+        <f>HEX2DEC(P27)</f>
+        <v>15</v>
+      </c>
+      <c r="S27" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T27" s="8">
+        <v>0</v>
+      </c>
+      <c r="U27" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27" s="25">
+        <f>HEX2DEC(W27)</f>
+        <v>0</v>
+      </c>
+      <c r="Z27" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA27" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC27" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE27" s="11">
+        <f>HEX2DEC(AD27)</f>
+        <v>177</v>
+      </c>
+      <c r="AF27" s="25"/>
+      <c r="AG27" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI27" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>3</v>
       </c>
       <c r="B28">
         <v>25</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0</v>
-      </c>
-      <c r="O28" s="10">
-        <v>0</v>
-      </c>
-      <c r="S28" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="D28" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L28" s="10">
+        <v>0</v>
+      </c>
+      <c r="S28" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T28" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A29" s="9">
         <v>3</v>
       </c>
       <c r="B29">
         <v>26</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0</v>
-      </c>
-      <c r="O29" s="10">
-        <v>0</v>
-      </c>
-      <c r="S29" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="D29" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" s="10">
+        <v>0</v>
+      </c>
+      <c r="S29" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T29" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>3</v>
       </c>
       <c r="B30">
         <v>27</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J30" s="8">
+      <c r="D30" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" s="10">
+        <v>0</v>
+      </c>
+      <c r="S30" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T30" s="8">
         <v>1</v>
       </c>
-      <c r="O30" s="10">
-        <v>0</v>
-      </c>
-      <c r="S30" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="Z30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>3</v>
       </c>
       <c r="B31">
         <v>28</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0</v>
-      </c>
-      <c r="O31" s="10">
-        <v>0</v>
-      </c>
-      <c r="P31" s="10">
+      <c r="D31" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L31" s="10">
+        <v>0</v>
+      </c>
+      <c r="M31" s="10">
         <v>4</v>
       </c>
-      <c r="S31" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T31" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA31" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG31" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A32" s="9">
         <v>3</v>
       </c>
       <c r="B32">
         <v>29</v>
       </c>
-      <c r="D32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0</v>
-      </c>
-      <c r="O32" s="10">
-        <v>0</v>
-      </c>
-      <c r="S32" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="D32" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="L32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T32" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>3</v>
       </c>
       <c r="B33">
         <v>30</v>
       </c>
-      <c r="D33" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="N33" s="10" t="s">
+      <c r="D33" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O33" s="10">
+      <c r="L33" s="10">
         <v>1</v>
       </c>
-      <c r="S33" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="S33" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T33" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA33" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG33" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>3</v>
       </c>
       <c r="B34">
         <v>31</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0</v>
-      </c>
-      <c r="N34" s="10" t="s">
+      <c r="D34" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="K34" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="O34" s="10">
-        <v>0</v>
-      </c>
-      <c r="S34" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="L34" s="10">
+        <v>0</v>
+      </c>
+      <c r="S34" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="T34" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA34" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11">
         <v>4</v>
       </c>
       <c r="B35" s="12">
         <v>32</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="13"/>
-      <c r="I35" s="14" t="s">
+      <c r="D35" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="11">
+        <f>HEX2DEC(H35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="J35" s="14">
-        <v>0</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L35" s="14"/>
-      <c r="N35" s="15" t="s">
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="11">
+        <f>HEX2DEC(P35)</f>
+        <v>1</v>
+      </c>
+      <c r="S35" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="T35" s="14">
+        <v>0</v>
+      </c>
+      <c r="U35" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="V35" s="14"/>
+      <c r="W35" s="11">
+        <v>80</v>
+      </c>
+      <c r="X35" s="11">
+        <f>HEX2DEC(W35)</f>
+        <v>128</v>
+      </c>
+      <c r="Z35" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA35" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC35" s="13"/>
+      <c r="AD35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE35" s="11">
+        <f>HEX2DEC(AD35)</f>
+        <v>45</v>
+      </c>
+      <c r="AG35" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH35" s="35"/>
+      <c r="AI35" s="35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="25">
+        <v>4</v>
+      </c>
+      <c r="B36" s="26">
+        <v>33</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="K36" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q35" s="15"/>
-      <c r="S35" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="T35" s="28"/>
-      <c r="U35" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="V35" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="16">
-        <v>4</v>
-      </c>
-      <c r="B36" s="17">
-        <v>33</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="I36" s="19" t="s">
+      <c r="L36" s="28"/>
+      <c r="M36" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="J36" s="19">
-        <v>0</v>
-      </c>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="N36" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q36" s="20"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
       <c r="S36" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="T36" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="T36" s="29">
+        <v>0</v>
+      </c>
       <c r="U36" s="29"/>
       <c r="V36" s="29"/>
-    </row>
-    <row r="37" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="16">
+      <c r="Z36" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA36" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="30"/>
+      <c r="AC36" s="30"/>
+      <c r="AG36" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+    </row>
+    <row r="37" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="25">
         <v>4</v>
       </c>
-      <c r="B37" s="17">
+      <c r="B37" s="26">
         <v>34</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="I37" s="19" t="s">
+      <c r="D37" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="K37" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="J37" s="19">
-        <v>0</v>
-      </c>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="N37" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q37" s="20"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
       <c r="S37" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="T37" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="T37" s="29">
+        <v>0</v>
+      </c>
       <c r="U37" s="29"/>
       <c r="V37" s="29"/>
-    </row>
-    <row r="38" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="16">
+      <c r="Z37" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA37" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="30"/>
+      <c r="AC37" s="30"/>
+      <c r="AG37" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+    </row>
+    <row r="38" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="25">
         <v>4</v>
       </c>
-      <c r="B38" s="17">
+      <c r="B38" s="26">
         <v>35</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="I38" s="19" t="s">
+      <c r="D38" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="K38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="J38" s="19">
-        <v>0</v>
-      </c>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="N38" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q38" s="20"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
       <c r="S38" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="T38" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="T38" s="29">
+        <v>0</v>
+      </c>
       <c r="U38" s="29"/>
       <c r="V38" s="29"/>
-    </row>
-    <row r="39" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="16">
+      <c r="Z38" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA38" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="30"/>
+      <c r="AC38" s="30"/>
+      <c r="AG38" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+    </row>
+    <row r="39" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="25">
         <v>4</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="26">
         <v>36</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="I39" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" s="19">
-        <v>0</v>
-      </c>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="N39" s="20" t="s">
+      <c r="D39" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="K39" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="11">
+        <f>HEX2DEC(P39)</f>
+        <v>12</v>
+      </c>
       <c r="S39" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="T39" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="T39" s="29">
+        <v>0</v>
+      </c>
       <c r="U39" s="29"/>
       <c r="V39" s="29"/>
-    </row>
-    <row r="40" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="16">
+      <c r="Z39" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA39" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="30"/>
+      <c r="AG39" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+    </row>
+    <row r="40" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="25">
         <v>4</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="26">
         <v>37</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="I40" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J40" s="19">
-        <v>0</v>
-      </c>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="N40" s="20" t="s">
+      <c r="D40" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="K40" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
       <c r="S40" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="T40" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="T40" s="29">
+        <v>0</v>
+      </c>
       <c r="U40" s="29"/>
       <c r="V40" s="29"/>
-    </row>
-    <row r="41" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="16">
+      <c r="Z40" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA40" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AG40" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+    </row>
+    <row r="41" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="25">
         <v>4</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="26">
         <v>38</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="I41" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="J41" s="19">
-        <v>0</v>
-      </c>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="N41" s="20" t="s">
+      <c r="D41" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
+      <c r="K41" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="28"/>
       <c r="S41" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="T41" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="T41" s="29">
+        <v>0</v>
+      </c>
       <c r="U41" s="29"/>
       <c r="V41" s="29"/>
-    </row>
-    <row r="42" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="21">
+      <c r="Z41" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA41" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AG41" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="36"/>
+    </row>
+    <row r="42" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="16">
         <v>4</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="17">
         <v>39</v>
       </c>
-      <c r="D42" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="I42" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J42" s="24">
+      <c r="D42" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="K42" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="S42" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="T42" s="19">
         <v>1</v>
       </c>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="N42" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="25"/>
-      <c r="S42" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A43" s="9">
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="Z42" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA42" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AG42" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37"/>
+    </row>
+    <row r="43" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="31">
         <v>5</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="11">
         <v>40</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="S43" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="U43" s="27" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A44" s="9">
+      <c r="D43" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G43" s="23"/>
+      <c r="H43" s="11">
+        <v>0</v>
+      </c>
+      <c r="I43" s="11">
+        <f>HEX2DEC(H43)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="15"/>
+      <c r="S43" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="T43" s="14">
+        <v>0</v>
+      </c>
+      <c r="U43" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="V43" s="14"/>
+      <c r="W43" s="11">
+        <v>0</v>
+      </c>
+      <c r="X43" s="11">
+        <f>HEX2DEC(W43)</f>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC43" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD43" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE43" s="11">
+        <f>HEX2DEC(AD43)</f>
+        <v>182</v>
+      </c>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="32">
         <v>5</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="25">
         <v>41</v>
       </c>
-      <c r="D44" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0</v>
-      </c>
+      <c r="D44" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
       <c r="S44" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A45" s="9">
+        <v>84</v>
+      </c>
+      <c r="T44" s="29">
+        <v>0</v>
+      </c>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="Z44" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA44" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB44" s="30"/>
+      <c r="AC44" s="30"/>
+      <c r="AG44" s="36"/>
+      <c r="AH44" s="36"/>
+      <c r="AI44" s="36"/>
+    </row>
+    <row r="45" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="32">
         <v>5</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="25">
         <v>42</v>
       </c>
-      <c r="D45" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0</v>
-      </c>
+      <c r="D45" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
       <c r="S45" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A46" s="9">
+        <v>84</v>
+      </c>
+      <c r="T45" s="29">
+        <v>0</v>
+      </c>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="Z45" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA45" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="30"/>
+      <c r="AC45" s="30"/>
+      <c r="AG45" s="36"/>
+      <c r="AH45" s="36"/>
+      <c r="AI45" s="36"/>
+    </row>
+    <row r="46" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="32">
         <v>5</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="25">
         <v>43</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J46" s="8">
-        <v>0</v>
-      </c>
+      <c r="D46" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
       <c r="S46" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A47" s="9">
+        <v>84</v>
+      </c>
+      <c r="T46" s="29">
+        <v>0</v>
+      </c>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="Z46" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA46" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="30"/>
+      <c r="AC46" s="30"/>
+      <c r="AG46" s="36"/>
+      <c r="AH46" s="36"/>
+      <c r="AI46" s="36"/>
+    </row>
+    <row r="47" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="32">
         <v>5</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="25">
         <v>44</v>
       </c>
-      <c r="D47" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0</v>
-      </c>
+      <c r="D47" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
       <c r="S47" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A48" s="9">
+        <v>84</v>
+      </c>
+      <c r="T47" s="29">
+        <v>0</v>
+      </c>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="Z47" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA47" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="30"/>
+      <c r="AC47" s="30"/>
+      <c r="AG47" s="36"/>
+      <c r="AH47" s="36"/>
+      <c r="AI47" s="36"/>
+    </row>
+    <row r="48" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="32">
         <v>5</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="25">
         <v>45</v>
       </c>
-      <c r="D48" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J48" s="8">
-        <v>0</v>
-      </c>
+      <c r="D48" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
       <c r="S48" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A49" s="9">
+        <v>84</v>
+      </c>
+      <c r="T48" s="29">
+        <v>0</v>
+      </c>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="Z48" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA48" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="30"/>
+      <c r="AC48" s="30"/>
+      <c r="AG48" s="36"/>
+      <c r="AH48" s="36"/>
+      <c r="AI48" s="36"/>
+    </row>
+    <row r="49" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="32">
         <v>5</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="25">
         <v>46</v>
       </c>
-      <c r="D49" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I49" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J49" s="8">
-        <v>0</v>
-      </c>
+      <c r="D49" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
       <c r="S49" s="29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A50" s="9">
+        <v>84</v>
+      </c>
+      <c r="T49" s="29">
+        <v>0</v>
+      </c>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="Z49" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA49" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="30"/>
+      <c r="AC49" s="30"/>
+      <c r="AG49" s="36"/>
+      <c r="AH49" s="36"/>
+      <c r="AI49" s="36"/>
+    </row>
+    <row r="50" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="33">
         <v>5</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="16">
         <v>47</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-      <c r="S50" s="30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="D50" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="S50" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="T50" s="19">
+        <v>0</v>
+      </c>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="Z50" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA50" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AG50" s="37"/>
+      <c r="AH50" s="37"/>
+      <c r="AI50" s="37"/>
+    </row>
+    <row r="51" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="11">
         <v>6</v>
       </c>
       <c r="B51" s="12">
         <v>48</v>
       </c>
-      <c r="D51" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E51" s="13">
-        <v>1</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I51" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J51" s="14">
-        <v>0</v>
-      </c>
-      <c r="K51" s="14">
-        <v>8</v>
-      </c>
-      <c r="L51" s="14"/>
+      <c r="D51" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="23">
+        <v>0</v>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="11">
+        <v>94</v>
+      </c>
+      <c r="I51" s="11">
+        <f>HEX2DEC(H51)</f>
+        <v>148</v>
+      </c>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
       <c r="N51" s="15"/>
       <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
-      <c r="S51" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="T51" s="28">
-        <v>0</v>
-      </c>
-      <c r="U51" s="28"/>
-      <c r="V51" s="28"/>
-    </row>
-    <row r="52" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="16">
+      <c r="S51" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="T51" s="14">
+        <v>0</v>
+      </c>
+      <c r="U51" s="14">
+        <v>8</v>
+      </c>
+      <c r="V51" s="14"/>
+      <c r="W51" s="11">
+        <v>58</v>
+      </c>
+      <c r="X51" s="11">
+        <f>HEX2DEC(W51)</f>
+        <v>88</v>
+      </c>
+      <c r="Z51" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA51" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB51" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC51" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD51" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE51" s="11">
+        <f>HEX2DEC(AD51)</f>
+        <v>204</v>
+      </c>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35"/>
+      <c r="AI51" s="35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="25">
         <v>6</v>
       </c>
-      <c r="B52" s="17">
+      <c r="B52" s="26">
         <v>49</v>
       </c>
-      <c r="D52" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="18">
-        <v>0</v>
-      </c>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="I52" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J52" s="19">
-        <v>0</v>
-      </c>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
+      <c r="D52" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="27">
+        <v>0</v>
+      </c>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
       <c r="S52" s="29" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="T52" s="29">
         <v>0</v>
       </c>
       <c r="U52" s="29"/>
       <c r="V52" s="29"/>
-    </row>
-    <row r="53" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="16">
+      <c r="Z52" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA52" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="30"/>
+      <c r="AC52" s="30"/>
+      <c r="AG52" s="36"/>
+      <c r="AH52" s="36"/>
+      <c r="AI52" s="36"/>
+    </row>
+    <row r="53" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="25">
         <v>6</v>
       </c>
-      <c r="B53" s="17">
+      <c r="B53" s="26">
         <v>50</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18">
+      <c r="D53" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" s="27">
         <v>1</v>
       </c>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="I53" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J53" s="19">
-        <v>0</v>
-      </c>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
       <c r="S53" s="29" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="T53" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53" s="29"/>
       <c r="V53" s="29"/>
-    </row>
-    <row r="54" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="16">
+      <c r="Z53" s="30"/>
+      <c r="AA53" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB53" s="30"/>
+      <c r="AC53" s="30"/>
+      <c r="AG53" s="36"/>
+      <c r="AH53" s="36"/>
+      <c r="AI53" s="36"/>
+    </row>
+    <row r="54" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="25">
         <v>6</v>
       </c>
-      <c r="B54" s="17">
+      <c r="B54" s="26">
         <v>51</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18">
+      <c r="D54" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="E54" s="27">
+        <v>0</v>
+      </c>
+      <c r="F54" s="27"/>
+      <c r="G54" s="27"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="S54" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="T54" s="29">
         <v>1</v>
-      </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="I54" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="J54" s="19">
-        <v>1</v>
-      </c>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="S54" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="T54" s="29">
-        <v>0</v>
       </c>
       <c r="U54" s="29"/>
       <c r="V54" s="29"/>
-    </row>
-    <row r="55" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="16">
+      <c r="Z54" s="30"/>
+      <c r="AA54" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="30"/>
+      <c r="AC54" s="30"/>
+      <c r="AG54" s="36"/>
+      <c r="AH54" s="36"/>
+      <c r="AI54" s="36"/>
+    </row>
+    <row r="55" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="25">
         <v>6</v>
       </c>
-      <c r="B55" s="17">
+      <c r="B55" s="26">
         <v>52</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18">
-        <v>0</v>
-      </c>
-      <c r="F55" s="18">
-        <v>0</v>
-      </c>
-      <c r="G55" s="18"/>
-      <c r="I55" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J55" s="19"/>
-      <c r="K55" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L55" s="19"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
+      <c r="D55" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="27">
+        <v>1</v>
+      </c>
+      <c r="F55" s="27"/>
+      <c r="G55" s="27"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
       <c r="S55" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="T55" s="29">
+        <v>85</v>
+      </c>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="V55" s="29"/>
+      <c r="Z55" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="30"/>
+      <c r="AG55" s="36"/>
+      <c r="AH55" s="36"/>
+      <c r="AI55" s="36"/>
+    </row>
+    <row r="56" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="25">
+        <v>6</v>
+      </c>
+      <c r="B56" s="26">
+        <v>53</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E56" s="27">
+        <v>0</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="S56" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="V56" s="29"/>
+      <c r="Z56" s="30"/>
+      <c r="AA56" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="30"/>
+      <c r="AC56" s="30"/>
+      <c r="AG56" s="36"/>
+      <c r="AH56" s="36"/>
+      <c r="AI56" s="36"/>
+    </row>
+    <row r="57" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="25">
+        <v>6</v>
+      </c>
+      <c r="B57" s="26">
+        <v>54</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="27">
+        <v>0</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="S57" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="V57" s="29"/>
+      <c r="Z57" s="30"/>
+      <c r="AA57" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="30"/>
+      <c r="AC57" s="30"/>
+      <c r="AG57" s="36"/>
+      <c r="AH57" s="36"/>
+      <c r="AI57" s="36"/>
+    </row>
+    <row r="58" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="16">
+        <v>6</v>
+      </c>
+      <c r="B58" s="17">
+        <v>55</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="24">
         <v>1</v>
       </c>
-      <c r="U55" s="29"/>
-      <c r="V55" s="29"/>
-    </row>
-    <row r="56" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="16">
-        <v>6</v>
-      </c>
-      <c r="B56" s="17">
-        <v>53</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18">
-        <v>0</v>
-      </c>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="I56" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J56" s="19"/>
-      <c r="K56" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L56" s="19"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="S56" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="T56" s="29">
-        <v>0</v>
-      </c>
-      <c r="U56" s="29"/>
-      <c r="V56" s="29"/>
-    </row>
-    <row r="57" spans="1:22" s="16" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="16">
-        <v>6</v>
-      </c>
-      <c r="B57" s="17">
-        <v>54</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18">
-        <v>0</v>
-      </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="I57" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="L57" s="19"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="S57" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="T57" s="29">
-        <v>0</v>
-      </c>
-      <c r="U57" s="29"/>
-      <c r="V57" s="29"/>
-    </row>
-    <row r="58" spans="1:22" s="21" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="21">
-        <v>6</v>
-      </c>
-      <c r="B58" s="22">
-        <v>55</v>
-      </c>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23">
-        <v>0</v>
-      </c>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="I58" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="L58" s="24"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="25"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="25"/>
-      <c r="S58" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="T58" s="30">
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="S58" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="T58" s="19"/>
+      <c r="U58" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="V58" s="19"/>
+      <c r="Z58" s="18"/>
+      <c r="AA58" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="18"/>
+      <c r="AC58" s="18"/>
+      <c r="AG58" s="37"/>
+      <c r="AH58" s="37"/>
+      <c r="AI58" s="37"/>
+    </row>
+    <row r="59" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="31">
+        <v>7</v>
+      </c>
+      <c r="B59" s="11">
+        <v>56</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="11">
+        <v>0</v>
+      </c>
+      <c r="I59" s="11">
+        <f>HEX2DEC(H59)</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="15"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="15"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="15"/>
+      <c r="S59" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="T59" s="14"/>
+      <c r="U59" s="14"/>
+      <c r="V59" s="14"/>
+      <c r="W59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X59" s="11">
+        <f>HEX2DEC(W59)</f>
+        <v>250</v>
+      </c>
+      <c r="Z59" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA59" s="13">
         <v>1</v>
       </c>
-      <c r="U58" s="30"/>
-      <c r="V58" s="30"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A59" s="9">
+      <c r="AB59" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC59" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD59" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE59" s="11">
+        <f>HEX2DEC(AD59)</f>
+        <v>166</v>
+      </c>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="35"/>
+    </row>
+    <row r="60" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="32">
         <v>7</v>
       </c>
-      <c r="B59">
-        <v>56</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="I59" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S59" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A60" s="9">
+      <c r="B60" s="25">
+        <v>57</v>
+      </c>
+      <c r="D60" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="S60" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="Z60" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA60" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="30"/>
+      <c r="AC60" s="30"/>
+      <c r="AG60" s="36"/>
+      <c r="AH60" s="36"/>
+      <c r="AI60" s="36"/>
+    </row>
+    <row r="61" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="32">
         <v>7</v>
       </c>
-      <c r="B60">
-        <v>57</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S60" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A61" s="9">
+      <c r="B61" s="25">
+        <v>58</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="S61" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="Z61" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA61" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="30"/>
+      <c r="AC61" s="30"/>
+      <c r="AG61" s="36"/>
+      <c r="AH61" s="36"/>
+      <c r="AI61" s="36"/>
+    </row>
+    <row r="62" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="32">
         <v>7</v>
       </c>
-      <c r="B61">
-        <v>58</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S61" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A62" s="9">
+      <c r="B62" s="25">
+        <v>59</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="S62" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="Z62" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA62" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="30"/>
+      <c r="AC62" s="30"/>
+      <c r="AG62" s="36"/>
+      <c r="AH62" s="36"/>
+      <c r="AI62" s="36"/>
+    </row>
+    <row r="63" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="32">
         <v>7</v>
       </c>
-      <c r="B62">
-        <v>59</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S62" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A63" s="9">
+      <c r="B63" s="25">
+        <v>60</v>
+      </c>
+      <c r="D63" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="27"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="S63" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="Z63" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA63" s="30">
+        <v>1</v>
+      </c>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="30"/>
+      <c r="AG63" s="36"/>
+      <c r="AH63" s="36"/>
+      <c r="AI63" s="36"/>
+    </row>
+    <row r="64" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="32">
         <v>7</v>
       </c>
-      <c r="B63">
-        <v>60</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S63" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
-      <c r="A64" s="9">
+      <c r="B64" s="25">
+        <v>61</v>
+      </c>
+      <c r="D64" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E64" s="27"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="S64" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="Z64" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA64" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="30"/>
+      <c r="AC64" s="30"/>
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="36"/>
+      <c r="AI64" s="36"/>
+    </row>
+    <row r="65" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="32">
         <v>7</v>
       </c>
-      <c r="B64">
-        <v>61</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S64" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A65" s="9">
+      <c r="B65" s="25">
+        <v>62</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="S65" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="Z65" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA65" s="30">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="30"/>
+      <c r="AC65" s="30"/>
+      <c r="AG65" s="36"/>
+      <c r="AH65" s="36"/>
+      <c r="AI65" s="36"/>
+    </row>
+    <row r="66" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="33">
         <v>7</v>
       </c>
-      <c r="B65">
-        <v>62</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S65" s="29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A66" s="9">
-        <v>7</v>
-      </c>
-      <c r="B66">
+      <c r="B66" s="16">
         <v>63</v>
       </c>
-      <c r="D66" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="S66" s="27" t="s">
-        <v>111</v>
+      <c r="D66" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="S66" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="T66" s="19"/>
+      <c r="U66" s="19"/>
+      <c r="V66" s="19"/>
+      <c r="Z66" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA66" s="18">
+        <v>1</v>
+      </c>
+      <c r="AB66" s="18"/>
+      <c r="AC66" s="18"/>
+      <c r="AG66" s="37"/>
+      <c r="AH66" s="37"/>
+      <c r="AI66" s="37"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="I68">
+        <f>SUM(I11:I66)</f>
+        <v>336</v>
+      </c>
+      <c r="P68" t="str">
+        <f>DEC2HEX(Q68)</f>
+        <v>BD</v>
+      </c>
+      <c r="Q68">
+        <f>SUM(Q3:Q38)</f>
+        <v>189</v>
+      </c>
+      <c r="X68">
+        <f>SUM(X3:X58)</f>
+        <v>344</v>
+      </c>
+      <c r="AE68">
+        <f>SUM(AE3:AE66)</f>
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="I69">
+        <f>I68-(255-I1)</f>
+        <v>251</v>
+      </c>
+      <c r="P69" t="str">
+        <f>DEC2HEX(Q69)</f>
+        <v>EE</v>
+      </c>
+      <c r="Q69">
+        <f>Q68-(255-Q1)</f>
+        <v>238</v>
+      </c>
+      <c r="X69">
+        <f>X68-(255-X1)</f>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="I71" s="1">
+        <f>I69-I3</f>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="1">
+        <f>Q69-Q3</f>
+        <v>173</v>
+      </c>
+      <c r="X71" s="1">
+        <f>X69-X3</f>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="I72">
+        <f>I68-I69</f>
+        <v>85</v>
+      </c>
+      <c r="Q72">
+        <f>Q68-Q69</f>
+        <v>-49</v>
+      </c>
+      <c r="X72">
+        <f>X68-X69</f>
+        <v>-161</v>
       </c>
     </row>
   </sheetData>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60314B1C-24E1-4667-A16D-C09327E1BD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF863088-FB96-4C06-A7D8-5E9BA51B6979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51" yWindow="137" windowWidth="20786" windowHeight="18154" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1718" yWindow="255" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -311,9 +311,6 @@
     <t xml:space="preserve"> (high nibble ctr) 6</t>
   </si>
   <si>
-    <t>0x16</t>
-  </si>
-  <si>
     <t>0x00</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>f1</t>
+  </si>
+  <si>
+    <t>0x10</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -585,18 +585,11 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -880,37 +873,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V84"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="7.3828125" customWidth="1"/>
-    <col min="3" max="3" width="10.23046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>170</v>
       </c>
@@ -918,7 +911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -974,9 +967,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1051,9 +1044,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="21">
         <v>1</v>
@@ -1116,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>2</v>
       </c>
@@ -1175,7 +1168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>3</v>
       </c>
@@ -1234,7 +1227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>4</v>
       </c>
@@ -1299,7 +1292,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>5</v>
       </c>
@@ -1364,7 +1357,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B16">
         <v>6</v>
       </c>
@@ -1423,7 +1416,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B17">
         <v>7</v>
       </c>
@@ -1482,7 +1475,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +1548,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="S20">
         <v>6</v>
       </c>
@@ -1568,7 +1561,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1633,7 +1626,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1641,7 +1634,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>416</v>
       </c>
@@ -1705,7 +1698,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1758,54 +1751,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R27">
         <v>0</v>
@@ -1823,54 +1816,54 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="D28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="E28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="F28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="G28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="H28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="J28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="K28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="L28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="M28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="N28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="O28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="P28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="Q28">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="R28">
         <v>80</v>
@@ -1885,7 +1878,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1944,7 +1937,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>3</v>
       </c>
@@ -2003,7 +1996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>4</v>
       </c>
@@ -2062,7 +2055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>5</v>
       </c>
@@ -2121,7 +2114,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>90</v>
       </c>
@@ -2184,69 +2177,69 @@
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>7</v>
       </c>
       <c r="C34" s="1">
-        <f>C38</f>
-        <v>178</v>
+        <f>C38-256</f>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:Q34" si="4">D38</f>
-        <v>194</v>
+        <f t="shared" ref="D34:Q34" si="4">D38-256</f>
+        <v>26</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="4"/>
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" si="4"/>
-        <v>226</v>
+        <v>58</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="4"/>
-        <v>242</v>
+        <v>74</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="4"/>
-        <v>258</v>
+        <v>90</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="4"/>
-        <v>274</v>
+        <v>106</v>
       </c>
       <c r="J34" s="1">
         <f t="shared" si="4"/>
-        <v>290</v>
+        <v>122</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="4"/>
-        <v>306</v>
+        <v>138</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="4"/>
-        <v>322</v>
+        <v>154</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="4"/>
-        <v>338</v>
+        <v>170</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="4"/>
-        <v>354</v>
+        <v>186</v>
       </c>
       <c r="O34" s="1">
         <f t="shared" si="4"/>
-        <v>370</v>
+        <v>202</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="4"/>
-        <v>386</v>
+        <v>218</v>
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="4"/>
-        <v>402</v>
+        <v>234</v>
       </c>
       <c r="R34" t="s">
         <v>19</v>
@@ -2258,69 +2251,69 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="C36">
         <f>SUM(C27:C33)+C25</f>
-        <v>272</v>
+        <v>360</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:S36" si="5">SUM(D27:D33)+D25</f>
-        <v>288</v>
+        <f t="shared" ref="D36:Q36" si="5">SUM(D27:D33)+D25</f>
+        <v>376</v>
       </c>
       <c r="E36">
         <f t="shared" si="5"/>
-        <v>304</v>
+        <v>392</v>
       </c>
       <c r="F36">
         <f t="shared" si="5"/>
-        <v>320</v>
+        <v>408</v>
       </c>
       <c r="G36">
         <f t="shared" si="5"/>
-        <v>336</v>
+        <v>424</v>
       </c>
       <c r="H36">
         <f t="shared" si="5"/>
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="I36">
         <f t="shared" si="5"/>
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="J36">
         <f t="shared" si="5"/>
-        <v>384</v>
+        <v>472</v>
       </c>
       <c r="K36">
         <f t="shared" si="5"/>
-        <v>400</v>
+        <v>488</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>416</v>
+        <v>504</v>
       </c>
       <c r="M36">
         <f t="shared" si="5"/>
-        <v>432</v>
+        <v>520</v>
       </c>
       <c r="N36">
         <f t="shared" si="5"/>
-        <v>448</v>
+        <v>536</v>
       </c>
       <c r="O36">
         <f t="shared" si="5"/>
-        <v>464</v>
+        <v>552</v>
       </c>
       <c r="P36">
         <f t="shared" si="5"/>
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="Q36">
         <f t="shared" si="5"/>
-        <v>496</v>
+        <v>584</v>
       </c>
       <c r="S36">
         <f>SUM(S27:S33)+S25</f>
@@ -2331,7 +2324,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="S37">
         <v>5</v>
       </c>
@@ -2344,75 +2337,81 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="5">
         <f>C36-$T$37</f>
-        <v>178</v>
+        <v>266</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" ref="D38:Q38" si="6">D36-$T$37</f>
-        <v>194</v>
+        <v>282</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="6"/>
-        <v>210</v>
+        <v>298</v>
       </c>
       <c r="F38" s="5">
         <f t="shared" si="6"/>
-        <v>226</v>
+        <v>314</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="6"/>
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="H38" s="5">
         <f t="shared" si="6"/>
-        <v>258</v>
+        <v>346</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="6"/>
-        <v>274</v>
+        <v>362</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="6"/>
-        <v>290</v>
+        <v>378</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="6"/>
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="L38" s="5">
         <f t="shared" si="6"/>
-        <v>322</v>
+        <v>410</v>
       </c>
       <c r="M38" s="5">
         <f t="shared" si="6"/>
-        <v>338</v>
+        <v>426</v>
       </c>
       <c r="N38" s="5">
         <f t="shared" si="6"/>
-        <v>354</v>
+        <v>442</v>
       </c>
       <c r="O38" s="5">
         <f t="shared" si="6"/>
-        <v>370</v>
+        <v>458</v>
       </c>
       <c r="P38" s="5">
         <f t="shared" si="6"/>
-        <v>386</v>
+        <v>474</v>
       </c>
       <c r="Q38" s="5">
         <f t="shared" si="6"/>
-        <v>402</v>
+        <v>490</v>
       </c>
       <c r="T38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="C39" t="str">
+        <f>DEC2HEX(C38)</f>
+        <v>10A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>464</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -2470,7 +2469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>0</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>28</v>
       </c>
@@ -2512,7 +2511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2526,7 +2525,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>6</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>7</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>200</v>
       </c>
@@ -2591,7 +2590,7 @@
       </c>
       <c r="M54" s="3"/>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -2641,7 +2640,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>0</v>
       </c>
@@ -2697,7 +2696,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>1</v>
       </c>
@@ -2753,7 +2752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -2809,7 +2808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2865,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>4</v>
       </c>
@@ -2921,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>5</v>
       </c>
@@ -2992,7 +2991,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>29</v>
       </c>
@@ -3065,7 +3064,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="S64">
         <v>12</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -3143,10 +3142,10 @@
         <v>94</v>
       </c>
       <c r="T65" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>304</v>
       </c>
@@ -3210,7 +3209,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>31</v>
       </c>
@@ -3260,7 +3259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>0</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>1</v>
       </c>
@@ -3372,7 +3371,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>34</v>
       </c>
@@ -3504,7 +3503,7 @@
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>4</v>
       </c>
@@ -3572,9 +3571,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C77">
         <f t="shared" ref="C77:Q77" si="12">SUM(C69:C73)</f>
@@ -3645,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="S78">
         <v>1</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C79">
         <f>C77-$T$78</f>
         <v>-100</v>
@@ -3720,12 +3719,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>41</v>
       </c>
@@ -3778,7 +3777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
       <c r="C84" t="s">
         <v>40</v>
       </c>
@@ -3796,7 +3795,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3806,41 +3805,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8529B-222B-4E57-9E1F-B731C7543C9F}">
   <dimension ref="A1:AJ72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE16" sqref="AE16"/>
+      <selection pane="bottomLeft" activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.69140625" customWidth="1"/>
-    <col min="2" max="2" width="4.61328125" customWidth="1"/>
-    <col min="3" max="3" width="5.53515625" customWidth="1"/>
-    <col min="4" max="4" width="19.4609375" style="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.84375" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.23046875" style="22"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" customWidth="1"/>
+    <col min="3" max="3" width="5.53125" customWidth="1"/>
+    <col min="4" max="4" width="19.46484375" style="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.86328125" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" style="22"/>
     <col min="7" max="7" width="11" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.15234375" customWidth="1"/>
-    <col min="9" max="10" width="5.921875" customWidth="1"/>
-    <col min="11" max="11" width="15.69140625" style="10" customWidth="1"/>
-    <col min="12" max="12" width="1.84375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.23046875" style="10"/>
-    <col min="16" max="16" width="5.61328125" customWidth="1"/>
-    <col min="17" max="17" width="5.765625" customWidth="1"/>
-    <col min="18" max="18" width="5.4609375" customWidth="1"/>
-    <col min="19" max="19" width="19.3046875" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.84375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.07421875" style="8"/>
-    <col min="23" max="23" width="7.69140625" customWidth="1"/>
-    <col min="24" max="25" width="7.61328125" customWidth="1"/>
-    <col min="26" max="26" width="16.765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.765625" style="7" customWidth="1"/>
-    <col min="28" max="29" width="9.23046875" style="7"/>
-    <col min="30" max="30" width="6.3046875" customWidth="1"/>
-    <col min="33" max="35" width="9.23046875" style="34"/>
+    <col min="8" max="8" width="6.1328125" customWidth="1"/>
+    <col min="9" max="10" width="5.9296875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="10" customWidth="1"/>
+    <col min="12" max="12" width="1.86328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.19921875" style="10"/>
+    <col min="16" max="16" width="5.59765625" customWidth="1"/>
+    <col min="17" max="17" width="5.73046875" customWidth="1"/>
+    <col min="18" max="18" width="5.46484375" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="1.86328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.06640625" style="8"/>
+    <col min="23" max="23" width="7.6640625" customWidth="1"/>
+    <col min="24" max="25" width="7.59765625" customWidth="1"/>
+    <col min="26" max="26" width="16.73046875" style="7" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.73046875" style="7" customWidth="1"/>
+    <col min="28" max="29" width="9.19921875" style="7"/>
+    <col min="30" max="30" width="6.33203125" customWidth="1"/>
+    <col min="33" max="35" width="9.19921875" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>89</v>
       </c>
@@ -3851,13 +3850,12 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I1" s="11">
         <f>HEX2DEC(H1)</f>
         <v>170</v>
       </c>
-      <c r="J1" s="25"/>
       <c r="K1" s="10" t="s">
         <v>31</v>
       </c>
@@ -3872,7 +3870,7 @@
         <v>6</v>
       </c>
       <c r="W1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="X1" s="11">
         <f>HEX2DEC(W1)</f>
@@ -3882,35 +3880,35 @@
         <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE1" s="11">
         <f>HEX2DEC(AD1)</f>
         <v>464</v>
       </c>
-      <c r="AG1" s="34" t="s">
+      <c r="AG1" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ1" s="28"/>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="D2" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG2" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" s="34"/>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
-      <c r="D2" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="S2" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z2" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG2" s="34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="11">
         <v>0</v>
       </c>
@@ -3921,7 +3919,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -3985,269 +3983,192 @@
         <f>HEX2DEC(AD3)</f>
         <v>124</v>
       </c>
-      <c r="AG3" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH3" s="35"/>
-      <c r="AI3" s="35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25">
-        <v>0</v>
-      </c>
-      <c r="B4" s="26">
-        <v>1</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="K4" s="28" t="s">
+      <c r="AG3" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="28">
-        <v>0</v>
-      </c>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="S4" s="29" t="s">
+      <c r="L4" s="10">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="29">
-        <v>0</v>
-      </c>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="Z4" s="30" t="s">
+      <c r="T4" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AG4" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36"/>
-    </row>
-    <row r="5" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25">
-        <v>0</v>
-      </c>
-      <c r="B5" s="26">
+      <c r="AG4" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="25">
         <v>2</v>
       </c>
-      <c r="D5" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="K5" s="28" t="s">
+      <c r="D5" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="28">
-        <v>1</v>
-      </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28"/>
-      <c r="S5" s="29" t="s">
+      <c r="L5" s="10">
+        <v>1</v>
+      </c>
+      <c r="S5" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="T5" s="29">
-        <v>0</v>
-      </c>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="Z5" s="30" t="s">
+      <c r="T5" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AG5" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="36"/>
-    </row>
-    <row r="6" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25">
-        <v>0</v>
-      </c>
-      <c r="B6" s="26">
+      <c r="AG5" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" s="25">
         <v>3</v>
       </c>
-      <c r="D6" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="K6" s="28" t="s">
+      <c r="D6" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="28">
-        <v>0</v>
-      </c>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
-      <c r="O6" s="28"/>
-      <c r="S6" s="29" t="s">
+      <c r="L6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="T6" s="29">
-        <v>1</v>
-      </c>
-      <c r="U6" s="29"/>
-      <c r="V6" s="29"/>
-      <c r="Z6" s="30" t="s">
+      <c r="T6" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AG6" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH6" s="36"/>
-      <c r="AI6" s="36"/>
-    </row>
-    <row r="7" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="25">
-        <v>0</v>
-      </c>
-      <c r="B7" s="26">
+      <c r="AG6" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" s="25">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="K7" s="28" t="s">
+      <c r="D7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="28">
-        <v>0</v>
-      </c>
-      <c r="M7" s="28">
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10">
         <v>4</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="S7" s="29" t="s">
+      <c r="S7" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="T7" s="29">
-        <v>0</v>
-      </c>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="Z7" s="30" t="s">
+      <c r="T7" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AG7" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH7" s="36"/>
-      <c r="AI7" s="36"/>
-    </row>
-    <row r="8" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="25">
-        <v>0</v>
-      </c>
-      <c r="B8" s="26">
+      <c r="AG7" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" s="25">
         <v>5</v>
       </c>
-      <c r="D8" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="K8" s="28" t="s">
+      <c r="D8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="28">
-        <v>0</v>
-      </c>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-      <c r="S8" s="29" t="s">
+      <c r="L8" s="10">
+        <v>0</v>
+      </c>
+      <c r="S8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="T8" s="29">
-        <v>0</v>
-      </c>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="Z8" s="30" t="s">
+      <c r="T8" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AG8" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH8" s="36"/>
-      <c r="AI8" s="36"/>
-    </row>
-    <row r="9" spans="1:36" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25">
-        <v>0</v>
-      </c>
-      <c r="B9" s="26">
+      <c r="AG8" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" s="25">
         <v>6</v>
       </c>
-      <c r="D9" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="K9" s="28" t="s">
+      <c r="D9" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="L9" s="28">
-        <v>1</v>
-      </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="S9" s="29" t="s">
+      <c r="L9" s="10">
+        <v>1</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="T9" s="29">
-        <v>1</v>
-      </c>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="Z9" s="30" t="s">
+      <c r="T9" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AG9" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH9" s="36"/>
-      <c r="AI9" s="36"/>
-    </row>
-    <row r="10" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AG9" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="16">
         <v>0</v>
       </c>
@@ -4258,7 +4179,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4286,13 +4207,13 @@
       <c r="AA10" s="18"/>
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
-      <c r="AG10" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AG10" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="30"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A11" s="9">
         <v>1</v>
       </c>
@@ -4300,16 +4221,15 @@
         <v>8</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H11">
         <v>46</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11">
         <f>HEX2DEC(H11)</f>
         <v>70</v>
       </c>
-      <c r="J11" s="25"/>
       <c r="K11" s="10" t="s">
         <v>46</v>
       </c>
@@ -4322,7 +4242,7 @@
       <c r="P11">
         <v>43</v>
       </c>
-      <c r="Q11" s="25">
+      <c r="Q11">
         <f>HEX2DEC(P11)</f>
         <v>67</v>
       </c>
@@ -4333,12 +4253,12 @@
         <v>0</v>
       </c>
       <c r="U11" s="8" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="W11">
         <v>80</v>
       </c>
-      <c r="X11" s="25">
+      <c r="X11">
         <f>HEX2DEC(W11)</f>
         <v>128</v>
       </c>
@@ -4358,15 +4278,14 @@
         <f>HEX2DEC(AD11)</f>
         <v>255</v>
       </c>
-      <c r="AF11" s="25"/>
-      <c r="AG11" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI11" s="34">
+      <c r="AG11" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI11" s="28">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A12" s="9">
         <v>1</v>
       </c>
@@ -4374,7 +4293,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>46</v>
@@ -4391,11 +4310,11 @@
       <c r="Z12" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AG12" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AG12" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A13" s="9">
         <v>1</v>
       </c>
@@ -4403,7 +4322,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>46</v>
@@ -4420,11 +4339,11 @@
       <c r="Z13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AG13" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AG13" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A14" s="9">
         <v>1</v>
       </c>
@@ -4432,7 +4351,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>46</v>
@@ -4449,11 +4368,11 @@
       <c r="Z14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AG14" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AG14" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A15" s="9">
         <v>1</v>
       </c>
@@ -4461,10 +4380,9 @@
         <v>12</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I15" s="11"/>
-      <c r="J15" s="25"/>
       <c r="M15" s="10">
         <v>0</v>
       </c>
@@ -4480,14 +4398,17 @@
       <c r="V15" s="8" t="s">
         <v>88</v>
       </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
       <c r="Z15" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AG15" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+      <c r="AG15" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
         <v>1</v>
       </c>
@@ -4495,7 +4416,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>81</v>
@@ -4503,14 +4424,17 @@
       <c r="T16" s="8">
         <v>0</v>
       </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
       <c r="Z16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AG16" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG16" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="9">
         <v>1</v>
       </c>
@@ -4518,7 +4442,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>81</v>
@@ -4526,34 +4450,40 @@
       <c r="T17" s="8">
         <v>0</v>
       </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
       <c r="Z17" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AG17" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG17" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="9">
         <v>1</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
-      <c r="D18" s="27" t="s">
-        <v>100</v>
+      <c r="D18" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="T18" s="8">
         <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
       </c>
       <c r="Z18" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AG18" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AG18" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="11">
         <v>2</v>
       </c>
@@ -4561,7 +4491,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -4594,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="U19" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V19" s="14"/>
       <c r="W19" s="11">
@@ -4605,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA19" s="13">
         <v>0</v>
@@ -4621,249 +4551,163 @@
         <f>HEX2DEC(AD19)</f>
         <v>67</v>
       </c>
-      <c r="AG19" s="35"/>
-      <c r="AH19" s="35"/>
-      <c r="AI19" s="35" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="25">
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+      <c r="AI19" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="26">
+      <c r="B20" s="25">
         <v>17</v>
       </c>
-      <c r="D20" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="28"/>
-      <c r="S20" s="29" t="s">
+      <c r="D20" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="S20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="T20" s="29">
-        <v>0</v>
-      </c>
-      <c r="U20" s="29"/>
-      <c r="V20" s="29"/>
-      <c r="Z20" s="30" t="s">
+      <c r="T20" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="25">
+        <v>18</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="S21" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" s="25">
+        <v>19</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="S22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="25">
+        <v>20</v>
+      </c>
+      <c r="D23" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="T23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AA20" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="30"/>
-      <c r="AC20" s="30"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-    </row>
-    <row r="21" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="25">
+      <c r="AA23" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A24">
         <v>2</v>
       </c>
-      <c r="B21" s="26">
-        <v>18</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="S21" s="29" t="s">
+      <c r="B24" s="25">
+        <v>21</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="S24" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="T21" s="29">
-        <v>0</v>
-      </c>
-      <c r="U21" s="29"/>
-      <c r="V21" s="29"/>
-      <c r="Z21" s="30" t="s">
+      <c r="T24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AA21" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="30"/>
-      <c r="AC21" s="30"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-    </row>
-    <row r="22" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="25">
+      <c r="AA24" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A25">
         <v>2</v>
       </c>
-      <c r="B22" s="26">
-        <v>19</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="28"/>
-      <c r="O22" s="28"/>
-      <c r="S22" s="29" t="s">
+      <c r="B25" s="25">
+        <v>22</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="10">
+        <v>0</v>
+      </c>
+      <c r="S25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="T22" s="29">
-        <v>0</v>
-      </c>
-      <c r="U22" s="29"/>
-      <c r="V22" s="29"/>
-      <c r="Z22" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA22" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AG22" s="36"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="36"/>
-    </row>
-    <row r="23" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="25">
-        <v>2</v>
-      </c>
-      <c r="B23" s="26">
-        <v>20</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="K23" s="28"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28">
-        <v>0</v>
-      </c>
-      <c r="N23" s="28"/>
-      <c r="O23" s="28"/>
-      <c r="S23" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="T23" s="29">
-        <v>0</v>
-      </c>
-      <c r="U23" s="29"/>
-      <c r="V23" s="29"/>
-      <c r="Z23" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA23" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="30">
-        <v>6</v>
-      </c>
-      <c r="AC23" s="30"/>
-      <c r="AG23" s="36"/>
-      <c r="AH23" s="36"/>
-      <c r="AI23" s="36"/>
-    </row>
-    <row r="24" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="25">
-        <v>2</v>
-      </c>
-      <c r="B24" s="26">
-        <v>21</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="28"/>
-      <c r="O24" s="28"/>
-      <c r="S24" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="T24" s="29">
-        <v>0</v>
-      </c>
-      <c r="U24" s="29"/>
-      <c r="V24" s="29"/>
-      <c r="Z24" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA24" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="30"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-    </row>
-    <row r="25" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="25">
-        <v>2</v>
-      </c>
-      <c r="B25" s="26">
-        <v>22</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="K25" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="L25" s="28">
-        <v>0</v>
-      </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="S25" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="T25" s="29">
-        <v>0</v>
-      </c>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
-      <c r="Z25" s="30" t="s">
+      <c r="T25" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AA25" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB25" s="30"/>
-      <c r="AC25" s="30"/>
-      <c r="AG25" s="36"/>
-      <c r="AH25" s="36"/>
-      <c r="AI25" s="36"/>
-    </row>
-    <row r="26" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA25" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="16">
         <v>2</v>
       </c>
@@ -4871,7 +4715,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -4901,11 +4745,11 @@
       </c>
       <c r="AB26" s="18"/>
       <c r="AC26" s="18"/>
-      <c r="AG26" s="37"/>
-      <c r="AH26" s="37"/>
-      <c r="AI26" s="37"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG26" s="30"/>
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="30"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A27" s="9">
         <v>3</v>
       </c>
@@ -4913,22 +4757,21 @@
         <v>24</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>107</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>108</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27">
         <f>HEX2DEC(H27)</f>
         <v>92</v>
       </c>
-      <c r="J27" s="25"/>
       <c r="L27" s="10">
         <v>0</v>
       </c>
@@ -4938,7 +4781,7 @@
       <c r="P27" t="s">
         <v>32</v>
       </c>
-      <c r="Q27" s="25">
+      <c r="Q27">
         <f>HEX2DEC(P27)</f>
         <v>15</v>
       </c>
@@ -4949,12 +4792,12 @@
         <v>0</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
-      <c r="X27" s="25">
+      <c r="X27">
         <f>HEX2DEC(W27)</f>
         <v>0</v>
       </c>
@@ -4977,15 +4820,14 @@
         <f>HEX2DEC(AD27)</f>
         <v>177</v>
       </c>
-      <c r="AF27" s="25"/>
-      <c r="AG27" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AI27" s="34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG27" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI27" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" s="9">
         <v>3</v>
       </c>
@@ -4993,7 +4835,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L28" s="10">
         <v>0</v>
@@ -5010,11 +4852,11 @@
       <c r="AA28" s="7">
         <v>0</v>
       </c>
-      <c r="AG28" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG28" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" s="9">
         <v>3</v>
       </c>
@@ -5022,7 +4864,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L29" s="10">
         <v>0</v>
@@ -5039,11 +4881,11 @@
       <c r="AA29" s="7">
         <v>0</v>
       </c>
-      <c r="AG29" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG29" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" s="9">
         <v>3</v>
       </c>
@@ -5051,7 +4893,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L30" s="10">
         <v>0</v>
@@ -5068,11 +4910,11 @@
       <c r="AA30" s="7">
         <v>0</v>
       </c>
-      <c r="AG30" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG30" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A31" s="9">
         <v>3</v>
       </c>
@@ -5080,7 +4922,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L31" s="10">
         <v>0</v>
@@ -5100,11 +4942,11 @@
       <c r="AA31" s="7">
         <v>1</v>
       </c>
-      <c r="AG31" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG31" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" s="9">
         <v>3</v>
       </c>
@@ -5112,7 +4954,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L32" s="10">
         <v>0</v>
@@ -5129,11 +4971,11 @@
       <c r="AA32" s="7">
         <v>0</v>
       </c>
-      <c r="AG32" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG32" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A33" s="9">
         <v>3</v>
       </c>
@@ -5141,7 +4983,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>49</v>
@@ -5161,19 +5003,19 @@
       <c r="AA33" s="7">
         <v>1</v>
       </c>
-      <c r="AG33" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG33" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A34" s="9">
         <v>3</v>
       </c>
       <c r="B34">
         <v>31</v>
       </c>
-      <c r="D34" s="27" t="s">
-        <v>101</v>
+      <c r="D34" s="22" t="s">
+        <v>100</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>49</v>
@@ -5193,11 +5035,11 @@
       <c r="AA34" s="7">
         <v>1</v>
       </c>
-      <c r="AG34" s="34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AG34" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="11">
         <v>4</v>
       </c>
@@ -5205,14 +5047,14 @@
         <v>32</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="23" t="s">
         <v>110</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>111</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
@@ -5271,280 +5113,205 @@
         <f>HEX2DEC(AD35)</f>
         <v>45</v>
       </c>
-      <c r="AG35" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH35" s="35"/>
-      <c r="AI35" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="25">
+      <c r="AG35" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH35" s="29"/>
+      <c r="AI35" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A36">
         <v>4</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <v>33</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="K36" s="28" t="s">
+      <c r="D36" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K36" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28" t="s">
+      <c r="M36" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="N36" s="28"/>
-      <c r="O36" s="28"/>
-      <c r="S36" s="29" t="s">
+      <c r="S36" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="T36" s="29">
-        <v>0</v>
-      </c>
-      <c r="U36" s="29"/>
-      <c r="V36" s="29"/>
-      <c r="Z36" s="30" t="s">
+      <c r="T36" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA36" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="30"/>
-      <c r="AC36" s="30"/>
-      <c r="AG36" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH36" s="36"/>
-      <c r="AI36" s="36"/>
-    </row>
-    <row r="37" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="25">
+      <c r="AA36" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A37">
         <v>4</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <v>34</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="K37" s="28" t="s">
+      <c r="D37" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28" t="s">
+      <c r="M37" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="N37" s="28"/>
-      <c r="O37" s="28"/>
-      <c r="S37" s="29" t="s">
+      <c r="S37" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="T37" s="29">
-        <v>0</v>
-      </c>
-      <c r="U37" s="29"/>
-      <c r="V37" s="29"/>
-      <c r="Z37" s="30" t="s">
+      <c r="T37" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA37" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB37" s="30"/>
-      <c r="AC37" s="30"/>
-      <c r="AG37" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH37" s="36"/>
-      <c r="AI37" s="36"/>
-    </row>
-    <row r="38" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="25">
+      <c r="AA37" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A38">
         <v>4</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <v>35</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="K38" s="28" t="s">
+      <c r="D38" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28" t="s">
+      <c r="M38" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="N38" s="28"/>
-      <c r="O38" s="28"/>
-      <c r="S38" s="29" t="s">
+      <c r="S38" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="T38" s="29">
-        <v>0</v>
-      </c>
-      <c r="U38" s="29"/>
-      <c r="V38" s="29"/>
-      <c r="Z38" s="30" t="s">
+      <c r="T38" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA38" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB38" s="30"/>
-      <c r="AC38" s="30"/>
-      <c r="AG38" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH38" s="36"/>
-      <c r="AI38" s="36"/>
-    </row>
-    <row r="39" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="25">
+      <c r="AA38" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A39">
         <v>4</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <v>36</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="K39" s="28" t="s">
+      <c r="D39" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="25" t="s">
+      <c r="P39" t="s">
         <v>27</v>
       </c>
       <c r="Q39" s="11">
         <f>HEX2DEC(P39)</f>
         <v>12</v>
       </c>
-      <c r="S39" s="29" t="s">
+      <c r="S39" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="T39" s="29">
-        <v>0</v>
-      </c>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="Z39" s="30" t="s">
+      <c r="T39" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA39" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="30"/>
-      <c r="AC39" s="30"/>
-      <c r="AG39" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH39" s="36"/>
-      <c r="AI39" s="36"/>
-    </row>
-    <row r="40" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="25">
+      <c r="AA39" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A40">
         <v>4</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <v>37</v>
       </c>
-      <c r="D40" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="K40" s="28" t="s">
+      <c r="D40" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L40" s="28"/>
-      <c r="M40" s="28"/>
-      <c r="N40" s="28"/>
-      <c r="O40" s="28"/>
-      <c r="S40" s="29" t="s">
+      <c r="S40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="T40" s="29">
-        <v>0</v>
-      </c>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="Z40" s="30" t="s">
+      <c r="T40" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA40" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="30"/>
-      <c r="AC40" s="30"/>
-      <c r="AG40" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH40" s="36"/>
-      <c r="AI40" s="36"/>
-    </row>
-    <row r="41" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="25">
+      <c r="AA40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A41">
         <v>4</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <v>38</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="K41" s="28" t="s">
+      <c r="D41" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K41" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
-      <c r="O41" s="28"/>
-      <c r="S41" s="29" t="s">
+      <c r="S41" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="T41" s="29">
-        <v>0</v>
-      </c>
-      <c r="U41" s="29"/>
-      <c r="V41" s="29"/>
-      <c r="Z41" s="30" t="s">
+      <c r="T41" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA41" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB41" s="30"/>
-      <c r="AC41" s="30"/>
-      <c r="AG41" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH41" s="36"/>
-      <c r="AI41" s="36"/>
-    </row>
-    <row r="42" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA41" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG41" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="16">
         <v>4</v>
       </c>
@@ -5552,7 +5319,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -5580,25 +5347,25 @@
       </c>
       <c r="AB42" s="18"/>
       <c r="AC42" s="18"/>
-      <c r="AG42" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37"/>
-    </row>
-    <row r="43" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="31">
+      <c r="AG42" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+    </row>
+    <row r="43" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="26">
         <v>5</v>
       </c>
       <c r="B43" s="11">
         <v>40</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="11">
@@ -5620,7 +5387,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V43" s="14"/>
       <c r="W43" s="11">
@@ -5649,249 +5416,159 @@
         <f>HEX2DEC(AD43)</f>
         <v>182</v>
       </c>
-      <c r="AG43" s="35"/>
-      <c r="AH43" s="35"/>
-      <c r="AI43" s="35" t="s">
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="32">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A44" s="9">
         <v>5</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44">
         <v>41</v>
       </c>
-      <c r="D44" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="K44" s="28"/>
-      <c r="L44" s="28"/>
-      <c r="M44" s="28"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="28"/>
-      <c r="S44" s="29" t="s">
+      <c r="D44" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="S44" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="T44" s="29">
-        <v>0</v>
-      </c>
-      <c r="U44" s="29"/>
-      <c r="V44" s="29"/>
-      <c r="Z44" s="30" t="s">
+      <c r="T44" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA44" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="30"/>
-      <c r="AC44" s="30"/>
-      <c r="AG44" s="36"/>
-      <c r="AH44" s="36"/>
-      <c r="AI44" s="36"/>
-    </row>
-    <row r="45" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="32">
+      <c r="AA44" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A45" s="9">
         <v>5</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45">
         <v>42</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="K45" s="28"/>
-      <c r="L45" s="28"/>
-      <c r="M45" s="28"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="28"/>
-      <c r="S45" s="29" t="s">
+      <c r="D45" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="S45" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="T45" s="29">
-        <v>0</v>
-      </c>
-      <c r="U45" s="29"/>
-      <c r="V45" s="29"/>
-      <c r="Z45" s="30" t="s">
+      <c r="T45" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA45" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="30"/>
-      <c r="AC45" s="30"/>
-      <c r="AG45" s="36"/>
-      <c r="AH45" s="36"/>
-      <c r="AI45" s="36"/>
-    </row>
-    <row r="46" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="32">
+      <c r="AA45" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A46" s="9">
         <v>5</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46">
         <v>43</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="K46" s="28"/>
-      <c r="L46" s="28"/>
-      <c r="M46" s="28"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="28"/>
-      <c r="S46" s="29" t="s">
+      <c r="D46" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="S46" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="T46" s="29">
-        <v>0</v>
-      </c>
-      <c r="U46" s="29"/>
-      <c r="V46" s="29"/>
-      <c r="Z46" s="30" t="s">
+      <c r="T46" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA46" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="30"/>
-      <c r="AC46" s="30"/>
-      <c r="AG46" s="36"/>
-      <c r="AH46" s="36"/>
-      <c r="AI46" s="36"/>
-    </row>
-    <row r="47" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="32">
+      <c r="AA46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A47" s="9">
         <v>5</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47">
         <v>44</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="27"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="28"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="28"/>
-      <c r="O47" s="28"/>
-      <c r="S47" s="29" t="s">
+      <c r="D47" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="S47" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="T47" s="29">
-        <v>0</v>
-      </c>
-      <c r="U47" s="29"/>
-      <c r="V47" s="29"/>
-      <c r="Z47" s="30" t="s">
+      <c r="T47" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA47" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="30"/>
-      <c r="AC47" s="30"/>
-      <c r="AG47" s="36"/>
-      <c r="AH47" s="36"/>
-      <c r="AI47" s="36"/>
-    </row>
-    <row r="48" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="32">
+      <c r="AA47" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A48" s="9">
         <v>5</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48">
         <v>45</v>
       </c>
-      <c r="D48" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="28"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="28"/>
-      <c r="O48" s="28"/>
-      <c r="S48" s="29" t="s">
+      <c r="D48" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="S48" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="T48" s="29">
-        <v>0</v>
-      </c>
-      <c r="U48" s="29"/>
-      <c r="V48" s="29"/>
-      <c r="Z48" s="30" t="s">
+      <c r="T48" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA48" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB48" s="30"/>
-      <c r="AC48" s="30"/>
-      <c r="AG48" s="36"/>
-      <c r="AH48" s="36"/>
-      <c r="AI48" s="36"/>
-    </row>
-    <row r="49" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="32">
+      <c r="AA48" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A49" s="9">
         <v>5</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49">
         <v>46</v>
       </c>
-      <c r="D49" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="K49" s="28"/>
-      <c r="L49" s="28"/>
-      <c r="M49" s="28"/>
-      <c r="N49" s="28"/>
-      <c r="O49" s="28"/>
-      <c r="S49" s="29" t="s">
+      <c r="D49" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="S49" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="T49" s="29">
-        <v>0</v>
-      </c>
-      <c r="U49" s="29"/>
-      <c r="V49" s="29"/>
-      <c r="Z49" s="30" t="s">
+      <c r="T49" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AA49" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="30"/>
-      <c r="AC49" s="30"/>
-      <c r="AG49" s="36"/>
-      <c r="AH49" s="36"/>
-      <c r="AI49" s="36"/>
-    </row>
-    <row r="50" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="33">
+      <c r="AA49" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A50" s="27">
         <v>5</v>
       </c>
       <c r="B50" s="16">
         <v>47</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -5917,11 +5594,11 @@
       </c>
       <c r="AB50" s="18"/>
       <c r="AC50" s="18"/>
-      <c r="AG50" s="37"/>
-      <c r="AH50" s="37"/>
-      <c r="AI50" s="37"/>
-    </row>
-    <row r="51" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="30"/>
+      <c r="AI50" s="30"/>
+    </row>
+    <row r="51" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="11">
         <v>6</v>
       </c>
@@ -5929,7 +5606,7 @@
         <v>48</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51" s="23">
         <v>0</v>
@@ -5966,7 +5643,7 @@
         <v>88</v>
       </c>
       <c r="Z51" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA51" s="13">
         <v>1</v>
@@ -5984,247 +5661,160 @@
         <f>HEX2DEC(AD51)</f>
         <v>204</v>
       </c>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35"/>
-      <c r="AI51" s="35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="25">
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A52">
         <v>6</v>
       </c>
-      <c r="B52" s="26">
+      <c r="B52" s="25">
         <v>49</v>
       </c>
-      <c r="D52" s="27" t="s">
+      <c r="D52" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="22">
+        <v>0</v>
+      </c>
+      <c r="S52" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T52" s="8">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA52" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53" s="25">
+        <v>50</v>
+      </c>
+      <c r="D53" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="27">
-        <v>0</v>
-      </c>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="28"/>
-      <c r="M52" s="28"/>
-      <c r="N52" s="28"/>
-      <c r="O52" s="28"/>
-      <c r="S52" s="29" t="s">
+      <c r="E53" s="22">
+        <v>1</v>
+      </c>
+      <c r="S53" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="T52" s="29">
-        <v>0</v>
-      </c>
-      <c r="U52" s="29"/>
-      <c r="V52" s="29"/>
-      <c r="Z52" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA52" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="30"/>
-      <c r="AC52" s="30"/>
-      <c r="AG52" s="36"/>
-      <c r="AH52" s="36"/>
-      <c r="AI52" s="36"/>
-    </row>
-    <row r="53" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="25">
+      <c r="T53" s="8">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A54">
         <v>6</v>
       </c>
-      <c r="B53" s="26">
-        <v>50</v>
-      </c>
-      <c r="D53" s="27" t="s">
+      <c r="B54" s="25">
+        <v>51</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0</v>
+      </c>
+      <c r="S54" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="T54" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA54" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>6</v>
+      </c>
+      <c r="B55" s="25">
+        <v>52</v>
+      </c>
+      <c r="D55" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E53" s="27">
-        <v>1</v>
-      </c>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="28"/>
-      <c r="N53" s="28"/>
-      <c r="O53" s="28"/>
-      <c r="S53" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="T53" s="29">
-        <v>0</v>
-      </c>
-      <c r="U53" s="29"/>
-      <c r="V53" s="29"/>
-      <c r="Z53" s="30"/>
-      <c r="AA53" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB53" s="30"/>
-      <c r="AC53" s="30"/>
-      <c r="AG53" s="36"/>
-      <c r="AH53" s="36"/>
-      <c r="AI53" s="36"/>
-    </row>
-    <row r="54" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="25">
+      <c r="E55" s="22">
+        <v>1</v>
+      </c>
+      <c r="S55" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U55" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z55" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A56">
         <v>6</v>
       </c>
-      <c r="B54" s="26">
-        <v>51</v>
-      </c>
-      <c r="D54" s="27" t="s">
+      <c r="B56" s="25">
+        <v>53</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="E54" s="27">
-        <v>0</v>
-      </c>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="K54" s="28"/>
-      <c r="L54" s="28"/>
-      <c r="M54" s="28"/>
-      <c r="N54" s="28"/>
-      <c r="O54" s="28"/>
-      <c r="S54" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="T54" s="29">
-        <v>1</v>
-      </c>
-      <c r="U54" s="29"/>
-      <c r="V54" s="29"/>
-      <c r="Z54" s="30"/>
-      <c r="AA54" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB54" s="30"/>
-      <c r="AC54" s="30"/>
-      <c r="AG54" s="36"/>
-      <c r="AH54" s="36"/>
-      <c r="AI54" s="36"/>
-    </row>
-    <row r="55" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="25">
+      <c r="E56" s="22">
+        <v>0</v>
+      </c>
+      <c r="S56" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="U56" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA56" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A57">
         <v>6</v>
       </c>
-      <c r="B55" s="26">
-        <v>52</v>
-      </c>
-      <c r="D55" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="27">
-        <v>1</v>
-      </c>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="S55" s="29" t="s">
+      <c r="B57" s="25">
+        <v>54</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" s="22">
+        <v>0</v>
+      </c>
+      <c r="S57" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="T55" s="29"/>
-      <c r="U55" s="29" t="s">
+      <c r="U57" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="V55" s="29"/>
-      <c r="Z55" s="30">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="30">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="30"/>
-      <c r="AG55" s="36"/>
-      <c r="AH55" s="36"/>
-      <c r="AI55" s="36"/>
-    </row>
-    <row r="56" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="25">
-        <v>6</v>
-      </c>
-      <c r="B56" s="26">
-        <v>53</v>
-      </c>
-      <c r="D56" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E56" s="27">
-        <v>0</v>
-      </c>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="S56" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="T56" s="29"/>
-      <c r="U56" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="V56" s="29"/>
-      <c r="Z56" s="30"/>
-      <c r="AA56" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="30"/>
-      <c r="AC56" s="30"/>
-      <c r="AG56" s="36"/>
-      <c r="AH56" s="36"/>
-      <c r="AI56" s="36"/>
-    </row>
-    <row r="57" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="25">
-        <v>6</v>
-      </c>
-      <c r="B57" s="26">
-        <v>54</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="27">
-        <v>0</v>
-      </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="K57" s="28"/>
-      <c r="L57" s="28"/>
-      <c r="M57" s="28"/>
-      <c r="N57" s="28"/>
-      <c r="O57" s="28"/>
-      <c r="S57" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="V57" s="29"/>
-      <c r="Z57" s="30"/>
-      <c r="AA57" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="30"/>
-      <c r="AC57" s="30"/>
-      <c r="AG57" s="36"/>
-      <c r="AH57" s="36"/>
-      <c r="AI57" s="36"/>
-    </row>
-    <row r="58" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="AA57" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="16">
         <v>6</v>
       </c>
@@ -6232,7 +5822,7 @@
         <v>55</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E58" s="24">
         <v>1</v>
@@ -6258,19 +5848,19 @@
       </c>
       <c r="AB58" s="18"/>
       <c r="AC58" s="18"/>
-      <c r="AG58" s="37"/>
-      <c r="AH58" s="37"/>
-      <c r="AI58" s="37"/>
-    </row>
-    <row r="59" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="31">
+      <c r="AG58" s="30"/>
+      <c r="AH58" s="30"/>
+      <c r="AI58" s="30"/>
+    </row>
+    <row r="59" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="26">
         <v>7</v>
       </c>
       <c r="B59" s="11">
         <v>56</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
@@ -6301,7 +5891,7 @@
         <v>250</v>
       </c>
       <c r="Z59" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA59" s="13">
         <v>1</v>
@@ -6319,235 +5909,139 @@
         <f>HEX2DEC(AD59)</f>
         <v>166</v>
       </c>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="35"/>
-    </row>
-    <row r="60" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="32">
+      <c r="AG59" s="29"/>
+      <c r="AH59" s="29"/>
+      <c r="AI59" s="29"/>
+    </row>
+    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A60" s="9">
         <v>7</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60">
         <v>57</v>
       </c>
-      <c r="D60" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="28"/>
-      <c r="M60" s="28"/>
-      <c r="N60" s="28"/>
-      <c r="O60" s="28"/>
-      <c r="S60" s="29" t="s">
+      <c r="D60" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S60" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-      <c r="V60" s="29"/>
-      <c r="Z60" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA60" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="30"/>
-      <c r="AC60" s="30"/>
-      <c r="AG60" s="36"/>
-      <c r="AH60" s="36"/>
-      <c r="AI60" s="36"/>
-    </row>
-    <row r="61" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="32">
+      <c r="Z60" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA60" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A61" s="9">
         <v>7</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61">
         <v>58</v>
       </c>
-      <c r="D61" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="K61" s="28"/>
-      <c r="L61" s="28"/>
-      <c r="M61" s="28"/>
-      <c r="N61" s="28"/>
-      <c r="O61" s="28"/>
-      <c r="S61" s="29" t="s">
+      <c r="D61" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S61" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-      <c r="V61" s="29"/>
-      <c r="Z61" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA61" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="30"/>
-      <c r="AC61" s="30"/>
-      <c r="AG61" s="36"/>
-      <c r="AH61" s="36"/>
-      <c r="AI61" s="36"/>
-    </row>
-    <row r="62" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="32">
+      <c r="Z61" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA61" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A62" s="9">
         <v>7</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62">
         <v>59</v>
       </c>
-      <c r="D62" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="K62" s="28"/>
-      <c r="L62" s="28"/>
-      <c r="M62" s="28"/>
-      <c r="N62" s="28"/>
-      <c r="O62" s="28"/>
-      <c r="S62" s="29" t="s">
+      <c r="D62" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S62" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-      <c r="V62" s="29"/>
-      <c r="Z62" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA62" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="30"/>
-      <c r="AC62" s="30"/>
-      <c r="AG62" s="36"/>
-      <c r="AH62" s="36"/>
-      <c r="AI62" s="36"/>
-    </row>
-    <row r="63" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="32">
+      <c r="Z62" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA62" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A63" s="9">
         <v>7</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63">
         <v>60</v>
       </c>
-      <c r="D63" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="K63" s="28"/>
-      <c r="L63" s="28"/>
-      <c r="M63" s="28"/>
-      <c r="N63" s="28"/>
-      <c r="O63" s="28"/>
-      <c r="S63" s="29" t="s">
+      <c r="D63" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S63" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-      <c r="V63" s="29"/>
-      <c r="Z63" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA63" s="30">
-        <v>1</v>
-      </c>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AG63" s="36"/>
-      <c r="AH63" s="36"/>
-      <c r="AI63" s="36"/>
-    </row>
-    <row r="64" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="32">
+      <c r="Z63" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA63" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A64" s="9">
         <v>7</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64">
         <v>61</v>
       </c>
-      <c r="D64" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="S64" s="29" t="s">
+      <c r="D64" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S64" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-      <c r="V64" s="29"/>
-      <c r="Z64" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA64" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="30"/>
-      <c r="AC64" s="30"/>
-      <c r="AG64" s="36"/>
-      <c r="AH64" s="36"/>
-      <c r="AI64" s="36"/>
-    </row>
-    <row r="65" spans="1:35" s="25" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="32">
+      <c r="Z64" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA64" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A65" s="9">
         <v>7</v>
       </c>
-      <c r="B65" s="25">
+      <c r="B65">
         <v>62</v>
       </c>
-      <c r="D65" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="K65" s="28"/>
-      <c r="L65" s="28"/>
-      <c r="M65" s="28"/>
-      <c r="N65" s="28"/>
-      <c r="O65" s="28"/>
-      <c r="S65" s="29" t="s">
+      <c r="D65" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="S65" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-      <c r="V65" s="29"/>
-      <c r="Z65" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA65" s="30">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="30"/>
-      <c r="AC65" s="30"/>
-      <c r="AG65" s="36"/>
-      <c r="AH65" s="36"/>
-      <c r="AI65" s="36"/>
-    </row>
-    <row r="66" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="33">
+      <c r="Z65" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA65" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="27">
         <v>7</v>
       </c>
       <c r="B66" s="16">
         <v>63</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
@@ -6564,18 +6058,18 @@
       <c r="U66" s="19"/>
       <c r="V66" s="19"/>
       <c r="Z66" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA66" s="18">
         <v>1</v>
       </c>
       <c r="AB66" s="18"/>
       <c r="AC66" s="18"/>
-      <c r="AG66" s="37"/>
-      <c r="AH66" s="37"/>
-      <c r="AI66" s="37"/>
-    </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="AG66" s="30"/>
+      <c r="AH66" s="30"/>
+      <c r="AI66" s="30"/>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I68">
         <f>SUM(I11:I66)</f>
         <v>336</v>
@@ -6597,7 +6091,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I69">
         <f>I68-(255-I1)</f>
         <v>251</v>
@@ -6615,7 +6109,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I71" s="1">
         <f>I69-I3</f>
         <v>0</v>
@@ -6629,7 +6123,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I72">
         <f>I68-I69</f>
         <v>85</v>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF863088-FB96-4C06-A7D8-5E9BA51B6979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA970BA0-005E-450D-BF87-D5B00935B39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1718" yWindow="255" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="133">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -314,9 +314,6 @@
     <t>0x00</t>
   </si>
   <si>
-    <t>0x08</t>
-  </si>
-  <si>
     <t>0x5E</t>
   </si>
   <si>
@@ -431,7 +428,13 @@
     <t>f1</t>
   </si>
   <si>
-    <t>0x10</t>
+    <t>0x90</t>
+  </si>
+  <si>
+    <t>0x11</t>
+  </si>
+  <si>
+    <t>0x0</t>
   </si>
 </sst>
 </file>
@@ -873,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -969,7 +972,7 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1046,7 +1049,7 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="21">
         <v>1</v>
@@ -1756,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>200</v>
+        <v>144</v>
       </c>
       <c r="D27">
         <v>200</v>
@@ -1821,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>16</v>
@@ -1942,7 +1945,7 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>8</v>
@@ -2001,7 +2004,7 @@
         <v>4</v>
       </c>
       <c r="C31">
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="D31">
         <v>128</v>
@@ -2120,7 +2123,7 @@
       </c>
       <c r="B33" s="21"/>
       <c r="C33">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D33">
         <v>8</v>
@@ -2182,8 +2185,8 @@
         <v>7</v>
       </c>
       <c r="C34" s="1">
-        <f>C38-256</f>
-        <v>10</v>
+        <f>C38</f>
+        <v>67</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" ref="D34:Q34" si="4">D38-256</f>
@@ -2257,7 +2260,7 @@
       </c>
       <c r="C36">
         <f>SUM(C27:C33)+C25</f>
-        <v>360</v>
+        <v>161</v>
       </c>
       <c r="D36">
         <f t="shared" ref="D36:Q36" si="5">SUM(D27:D33)+D25</f>
@@ -2343,7 +2346,7 @@
       </c>
       <c r="C38" s="5">
         <f>C36-$T$37</f>
-        <v>266</v>
+        <v>67</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" ref="D38:Q38" si="6">D36-$T$37</f>
@@ -2402,13 +2405,13 @@
         <v>490</v>
       </c>
       <c r="T38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C39" t="str">
         <f>DEC2HEX(C38)</f>
-        <v>10A</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
@@ -3142,7 +3145,7 @@
         <v>94</v>
       </c>
       <c r="T65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.45">
@@ -3573,7 +3576,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77">
         <f t="shared" ref="C77:Q77" si="12">SUM(C69:C73)</f>
@@ -3721,7 +3724,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C80" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.45">
@@ -3807,7 +3810,7 @@
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U30" sqref="U30"/>
+      <selection pane="bottomLeft" activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3850,7 +3853,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I1" s="11">
         <f>HEX2DEC(H1)</f>
@@ -3870,7 +3873,7 @@
         <v>6</v>
       </c>
       <c r="W1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="X1" s="11">
         <f>HEX2DEC(W1)</f>
@@ -3880,32 +3883,32 @@
         <v>54</v>
       </c>
       <c r="AD1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE1" s="11">
         <f>HEX2DEC(AD1)</f>
         <v>464</v>
       </c>
       <c r="AG1" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AJ1" s="28"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="D2" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="S2" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="Z2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="Z2" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="AG2" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -3919,7 +3922,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" s="23"/>
       <c r="F3" s="23"/>
@@ -3956,15 +3959,15 @@
         <v>0</v>
       </c>
       <c r="U3" s="14" t="s">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="V3" s="14"/>
       <c r="W3" s="11">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="X3" s="11">
         <f>HEX2DEC(W3)</f>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="Z3" s="13" t="s">
         <v>62</v>
@@ -3984,11 +3987,11 @@
         <v>124</v>
       </c>
       <c r="AG3" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH3" s="29"/>
       <c r="AI3" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.45">
@@ -3999,7 +4002,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>42</v>
@@ -4017,7 +4020,7 @@
         <v>62</v>
       </c>
       <c r="AG4" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.45">
@@ -4028,7 +4031,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>43</v>
@@ -4046,7 +4049,7 @@
         <v>62</v>
       </c>
       <c r="AG5" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.45">
@@ -4057,7 +4060,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>43</v>
@@ -4069,13 +4072,13 @@
         <v>80</v>
       </c>
       <c r="T6" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="7" t="s">
         <v>62</v>
       </c>
       <c r="AG6" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.45">
@@ -4086,7 +4089,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K7" s="10" t="s">
         <v>44</v>
@@ -4101,13 +4104,13 @@
         <v>80</v>
       </c>
       <c r="T7" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="7" t="s">
         <v>62</v>
       </c>
       <c r="AG7" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.45">
@@ -4118,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K8" s="10" t="s">
         <v>44</v>
@@ -4136,7 +4139,7 @@
         <v>62</v>
       </c>
       <c r="AG8" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.45">
@@ -4147,7 +4150,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>45</v>
@@ -4159,13 +4162,13 @@
         <v>80</v>
       </c>
       <c r="T9" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="7" t="s">
         <v>62</v>
       </c>
       <c r="AG9" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.45">
@@ -4179,7 +4182,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
@@ -4208,7 +4211,7 @@
       <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
       <c r="AG10" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AH10" s="30"/>
       <c r="AI10" s="30"/>
@@ -4221,7 +4224,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11">
         <v>46</v>
@@ -4250,17 +4253,17 @@
         <v>80</v>
       </c>
       <c r="T11" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" s="8" t="s">
         <v>131</v>
       </c>
       <c r="W11">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="X11">
         <f>HEX2DEC(W11)</f>
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="Z11" s="7" t="s">
         <v>63</v>
@@ -4279,7 +4282,7 @@
         <v>255</v>
       </c>
       <c r="AG11" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AI11" s="28">
         <v>2</v>
@@ -4293,7 +4296,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>46</v>
@@ -4311,7 +4314,7 @@
         <v>63</v>
       </c>
       <c r="AG12" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.45">
@@ -4322,7 +4325,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K13" s="10" t="s">
         <v>46</v>
@@ -4340,7 +4343,7 @@
         <v>63</v>
       </c>
       <c r="AG13" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.45">
@@ -4351,7 +4354,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>46</v>
@@ -4369,7 +4372,7 @@
         <v>63</v>
       </c>
       <c r="AG14" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.45">
@@ -4380,7 +4383,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I15" s="11"/>
       <c r="M15" s="10">
@@ -4405,7 +4408,7 @@
         <v>63</v>
       </c>
       <c r="AG15" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.45">
@@ -4416,7 +4419,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S16" s="8" t="s">
         <v>81</v>
@@ -4431,7 +4434,7 @@
         <v>63</v>
       </c>
       <c r="AG16" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.45">
@@ -4442,7 +4445,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S17" s="8" t="s">
         <v>81</v>
@@ -4457,7 +4460,7 @@
         <v>63</v>
       </c>
       <c r="AG17" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.45">
@@ -4468,7 +4471,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T18" s="8">
         <v>0</v>
@@ -4480,7 +4483,7 @@
         <v>63</v>
       </c>
       <c r="AG18" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -4491,7 +4494,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="23"/>
       <c r="F19" s="23"/>
@@ -4535,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA19" s="13">
         <v>0</v>
@@ -4554,7 +4557,7 @@
       <c r="AG19" s="29"/>
       <c r="AH19" s="29"/>
       <c r="AI19" s="29" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.45">
@@ -4565,7 +4568,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S20" s="8" t="s">
         <v>82</v>
@@ -4574,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="Z20" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA20" s="7">
         <v>0</v>
@@ -4588,7 +4591,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S21" s="8" t="s">
         <v>82</v>
@@ -4597,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="Z21" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA21" s="7">
         <v>0</v>
@@ -4611,7 +4614,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S22" s="8" t="s">
         <v>82</v>
@@ -4620,7 +4623,7 @@
         <v>0</v>
       </c>
       <c r="Z22" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AA22" s="7">
         <v>0</v>
@@ -4634,7 +4637,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M23" s="10">
         <v>0</v>
@@ -4646,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="Z23" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA23" s="7">
         <v>0</v>
@@ -4663,7 +4666,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S24" s="8" t="s">
         <v>82</v>
@@ -4672,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="Z24" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AA24" s="7">
         <v>1</v>
@@ -4686,7 +4689,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>47</v>
@@ -4715,7 +4718,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
@@ -4757,13 +4760,13 @@
         <v>24</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F27" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>106</v>
-      </c>
-      <c r="G27" s="22" t="s">
-        <v>107</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
@@ -4792,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="U27" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -4821,7 +4824,7 @@
         <v>177</v>
       </c>
       <c r="AG27" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI27" s="28">
         <v>0</v>
@@ -4835,7 +4838,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L28" s="10">
         <v>0</v>
@@ -4853,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="AG28" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.45">
@@ -4864,7 +4867,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L29" s="10">
         <v>0</v>
@@ -4882,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="AG29" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.45">
@@ -4893,7 +4896,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L30" s="10">
         <v>0</v>
@@ -4902,7 +4905,7 @@
         <v>82</v>
       </c>
       <c r="T30" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="7" t="s">
         <v>64</v>
@@ -4911,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="AG30" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.45">
@@ -4922,7 +4925,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L31" s="10">
         <v>0</v>
@@ -4943,7 +4946,7 @@
         <v>1</v>
       </c>
       <c r="AG31" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.45">
@@ -4954,7 +4957,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L32" s="10">
         <v>0</v>
@@ -4972,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="AG32" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.45">
@@ -4983,7 +4986,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>49</v>
@@ -5004,7 +5007,7 @@
         <v>1</v>
       </c>
       <c r="AG33" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.45">
@@ -5015,7 +5018,7 @@
         <v>31</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>49</v>
@@ -5036,7 +5039,7 @@
         <v>1</v>
       </c>
       <c r="AG34" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
@@ -5047,14 +5050,14 @@
         <v>32</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E35" s="23"/>
       <c r="F35" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="23" t="s">
         <v>109</v>
-      </c>
-      <c r="G35" s="23" t="s">
-        <v>110</v>
       </c>
       <c r="H35" s="11">
         <v>0</v>
@@ -5086,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="U35" s="14" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="V35" s="14"/>
       <c r="W35" s="11">
@@ -5114,7 +5117,7 @@
         <v>45</v>
       </c>
       <c r="AG35" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH35" s="29"/>
       <c r="AI35" s="29">
@@ -5129,7 +5132,7 @@
         <v>33</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>50</v>
@@ -5150,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="AG36" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.45">
@@ -5161,7 +5164,7 @@
         <v>34</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>50</v>
@@ -5182,7 +5185,7 @@
         <v>1</v>
       </c>
       <c r="AG37" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.45">
@@ -5193,7 +5196,7 @@
         <v>35</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>50</v>
@@ -5214,7 +5217,7 @@
         <v>1</v>
       </c>
       <c r="AG38" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.45">
@@ -5225,7 +5228,7 @@
         <v>36</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>51</v>
@@ -5250,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="AG39" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.45">
@@ -5261,7 +5264,7 @@
         <v>37</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>51</v>
@@ -5279,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="AG40" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.45">
@@ -5290,7 +5293,7 @@
         <v>38</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>51</v>
@@ -5308,7 +5311,7 @@
         <v>1</v>
       </c>
       <c r="AG41" s="28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:35" s="16" customFormat="1" x14ac:dyDescent="0.45">
@@ -5319,7 +5322,7 @@
         <v>39</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E42" s="24"/>
       <c r="F42" s="24"/>
@@ -5335,7 +5338,7 @@
         <v>83</v>
       </c>
       <c r="T42" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42" s="19"/>
       <c r="V42" s="19"/>
@@ -5348,7 +5351,7 @@
       <c r="AB42" s="18"/>
       <c r="AC42" s="18"/>
       <c r="AG42" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH42" s="30"/>
       <c r="AI42" s="30"/>
@@ -5361,11 +5364,11 @@
         <v>40</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="23"/>
       <c r="F43" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G43" s="23"/>
       <c r="H43" s="11">
@@ -5430,7 +5433,7 @@
         <v>41</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S44" s="8" t="s">
         <v>84</v>
@@ -5453,7 +5456,7 @@
         <v>42</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S45" s="8" t="s">
         <v>84</v>
@@ -5476,7 +5479,7 @@
         <v>43</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S46" s="8" t="s">
         <v>84</v>
@@ -5499,7 +5502,7 @@
         <v>44</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S47" s="8" t="s">
         <v>84</v>
@@ -5522,7 +5525,7 @@
         <v>45</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S48" s="8" t="s">
         <v>84</v>
@@ -5545,7 +5548,7 @@
         <v>46</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S49" s="8" t="s">
         <v>84</v>
@@ -5568,7 +5571,7 @@
         <v>47</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="24"/>
@@ -5606,7 +5609,7 @@
         <v>48</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="23">
         <v>0</v>
@@ -5632,7 +5635,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="14">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V51" s="14"/>
       <c r="W51" s="11">
@@ -5643,7 +5646,7 @@
         <v>88</v>
       </c>
       <c r="Z51" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA51" s="13">
         <v>1</v>
@@ -5664,7 +5667,7 @@
       <c r="AG51" s="29"/>
       <c r="AH51" s="29"/>
       <c r="AI51" s="29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.45">
@@ -5675,7 +5678,7 @@
         <v>49</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E52" s="22">
         <v>0</v>
@@ -5687,7 +5690,7 @@
         <v>0</v>
       </c>
       <c r="Z52" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA52" s="7">
         <v>0</v>
@@ -5701,7 +5704,7 @@
         <v>50</v>
       </c>
       <c r="D53" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E53" s="22">
         <v>1</v>
@@ -5724,7 +5727,7 @@
         <v>51</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E54" s="22">
         <v>0</v>
@@ -5733,7 +5736,7 @@
         <v>84</v>
       </c>
       <c r="T54" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="7">
         <v>1</v>
@@ -5747,7 +5750,7 @@
         <v>52</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E55" s="22">
         <v>1</v>
@@ -5776,7 +5779,7 @@
         <v>53</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E56" s="22">
         <v>0</v>
@@ -5799,7 +5802,7 @@
         <v>54</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E57" s="22">
         <v>0</v>
@@ -5822,7 +5825,7 @@
         <v>55</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E58" s="24">
         <v>1</v>
@@ -5860,7 +5863,7 @@
         <v>56</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
@@ -5891,7 +5894,7 @@
         <v>250</v>
       </c>
       <c r="Z59" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA59" s="13">
         <v>1</v>
@@ -5921,13 +5924,13 @@
         <v>57</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S60" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Z60" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA60" s="7">
         <v>0</v>
@@ -5941,13 +5944,13 @@
         <v>58</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S61" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Z61" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA61" s="7">
         <v>0</v>
@@ -5961,13 +5964,13 @@
         <v>59</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S62" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Z62" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA62" s="7">
         <v>0</v>
@@ -5981,13 +5984,13 @@
         <v>60</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S63" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Z63" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA63" s="7">
         <v>1</v>
@@ -6001,13 +6004,13 @@
         <v>61</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S64" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Z64" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA64" s="7">
         <v>0</v>
@@ -6021,13 +6024,13 @@
         <v>62</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S65" s="8" t="s">
         <v>86</v>
       </c>
       <c r="Z65" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA65" s="7">
         <v>0</v>
@@ -6041,7 +6044,7 @@
         <v>63</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" s="24"/>
       <c r="F66" s="24"/>
@@ -6058,7 +6061,7 @@
       <c r="U66" s="19"/>
       <c r="V66" s="19"/>
       <c r="Z66" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA66" s="18">
         <v>1</v>
@@ -6084,7 +6087,7 @@
       </c>
       <c r="X68">
         <f>SUM(X3:X58)</f>
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="AE68">
         <f>SUM(AE3:AE66)</f>
@@ -6106,7 +6109,7 @@
       </c>
       <c r="X69">
         <f>X68-(255-X1)</f>
-        <v>505</v>
+        <v>538</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.45">
@@ -6120,7 +6123,7 @@
       </c>
       <c r="X71" s="1">
         <f>X69-X3</f>
-        <v>505</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.45">

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DE40973-CBE7-421B-AF1D-A9BDB563B8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC0D07-8506-43D3-8E96-F8C2A9C4CD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51" yWindow="137" windowWidth="20786" windowHeight="18154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="746" yWindow="51" windowWidth="20785" windowHeight="18155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="130">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -411,6 +411,21 @@
   </si>
   <si>
     <t>A6</t>
+  </si>
+  <si>
+    <t>sum/ctr</t>
+  </si>
+  <si>
+    <t>12/1</t>
+  </si>
+  <si>
+    <t>5/8</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>offset_b</t>
   </si>
 </sst>
 </file>
@@ -512,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -541,6 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,16 +837,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:K39"/>
+  <dimension ref="A2:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="7.3828125" customWidth="1"/>
-    <col min="3" max="10" width="4.921875" customWidth="1"/>
+    <col min="3" max="3" width="6.3828125" customWidth="1"/>
+    <col min="4" max="10" width="4.921875" customWidth="1"/>
+    <col min="14" max="14" width="10.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
@@ -867,28 +885,33 @@
         <f>HEX2DEC(A7)</f>
         <v>170</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
       <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>3</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>5</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>6</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>7</v>
       </c>
     </row>
@@ -961,6 +984,19 @@
         <v>336</v>
       </c>
     </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="1">
+        <f>C11-D8</f>
+        <v>245</v>
+      </c>
+      <c r="K12" t="str">
+        <f>DEC2HEX(C12)</f>
+        <v>F5</v>
+      </c>
+    </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="16" t="s">
         <v>103</v>
@@ -996,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C17" s="16" t="s">
         <v>105</v>
       </c>
@@ -1019,7 +1055,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C18">
         <f>HEX2DEC(C17)</f>
         <v>189</v>
@@ -1049,346 +1085,408 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" s="16" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <f>HEX2DEC(A20)</f>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <f>HEX2DEC(A22)</f>
         <v>200</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
         <v>2</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="G21">
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="H21">
+      <c r="H23">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C22" s="16" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C24" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D24" s="16">
         <v>2</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E24" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16" t="s">
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C23">
-        <f>HEX2DEC(C22)</f>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C25">
+        <f>HEX2DEC(C24)</f>
         <v>186</v>
       </c>
-      <c r="D23">
-        <f t="shared" ref="D23:I23" si="2">HEX2DEC(D22)</f>
+      <c r="D25">
+        <f t="shared" ref="D25:H25" si="2">HEX2DEC(D24)</f>
         <v>2</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23">
+      <c r="G25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H23">
+      <c r="H25">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>130</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B29" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <f>HEX2DEC(A25)</f>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <f>HEX2DEC(A29)</f>
         <v>304</v>
       </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="F30">
         <v>3</v>
       </c>
-      <c r="G26">
+      <c r="G30">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C27">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C31">
         <v>41</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <v>43</v>
       </c>
-      <c r="E27">
+      <c r="E31">
         <v>29</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F31" t="s">
         <v>114</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G31" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C28">
-        <f>HEX2DEC(C27)</f>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C32">
+        <f>HEX2DEC(C31)</f>
         <v>65</v>
       </c>
-      <c r="D28">
-        <f t="shared" ref="D28:G28" si="3">HEX2DEC(D27)</f>
+      <c r="D32">
+        <f t="shared" ref="D32:F32" si="3">HEX2DEC(D31)</f>
         <v>67</v>
       </c>
-      <c r="E28">
+      <c r="E32">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="F28">
+      <c r="F32">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="3"/>
-        <v>193</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+      <c r="G32" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="K32">
+        <f>SUM(C32:F32)</f>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="F33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="1">
+        <v>11</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>116</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B36" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <f>HEX2DEC(A30)</f>
+      <c r="I36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <f>HEX2DEC(A36)</f>
         <v>416</v>
       </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="F37">
         <v>3</v>
       </c>
-      <c r="G31">
+      <c r="G37">
         <v>4</v>
       </c>
-      <c r="H31">
+      <c r="H37">
         <v>5</v>
       </c>
-      <c r="I31">
+      <c r="I37">
         <v>6</v>
       </c>
-      <c r="J31">
+      <c r="J37">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>80</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>80</v>
       </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>58</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C33">
-        <f>HEX2DEC(C32)</f>
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ref="D33:J33" si="4">HEX2DEC(D32)</f>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C39">
+        <f>HEX2DEC(C38)</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:J39" si="4">HEX2DEC(D38)</f>
         <v>128</v>
       </c>
-      <c r="E33">
+      <c r="E39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F33">
+      <c r="F39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G33">
+      <c r="G39">
         <f t="shared" si="4"/>
         <v>128</v>
       </c>
-      <c r="H33">
+      <c r="H39">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I33">
+      <c r="I39">
         <f t="shared" si="4"/>
         <v>88</v>
       </c>
-      <c r="J33">
+      <c r="J39">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+      <c r="K39">
+        <f>SUM(C39:I39)</f>
+        <v>344</v>
+      </c>
+      <c r="L39">
+        <f>K39+K41-256</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="I40" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="J41" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K41" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
         <v>117</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B44" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <f>HEX2DEC(A36)</f>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <f>HEX2DEC(A44)</f>
         <v>464</v>
       </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
         <v>2</v>
       </c>
-      <c r="F37">
+      <c r="F45">
         <v>3</v>
       </c>
-      <c r="G37">
+      <c r="G45">
         <v>4</v>
       </c>
-      <c r="H37">
+      <c r="H45">
         <v>5</v>
       </c>
-      <c r="I37">
+      <c r="I45">
         <v>6</v>
       </c>
-      <c r="J37">
+      <c r="J45">
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C38" s="16" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C46" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D46" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E46" s="16">
         <v>43</v>
       </c>
-      <c r="F38" s="16" t="s">
+      <c r="F46" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G46" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H46" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="I38" s="16" t="s">
+      <c r="I46" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="J38" s="16" t="s">
+      <c r="J46" s="16" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C39" s="16">
-        <f>HEX2DEC(C38)</f>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C47" s="16">
+        <f>HEX2DEC(C46)</f>
         <v>124</v>
       </c>
-      <c r="D39" s="16">
-        <f t="shared" ref="D39:J39" si="5">HEX2DEC(D38)</f>
+      <c r="D47" s="16">
+        <f t="shared" ref="D47:J47" si="5">HEX2DEC(D46)</f>
         <v>255</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E47" s="16">
         <f t="shared" si="5"/>
         <v>67</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F47" s="16">
         <f t="shared" si="5"/>
         <v>177</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G47" s="16">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H47" s="16">
         <f t="shared" si="5"/>
         <v>182</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I47" s="16">
         <f t="shared" si="5"/>
         <v>204</v>
       </c>
-      <c r="J39" s="16">
+      <c r="J47" s="16">
         <f t="shared" si="5"/>
         <v>166</v>
       </c>
@@ -1416,9 +1514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA8529B-222B-4E57-9E1F-B731C7543C9F}">
   <dimension ref="A1:AJ72"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U52" sqref="U52"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1834,6 +1932,9 @@
       <c r="D11" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
       <c r="H11">
         <v>46</v>
       </c>
@@ -1906,6 +2007,9 @@
       <c r="D12" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
       <c r="K12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1935,6 +2039,9 @@
       <c r="D13" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
       <c r="K13" s="5" t="s">
         <v>18</v>
       </c>
@@ -1964,6 +2071,9 @@
       <c r="D14" s="17" t="s">
         <v>62</v>
       </c>
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>18</v>
       </c>
@@ -1993,6 +2103,9 @@
       <c r="D15" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="M15" s="5">
         <v>0</v>
@@ -2029,6 +2142,9 @@
       <c r="D16" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
       <c r="S16" s="3" t="s">
         <v>51</v>
       </c>
@@ -2055,6 +2171,9 @@
       <c r="D17" s="17" t="s">
         <v>63</v>
       </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
       <c r="S17" s="3" t="s">
         <v>51</v>
       </c>
@@ -2080,6 +2199,9 @@
       </c>
       <c r="D18" s="17" t="s">
         <v>63</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>0</v>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://etric-my.sharepoint.com/personal/ronald_hedstrom_etric_se/Documents/Dokument/.tmp.driveupload/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC0D07-8506-43D3-8E96-F8C2A9C4CD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D9CC0D07-8506-43D3-8E96-F8C2A9C4CD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D55E3FC-2574-4636-9CC0-7340F48D312A}"/>
   <bookViews>
-    <workbookView xWindow="746" yWindow="51" windowWidth="20785" windowHeight="18155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1003" yWindow="1269" windowWidth="19903" windowHeight="12411" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -837,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L47"/>
+  <dimension ref="A2:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33:K33"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1489,6 +1489,17 @@
       <c r="J47" s="16">
         <f t="shared" si="5"/>
         <v>166</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <f>HEX2DEC(A51)</f>
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://etric-my.sharepoint.com/personal/ronald_hedstrom_etric_se/Documents/Dokument/.tmp.driveupload/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{D9CC0D07-8506-43D3-8E96-F8C2A9C4CD45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D55E3FC-2574-4636-9CC0-7340F48D312A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58416CF-7AE4-491F-873B-87DB65A24721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1003" yWindow="1269" windowWidth="19903" windowHeight="12411" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1718" yWindow="255" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="131">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -317,12 +317,6 @@
     <t>f1</t>
   </si>
   <si>
-    <t>0x90</t>
-  </si>
-  <si>
-    <t>0x11</t>
-  </si>
-  <si>
     <t>0x0</t>
   </si>
   <si>
@@ -426,6 +420,15 @@
   </si>
   <si>
     <t>offset_b</t>
+  </si>
+  <si>
+    <t>0x10</t>
+  </si>
+  <si>
+    <t>0xff</t>
+  </si>
+  <si>
+    <t>f0</t>
   </si>
 </sst>
 </file>
@@ -837,50 +840,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:L52"/>
+  <dimension ref="A2:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="7.3828125" customWidth="1"/>
-    <col min="3" max="3" width="6.3828125" customWidth="1"/>
-    <col min="4" max="10" width="4.921875" customWidth="1"/>
-    <col min="14" max="14" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" customWidth="1"/>
+    <col min="4" max="10" width="4.9296875" customWidth="1"/>
+    <col min="14" max="21" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>HEX2DEC(A7)</f>
         <v>170</v>
@@ -889,7 +892,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C9">
         <v>0</v>
       </c>
@@ -915,22 +918,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D10" s="16">
         <v>46</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G10" s="16">
         <v>0</v>
@@ -945,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
       <c r="C11">
         <f>HEX2DEC(C10)</f>
@@ -984,9 +987,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C12" s="1">
         <f>C11-D8</f>
@@ -997,15 +1000,15 @@
         <v>F5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>HEX2DEC(A15)</f>
         <v>196</v>
@@ -1032,30 +1035,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C17" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D17" s="16">
         <v>2</v>
       </c>
       <c r="E17" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C18">
         <f>HEX2DEC(C17)</f>
         <v>189</v>
@@ -1085,15 +1088,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>HEX2DEC(A22)</f>
         <v>200</v>
@@ -1117,15 +1120,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C24" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D24" s="16">
         <v>2</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F24" s="16">
         <v>0</v>
@@ -1134,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C25">
         <f>HEX2DEC(C24)</f>
         <v>186</v>
@@ -1163,23 +1166,29 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="G28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+      <c r="R28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>130</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="R29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>HEX2DEC(A29)</f>
         <v>304</v>
@@ -1199,8 +1208,23 @@
       <c r="G30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>2</v>
+      </c>
+      <c r="Q30">
+        <v>3</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C31">
         <v>41</v>
       </c>
@@ -1211,13 +1235,28 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+      <c r="N31">
+        <v>45</v>
+      </c>
+      <c r="O31">
+        <v>43</v>
+      </c>
+      <c r="P31">
+        <v>29</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>112</v>
+      </c>
+      <c r="R31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="C32">
         <f>HEX2DEC(C31)</f>
         <v>65</v>
@@ -1235,44 +1274,85 @@
         <v>15</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K32">
         <f>SUM(C32:F32)</f>
         <v>188</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="N32">
+        <f t="shared" ref="N32:Q32" si="4">HEX2DEC(N31)</f>
+        <v>69</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="R32" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="V32">
+        <f>SUM(N32:Q32)</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="F33" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G33" s="1">
         <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K33" s="1">
         <v>203</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="Q33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="R33" s="1">
+        <v>11</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="V33" s="1">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="T35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
         <v>116</v>
-      </c>
-      <c r="B36" t="s">
-        <v>118</v>
       </c>
       <c r="I36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="T36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>HEX2DEC(A36)</f>
         <v>416</v>
@@ -1301,8 +1381,32 @@
       <c r="J37">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>3</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38">
@@ -1329,38 +1433,62 @@
       <c r="J38" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="N38" t="s">
+        <v>130</v>
+      </c>
+      <c r="O38">
+        <v>10</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <v>58</v>
+      </c>
+      <c r="U38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C39">
         <f>HEX2DEC(C38)</f>
         <v>0</v>
       </c>
       <c r="D39">
-        <f t="shared" ref="D39:J39" si="4">HEX2DEC(D38)</f>
+        <f t="shared" ref="D39:J39" si="5">HEX2DEC(D38)</f>
         <v>128</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="H39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>88</v>
       </c>
       <c r="J39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="K39">
@@ -1371,37 +1499,92 @@
         <f>K39+K41-256</f>
         <v>258</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="N39">
+        <f t="shared" ref="N39:U39" si="6">HEX2DEC(N38)</f>
+        <v>240</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="6"/>
+        <v>250</v>
+      </c>
+      <c r="V39">
+        <f>SUM(N39:T39)</f>
+        <v>344</v>
+      </c>
+      <c r="W39">
+        <f>V39+V41-256</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="I40" s="26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="T40" s="26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="J41" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K41" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="U41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="V41" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="V42" t="str">
+        <f>DEC2HEX(V41)</f>
+        <v>A2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="E43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E44">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A45">
         <f>HEX2DEC(A44)</f>
         <v>464</v>
@@ -1430,73 +1613,77 @@
       <c r="J45">
         <v>7</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="W45">
+        <f>170+80</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C46" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E46" s="16">
         <v>43</v>
       </c>
       <c r="F46" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H46" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="I46" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="J46" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="I46" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C47" s="16">
         <f>HEX2DEC(C46)</f>
         <v>124</v>
       </c>
       <c r="D47" s="16">
-        <f t="shared" ref="D47:J47" si="5">HEX2DEC(D46)</f>
+        <f t="shared" ref="D47:J47" si="7">HEX2DEC(D46)</f>
         <v>255</v>
       </c>
       <c r="E47" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>67</v>
       </c>
       <c r="F47" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>177</v>
       </c>
       <c r="G47" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="H47" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>182</v>
       </c>
       <c r="I47" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>204</v>
       </c>
       <c r="J47" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52">
         <f>HEX2DEC(A51)</f>
         <v>818</v>
@@ -1515,7 +1702,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1527,39 +1714,39 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <selection pane="bottomLeft" activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.69140625" customWidth="1"/>
-    <col min="2" max="2" width="4.61328125" customWidth="1"/>
-    <col min="3" max="3" width="5.53515625" customWidth="1"/>
-    <col min="4" max="4" width="19.4609375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.84375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.23046875" style="17"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" customWidth="1"/>
+    <col min="3" max="3" width="5.53125" customWidth="1"/>
+    <col min="4" max="4" width="19.46484375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" style="17"/>
     <col min="7" max="7" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.15234375" customWidth="1"/>
-    <col min="9" max="10" width="5.921875" customWidth="1"/>
-    <col min="11" max="11" width="15.69140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="1.84375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.23046875" style="5"/>
-    <col min="16" max="16" width="5.61328125" customWidth="1"/>
-    <col min="17" max="17" width="5.69140625" customWidth="1"/>
-    <col min="18" max="18" width="5.4609375" customWidth="1"/>
-    <col min="19" max="19" width="19.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="1.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.07421875" style="3"/>
-    <col min="23" max="23" width="7.69140625" customWidth="1"/>
-    <col min="24" max="25" width="7.61328125" customWidth="1"/>
-    <col min="26" max="26" width="16.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.69140625" style="2" customWidth="1"/>
-    <col min="28" max="29" width="9.23046875" style="2"/>
-    <col min="30" max="30" width="6.3046875" customWidth="1"/>
-    <col min="33" max="35" width="9.23046875" style="23"/>
+    <col min="8" max="8" width="6.1328125" customWidth="1"/>
+    <col min="9" max="10" width="5.9296875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="1.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.19921875" style="5"/>
+    <col min="16" max="16" width="5.59765625" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
+    <col min="18" max="18" width="5.46484375" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.06640625" style="3"/>
+    <col min="23" max="23" width="7.6640625" customWidth="1"/>
+    <col min="24" max="25" width="7.59765625" customWidth="1"/>
+    <col min="26" max="26" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.6640625" style="2" customWidth="1"/>
+    <col min="28" max="29" width="9.19921875" style="2"/>
+    <col min="30" max="30" width="6.33203125" customWidth="1"/>
+    <col min="33" max="35" width="9.19921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1611,7 +1798,7 @@
       </c>
       <c r="AJ1" s="23"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="D2" s="17" t="s">
         <v>75</v>
       </c>
@@ -1628,7 +1815,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -1676,15 +1863,15 @@
         <v>0</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="V3" s="9"/>
-      <c r="W3" s="6">
-        <v>90</v>
+      <c r="W3" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="X3" s="6">
         <f>HEX2DEC(W3)</f>
-        <v>144</v>
+        <v>255</v>
       </c>
       <c r="Z3" s="8" t="s">
         <v>34</v>
@@ -1711,7 +1898,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1740,7 +1927,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1769,7 +1956,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1798,7 +1985,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1830,7 +2017,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1859,7 +2046,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1888,7 +2075,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>0</v>
       </c>
@@ -1933,7 +2120,7 @@
       <c r="AH10" s="25"/>
       <c r="AI10" s="25"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -1973,17 +2160,17 @@
         <v>50</v>
       </c>
       <c r="T11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="W11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X11">
         <f>HEX2DEC(W11)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Z11" s="2" t="s">
         <v>35</v>
@@ -2008,7 +2195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2040,7 +2227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2072,7 +2259,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2104,7 +2291,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2143,7 +2330,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -2172,7 +2359,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2201,7 +2388,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -2227,7 +2414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -2301,7 +2488,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2324,7 +2511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2347,7 +2534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2370,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2399,7 +2586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2422,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2451,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>2</v>
       </c>
@@ -2493,7 +2680,7 @@
       <c r="AH26" s="25"/>
       <c r="AI26" s="25"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -2571,7 +2758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -2600,7 +2787,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -2629,7 +2816,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -2658,7 +2845,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -2690,7 +2877,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -2719,7 +2906,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>3</v>
       </c>
@@ -2751,7 +2938,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>3</v>
       </c>
@@ -2783,7 +2970,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>4</v>
       </c>
@@ -2830,15 +3017,15 @@
         <v>0</v>
       </c>
       <c r="U35" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="V35" s="9"/>
       <c r="W35" s="6">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="X35" s="6">
         <f>HEX2DEC(W35)</f>
-        <v>128</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="8" t="s">
         <v>38</v>
@@ -2865,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2897,7 +3084,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>4</v>
       </c>
@@ -2929,7 +3116,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>4</v>
       </c>
@@ -2961,7 +3148,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>4</v>
       </c>
@@ -2997,7 +3184,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3026,7 +3213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3055,7 +3242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>4</v>
       </c>
@@ -3097,7 +3284,7 @@
       <c r="AH42" s="25"/>
       <c r="AI42" s="25"/>
     </row>
-    <row r="43" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="21">
         <v>5</v>
       </c>
@@ -3166,7 +3353,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -3189,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -3212,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -3235,7 +3422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>5</v>
       </c>
@@ -3258,7 +3445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>5</v>
       </c>
@@ -3281,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -3304,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="22">
         <v>5</v>
       </c>
@@ -3342,7 +3529,7 @@
       <c r="AH50" s="25"/>
       <c r="AI50" s="25"/>
     </row>
-    <row r="51" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>6</v>
       </c>
@@ -3411,7 +3598,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>6</v>
       </c>
@@ -3437,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>6</v>
       </c>
@@ -3460,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>6</v>
       </c>
@@ -3483,7 +3670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3512,7 +3699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>6</v>
       </c>
@@ -3535,7 +3722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3558,7 +3745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
         <v>6</v>
       </c>
@@ -3596,7 +3783,7 @@
       <c r="AH58" s="25"/>
       <c r="AI58" s="25"/>
     </row>
-    <row r="59" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="21">
         <v>7</v>
       </c>
@@ -3657,7 +3844,7 @@
       <c r="AH59" s="24"/>
       <c r="AI59" s="24"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <v>7</v>
       </c>
@@ -3677,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <v>7</v>
       </c>
@@ -3697,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
         <v>7</v>
       </c>
@@ -3717,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
         <v>7</v>
       </c>
@@ -3737,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
         <v>7</v>
       </c>
@@ -3757,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
         <v>7</v>
       </c>
@@ -3777,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="22">
         <v>7</v>
       </c>
@@ -3813,7 +4000,7 @@
       <c r="AH66" s="25"/>
       <c r="AI66" s="25"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I68">
         <f>SUM(I11:I66)</f>
         <v>336</v>
@@ -3828,14 +4015,14 @@
       </c>
       <c r="X68">
         <f>SUM(X3:X58)</f>
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="AE68">
         <f>SUM(AE3:AE66)</f>
         <v>1220</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I69">
         <f>I68-(255-I1)</f>
         <v>251</v>
@@ -3850,10 +4037,10 @@
       </c>
       <c r="X69">
         <f>X68-(255-X1)</f>
-        <v>538</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.4">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I71" s="1">
         <f>I69-I3</f>
         <v>0</v>
@@ -3864,10 +4051,10 @@
       </c>
       <c r="X71" s="1">
         <f>X69-X3</f>
-        <v>394</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.4">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I72">
         <f>I68-I69</f>
         <v>85</v>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58416CF-7AE4-491F-873B-87DB65A24721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14344CFB-51A1-4F05-9FBE-8646FF396845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1718" yWindow="255" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -429,6 +429,12 @@
   </si>
   <si>
     <t>f0</t>
+  </si>
+  <si>
+    <t>8F</t>
+  </si>
+  <si>
+    <t>0/1</t>
   </si>
 </sst>
 </file>
@@ -842,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:W52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1035,7 +1041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C17" s="16" t="s">
         <v>103</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C18">
         <f>HEX2DEC(C17)</f>
         <v>189</v>
@@ -1088,7 +1094,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>107</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>HEX2DEC(A22)</f>
         <v>200</v>
@@ -1120,7 +1126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C24" s="16" t="s">
         <v>109</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C25">
         <f>HEX2DEC(C24)</f>
         <v>186</v>
@@ -1166,7 +1172,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="G28" t="s">
         <v>123</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>130</v>
       </c>
@@ -1188,7 +1194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>HEX2DEC(A29)</f>
         <v>304</v>
@@ -1224,7 +1230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C31">
         <v>41</v>
       </c>
@@ -1250,13 +1256,13 @@
         <v>29</v>
       </c>
       <c r="Q31" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="R31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C32">
         <f>HEX2DEC(C31)</f>
         <v>65</v>
@@ -1277,8 +1283,12 @@
         <v>124</v>
       </c>
       <c r="K32">
-        <f>SUM(C32:F32)</f>
-        <v>188</v>
+        <f>SUM(C32:F32)+G29</f>
+        <v>189</v>
+      </c>
+      <c r="L32">
+        <f>K32+K33</f>
+        <v>268</v>
       </c>
       <c r="N32">
         <f t="shared" ref="N32:Q32" si="4">HEX2DEC(N31)</f>
@@ -1294,14 +1304,18 @@
       </c>
       <c r="Q32">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="R32" s="26" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="V32">
-        <f>SUM(N32:Q32)</f>
-        <v>192</v>
+        <f>SUM(N32:Q32)+R29</f>
+        <v>321</v>
+      </c>
+      <c r="W32">
+        <f>V32+V33</f>
+        <v>400</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.45">
@@ -1315,7 +1329,11 @@
         <v>127</v>
       </c>
       <c r="K33" s="1">
-        <v>203</v>
+        <v>79</v>
+      </c>
+      <c r="L33" t="str">
+        <f>DEC2HEX(L32)</f>
+        <v>10C</v>
       </c>
       <c r="Q33" s="1" t="s">
         <v>126</v>
@@ -1327,7 +1345,11 @@
         <v>127</v>
       </c>
       <c r="V33" s="1">
-        <v>203</v>
+        <v>79</v>
+      </c>
+      <c r="W33" t="str">
+        <f>DEC2HEX(W32)</f>
+        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.45">
@@ -1713,8 +1735,8 @@
   <dimension ref="A1:AJ72"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W36" sqref="W36"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2401,6 +2423,9 @@
       <c r="E18" s="17">
         <v>0</v>
       </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
       <c r="T18" s="3">
         <v>0</v>
       </c>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14344CFB-51A1-4F05-9FBE-8646FF396845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F1AA9-7FDF-45D0-A6D0-DD860016489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1718" yWindow="255" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="135">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -431,20 +431,52 @@
     <t>f0</t>
   </si>
   <si>
-    <t>8F</t>
-  </si>
-  <si>
     <t>0/1</t>
+  </si>
+  <si>
+    <t>(summa (B0..B3)+ ctr) MOD 0x10</t>
+  </si>
+  <si>
+    <t>(summa (B0..B3) MOD 0x10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -506,7 +538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -532,11 +564,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -566,6 +660,15 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W52"/>
+  <dimension ref="A2:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W34" sqref="W34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y36" sqref="Y36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1041,7 +1144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C17" s="16" t="s">
         <v>103</v>
       </c>
@@ -1064,7 +1167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C18">
         <f>HEX2DEC(C17)</f>
         <v>189</v>
@@ -1094,7 +1197,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
         <v>107</v>
       </c>
@@ -1102,7 +1205,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23">
         <f>HEX2DEC(A22)</f>
         <v>200</v>
@@ -1126,7 +1229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C24" s="16" t="s">
         <v>109</v>
       </c>
@@ -1146,7 +1249,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C25">
         <f>HEX2DEC(C24)</f>
         <v>186</v>
@@ -1172,15 +1275,19 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="G28" t="s">
         <v>123</v>
       </c>
       <c r="R28" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="V28">
+        <f>L32+V30</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>130</v>
       </c>
@@ -1193,8 +1300,11 @@
       <c r="R29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="Y29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30">
         <f>HEX2DEC(A29)</f>
         <v>304</v>
@@ -1229,8 +1339,15 @@
       <c r="R30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="V30">
+        <f>V32-K32</f>
+        <v>131</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C31">
         <v>41</v>
       </c>
@@ -1256,13 +1373,13 @@
         <v>29</v>
       </c>
       <c r="Q31" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="R31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C32">
         <f>HEX2DEC(C31)</f>
         <v>65</v>
@@ -1307,18 +1424,22 @@
         <v>143</v>
       </c>
       <c r="R32" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V32">
-        <f>SUM(N32:Q32)+R29</f>
-        <v>321</v>
+        <f>SUM(N32:Q32)</f>
+        <v>320</v>
       </c>
       <c r="W32">
         <f>V32+V33</f>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+        <v>399</v>
+      </c>
+      <c r="Y32">
+        <f>K32</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="F33" s="1" t="s">
         <v>126</v>
       </c>
@@ -1349,18 +1470,40 @@
       </c>
       <c r="W33" t="str">
         <f>DEC2HEX(W32)</f>
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+        <v>18F</v>
+      </c>
+      <c r="Y33" t="str">
+        <f>DEC2HEX(Y32)</f>
+        <v>BD</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="Y34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
         <v>100</v>
       </c>
-      <c r="T35" t="s">
+      <c r="N35" s="27"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="28"/>
+      <c r="Y35">
+        <f>Y32+Y34</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -1370,11 +1513,24 @@
       <c r="I36">
         <v>5</v>
       </c>
-      <c r="T36">
+      <c r="N36" s="29"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="30"/>
+      <c r="R36" s="30"/>
+      <c r="S36" s="30"/>
+      <c r="T36" s="30">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="U36" s="30"/>
+      <c r="V36" s="30"/>
+      <c r="W36" s="31"/>
+      <c r="Y36" t="str">
+        <f>DEC2HEX(Y35)</f>
+        <v>CC</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37">
         <f>HEX2DEC(A36)</f>
         <v>416</v>
@@ -1403,32 +1559,34 @@
       <c r="J37">
         <v>7</v>
       </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
+      <c r="N37" s="29">
+        <v>0</v>
+      </c>
+      <c r="O37" s="30">
+        <v>1</v>
+      </c>
+      <c r="P37" s="30">
         <v>2</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="30">
         <v>3</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="30">
         <v>4</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="30">
         <v>5</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="30">
         <v>6</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="30">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="V37" s="30"/>
+      <c r="W37" s="31"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" s="16"/>
       <c r="B38" s="16"/>
       <c r="C38">
@@ -1455,32 +1613,34 @@
       <c r="J38" t="s">
         <v>9</v>
       </c>
-      <c r="N38" t="s">
+      <c r="N38" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="30">
         <v>10</v>
       </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <v>0</v>
-      </c>
-      <c r="T38">
+      <c r="P38" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="30">
+        <v>0</v>
+      </c>
+      <c r="R38" s="30">
+        <v>0</v>
+      </c>
+      <c r="S38" s="30">
+        <v>0</v>
+      </c>
+      <c r="T38" s="30">
         <v>58</v>
       </c>
-      <c r="U38" t="s">
+      <c r="U38" s="30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="V38" s="30"/>
+      <c r="W38" s="31"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C39">
         <f>HEX2DEC(C38)</f>
         <v>0</v>
@@ -1521,81 +1681,107 @@
         <f>K39+K41-256</f>
         <v>258</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="29">
         <f t="shared" ref="N39:U39" si="6">HEX2DEC(N38)</f>
         <v>240</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="30">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T39">
+      <c r="T39" s="30">
         <f t="shared" si="6"/>
         <v>88</v>
       </c>
-      <c r="U39">
+      <c r="U39" s="30">
         <f t="shared" si="6"/>
         <v>250</v>
       </c>
-      <c r="V39">
+      <c r="V39" s="30">
         <f>SUM(N39:T39)</f>
         <v>344</v>
       </c>
-      <c r="W39">
+      <c r="W39" s="31">
         <f>V39+V41-256</f>
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="I40" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="T40" s="26" t="s">
+      <c r="N40" s="29"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="32" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="31"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
       <c r="J41" s="1" t="s">
         <v>126</v>
       </c>
       <c r="K41" s="1">
         <v>170</v>
       </c>
-      <c r="U41" s="1" t="s">
+      <c r="N41" s="29"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V41" s="33">
         <v>162</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="V42" t="str">
+      <c r="W41" s="31"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
+      <c r="N42" s="34"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11" t="str">
         <f>DEC2HEX(V41)</f>
         <v>A2</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="W42" s="35"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="E43" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>115</v>
       </c>
@@ -1606,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45">
         <f>HEX2DEC(A44)</f>
         <v>464</v>
@@ -1635,12 +1821,8 @@
       <c r="J45">
         <v>7</v>
       </c>
-      <c r="W45">
-        <f>170+80</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C46" s="16" t="s">
         <v>117</v>
       </c>
@@ -1666,7 +1848,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C47" s="16">
         <f>HEX2DEC(C46)</f>
         <v>124</v>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F1AA9-7FDF-45D0-A6D0-DD860016489C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2465320F-10BD-48DF-8FE5-E5DA57F9AA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1718" yWindow="255" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2263" yWindow="360" windowWidth="20786" windowHeight="18154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="133">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -359,16 +359,7 @@
     <t>F1</t>
   </si>
   <si>
-    <t>C8</t>
-  </si>
-  <si>
     <t>200ms</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>0C</t>
   </si>
   <si>
     <t>100ms</t>
@@ -460,6 +451,9 @@
       </rPr>
       <t>F</t>
     </r>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
 </sst>
 </file>
@@ -630,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -663,10 +657,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -949,36 +940,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Y52"/>
+  <dimension ref="A2:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="7.3984375" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" customWidth="1"/>
-    <col min="4" max="10" width="4.9296875" customWidth="1"/>
-    <col min="14" max="21" width="5.59765625" customWidth="1"/>
+    <col min="1" max="2" width="7.3828125" customWidth="1"/>
+    <col min="3" max="3" width="6.3828125" customWidth="1"/>
+    <col min="4" max="10" width="4.921875" customWidth="1"/>
+    <col min="14" max="21" width="5.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
         <v>98</v>
       </c>
@@ -992,7 +983,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <f>HEX2DEC(A7)</f>
         <v>170</v>
@@ -1001,7 +992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C9">
         <v>0</v>
       </c>
@@ -1027,7 +1018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -1057,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B11" s="16"/>
       <c r="C11">
         <f>HEX2DEC(C10)</f>
@@ -1096,9 +1087,9 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C12" s="1">
         <f>C11-D8</f>
@@ -1109,7 +1100,7 @@
         <v>F5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="16" t="s">
         <v>101</v>
       </c>
@@ -1117,7 +1108,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <f>HEX2DEC(A15)</f>
         <v>196</v>
@@ -1144,7 +1135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C17" s="16" t="s">
         <v>103</v>
       </c>
@@ -1167,7 +1158,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C18">
         <f>HEX2DEC(C17)</f>
         <v>189</v>
@@ -1197,699 +1188,630 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="N22">
+        <v>65</v>
+      </c>
+      <c r="O22">
+        <v>67</v>
+      </c>
+      <c r="P22">
+        <v>41</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22" t="s">
+        <v>132</v>
+      </c>
+      <c r="S22">
+        <v>12</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <f>SUM(N22:Q22)+T22+255</f>
+        <v>444</v>
+      </c>
+      <c r="V22" t="str">
+        <f>DEC2HEX(U22)</f>
+        <v>1BC</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="G24" t="s">
+        <v>120</v>
+      </c>
+      <c r="R24" t="s">
+        <v>120</v>
+      </c>
+      <c r="V24">
+        <f>L28+V26</f>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <f>HEX2DEC(A22)</f>
-        <v>200</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="R25">
+        <v>1</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <f>HEX2DEC(A25)</f>
+        <v>304</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
         <v>2</v>
       </c>
-      <c r="F23">
+      <c r="F26">
         <v>3</v>
       </c>
-      <c r="G23">
+      <c r="G26">
         <v>4</v>
       </c>
-      <c r="H23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C24" s="16" t="s">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+      <c r="Q26">
+        <v>3</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="V26">
+        <f>V28-K28</f>
+        <v>131</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="C27">
+        <v>41</v>
+      </c>
+      <c r="D27">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
         <v>109</v>
       </c>
-      <c r="D24" s="16">
-        <v>2</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="G27" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C25">
-        <f>HEX2DEC(C24)</f>
-        <v>186</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ref="D25:H25" si="2">HEX2DEC(D24)</f>
-        <v>2</v>
-      </c>
-      <c r="E25">
+      <c r="N27">
+        <v>45</v>
+      </c>
+      <c r="O27">
+        <v>43</v>
+      </c>
+      <c r="P27">
+        <v>29</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>131</v>
+      </c>
+      <c r="R27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="C28">
+        <f>HEX2DEC(C27)</f>
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:F28" si="2">HEX2DEC(D27)</f>
+        <v>67</v>
+      </c>
+      <c r="E28">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="F25">
+        <v>41</v>
+      </c>
+      <c r="F28">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="G28" t="s">
-        <v>123</v>
-      </c>
-      <c r="R28" t="s">
-        <v>123</v>
-      </c>
-      <c r="V28">
-        <f>L32+V30</f>
-        <v>399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>130</v>
-      </c>
-      <c r="B29" t="s">
-        <v>111</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="R29">
-        <v>1</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <f>HEX2DEC(A29)</f>
-        <v>304</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>4</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
-        <v>2</v>
-      </c>
-      <c r="Q30">
-        <v>3</v>
-      </c>
-      <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="V30">
-        <f>V32-K32</f>
-        <v>131</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C31">
-        <v>41</v>
-      </c>
-      <c r="D31">
-        <v>43</v>
-      </c>
-      <c r="E31">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" t="s">
-        <v>113</v>
-      </c>
-      <c r="N31">
-        <v>45</v>
-      </c>
-      <c r="O31">
-        <v>43</v>
-      </c>
-      <c r="P31">
-        <v>29</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>134</v>
-      </c>
-      <c r="R31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C32">
-        <f>HEX2DEC(C31)</f>
-        <v>65</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ref="D32:F32" si="3">HEX2DEC(D31)</f>
+        <v>15</v>
+      </c>
+      <c r="G28" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="K28">
+        <f>SUM(C28:F28)+G25</f>
+        <v>189</v>
+      </c>
+      <c r="L28">
+        <f>K28+K29</f>
+        <v>268</v>
+      </c>
+      <c r="N28">
+        <f t="shared" ref="N28:Q28" si="3">HEX2DEC(N27)</f>
+        <v>69</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
-      <c r="E32">
+      <c r="P28">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="F32">
+      <c r="Q28">
         <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="R28" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="V28">
+        <f>SUM(N28:Q28)</f>
+        <v>320</v>
+      </c>
+      <c r="W28">
+        <f>V28+V29</f>
+        <v>399</v>
+      </c>
+      <c r="Y28">
+        <f>K28</f>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="F29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G29" s="1">
+        <v>11</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K29" s="1">
+        <v>79</v>
+      </c>
+      <c r="L29" t="str">
+        <f>DEC2HEX(L28)</f>
+        <v>10C</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="R29" s="1">
+        <v>11</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V29" s="1">
+        <v>79</v>
+      </c>
+      <c r="W29" t="str">
+        <f>DEC2HEX(W28)</f>
+        <v>18F</v>
+      </c>
+      <c r="Y29" t="str">
+        <f>DEC2HEX(Y28)</f>
+        <v>BD</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="Y30">
         <v>15</v>
       </c>
-      <c r="G32" s="26" t="s">
-        <v>124</v>
-      </c>
-      <c r="K32">
-        <f>SUM(C32:F32)+G29</f>
-        <v>189</v>
-      </c>
-      <c r="L32">
-        <f>K32+K33</f>
-        <v>268</v>
-      </c>
-      <c r="N32">
-        <f t="shared" ref="N32:Q32" si="4">HEX2DEC(N31)</f>
-        <v>69</v>
-      </c>
-      <c r="O32">
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="I31" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="27"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="28"/>
+      <c r="Y31">
+        <f>Y28+Y30</f>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="I32">
+        <v>5</v>
+      </c>
+      <c r="N32" s="29"/>
+      <c r="T32">
+        <v>5</v>
+      </c>
+      <c r="W32" s="30"/>
+      <c r="Y32" t="str">
+        <f>DEC2HEX(Y31)</f>
+        <v>CC</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <f>HEX2DEC(A32)</f>
+        <v>416</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>5</v>
+      </c>
+      <c r="I33">
+        <v>6</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="N33" s="29">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>6</v>
+      </c>
+      <c r="U33">
+        <v>7</v>
+      </c>
+      <c r="W33" s="30"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>80</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>80</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>58</v>
+      </c>
+      <c r="J34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="O34">
+        <v>10</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>58</v>
+      </c>
+      <c r="U34" t="s">
+        <v>9</v>
+      </c>
+      <c r="W34" s="30"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C35">
+        <f>HEX2DEC(C34)</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:J35" si="4">HEX2DEC(D34)</f>
+        <v>128</v>
+      </c>
+      <c r="E35">
         <f t="shared" si="4"/>
-        <v>67</v>
-      </c>
-      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="F35">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <f t="shared" si="4"/>
-        <v>143</v>
-      </c>
-      <c r="R32" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="V32">
-        <f>SUM(N32:Q32)</f>
-        <v>320</v>
-      </c>
-      <c r="W32">
-        <f>V32+V33</f>
-        <v>399</v>
-      </c>
-      <c r="Y32">
-        <f>K32</f>
-        <v>189</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="F33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="1">
-        <v>11</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K33" s="1">
-        <v>79</v>
-      </c>
-      <c r="L33" t="str">
-        <f>DEC2HEX(L32)</f>
-        <v>10C</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R33" s="1">
-        <v>11</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="V33" s="1">
-        <v>79</v>
-      </c>
-      <c r="W33" t="str">
-        <f>DEC2HEX(W32)</f>
-        <v>18F</v>
-      </c>
-      <c r="Y33" t="str">
-        <f>DEC2HEX(Y32)</f>
-        <v>BD</v>
-      </c>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="Y34">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="I35" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="27"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="28"/>
-      <c r="Y35">
-        <f>Y32+Y34</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A36" t="s">
-        <v>114</v>
-      </c>
-      <c r="B36" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36">
-        <v>5</v>
-      </c>
-      <c r="N36" s="29"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="30"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="30"/>
-      <c r="T36" s="30">
-        <v>5</v>
-      </c>
-      <c r="U36" s="30"/>
-      <c r="V36" s="30"/>
-      <c r="W36" s="31"/>
-      <c r="Y36" t="str">
-        <f>DEC2HEX(Y35)</f>
-        <v>CC</v>
-      </c>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <f>HEX2DEC(A36)</f>
-        <v>416</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>2</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>4</v>
-      </c>
-      <c r="H37">
-        <v>5</v>
-      </c>
-      <c r="I37">
-        <v>6</v>
-      </c>
-      <c r="J37">
-        <v>7</v>
-      </c>
-      <c r="N37" s="29">
-        <v>0</v>
-      </c>
-      <c r="O37" s="30">
-        <v>1</v>
-      </c>
-      <c r="P37" s="30">
-        <v>2</v>
-      </c>
-      <c r="Q37" s="30">
-        <v>3</v>
-      </c>
-      <c r="R37" s="30">
-        <v>4</v>
-      </c>
-      <c r="S37" s="30">
-        <v>5</v>
-      </c>
-      <c r="T37" s="30">
-        <v>6</v>
-      </c>
-      <c r="U37" s="30">
-        <v>7</v>
-      </c>
-      <c r="V37" s="30"/>
-      <c r="W37" s="31"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <v>80</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>80</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>58</v>
-      </c>
-      <c r="J38" t="s">
-        <v>9</v>
-      </c>
-      <c r="N38" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="O38" s="30">
-        <v>10</v>
-      </c>
-      <c r="P38" s="30">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="30">
-        <v>0</v>
-      </c>
-      <c r="R38" s="30">
-        <v>0</v>
-      </c>
-      <c r="S38" s="30">
-        <v>0</v>
-      </c>
-      <c r="T38" s="30">
-        <v>58</v>
-      </c>
-      <c r="U38" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="V38" s="30"/>
-      <c r="W38" s="31"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C39">
-        <f>HEX2DEC(C38)</f>
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <f t="shared" ref="D39:J39" si="5">HEX2DEC(D38)</f>
         <v>128</v>
       </c>
-      <c r="E39">
+      <c r="H35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>250</v>
+      </c>
+      <c r="K35">
+        <f>SUM(C35:I35)</f>
+        <v>344</v>
+      </c>
+      <c r="L35">
+        <f>K35+K37-256</f>
+        <v>258</v>
+      </c>
+      <c r="N35" s="29">
+        <f t="shared" ref="N35:U35" si="5">HEX2DEC(N34)</f>
+        <v>240</v>
+      </c>
+      <c r="O35">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F39">
+        <v>16</v>
+      </c>
+      <c r="P35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G39">
+      <c r="Q35">
         <f t="shared" si="5"/>
-        <v>128</v>
-      </c>
-      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="S35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="5"/>
         <v>88</v>
       </c>
-      <c r="J39">
+      <c r="U35">
         <f t="shared" si="5"/>
         <v>250</v>
       </c>
-      <c r="K39">
-        <f>SUM(C39:I39)</f>
+      <c r="V35">
+        <f>SUM(N35:T35)</f>
         <v>344</v>
       </c>
-      <c r="L39">
-        <f>K39+K41-256</f>
-        <v>258</v>
-      </c>
-      <c r="N39" s="29">
-        <f t="shared" ref="N39:U39" si="6">HEX2DEC(N38)</f>
-        <v>240</v>
-      </c>
-      <c r="O39" s="30">
+      <c r="W35" s="30">
+        <f>V35+V37-256</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="I36" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="N36" s="29"/>
+      <c r="T36" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="W36" s="30"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="J37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K37" s="1">
+        <v>170</v>
+      </c>
+      <c r="N37" s="29"/>
+      <c r="U37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V37" s="1">
+        <v>162</v>
+      </c>
+      <c r="W37" s="30"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N38" s="31"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11" t="str">
+        <f>DEC2HEX(V37)</f>
+        <v>A2</v>
+      </c>
+      <c r="W38" s="32"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="E39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <f>HEX2DEC(A40)</f>
+        <v>464</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>6</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C42" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="16">
+        <v>43</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="C43" s="16">
+        <f>HEX2DEC(C42)</f>
+        <v>124</v>
+      </c>
+      <c r="D43" s="16">
+        <f t="shared" ref="D43:J43" si="6">HEX2DEC(D42)</f>
+        <v>255</v>
+      </c>
+      <c r="E43" s="16">
         <f t="shared" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="P39" s="30">
+        <v>67</v>
+      </c>
+      <c r="F43" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="30">
+        <v>177</v>
+      </c>
+      <c r="G43" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R39" s="30">
+        <v>45</v>
+      </c>
+      <c r="H43" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="30">
+        <v>182</v>
+      </c>
+      <c r="I43" s="16">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="30">
+        <v>204</v>
+      </c>
+      <c r="J43" s="16">
         <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="U39" s="30">
-        <f t="shared" si="6"/>
-        <v>250</v>
-      </c>
-      <c r="V39" s="30">
-        <f>SUM(N39:T39)</f>
-        <v>344</v>
-      </c>
-      <c r="W39" s="31">
-        <f>V39+V41-256</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="I40" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="N40" s="29"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="30"/>
-      <c r="R40" s="30"/>
-      <c r="S40" s="30"/>
-      <c r="T40" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="U40" s="30"/>
-      <c r="V40" s="30"/>
-      <c r="W40" s="31"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="J41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K41" s="1">
-        <v>170</v>
-      </c>
-      <c r="N41" s="29"/>
-      <c r="O41" s="30"/>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="30"/>
-      <c r="T41" s="30"/>
-      <c r="U41" s="33" t="s">
-        <v>126</v>
-      </c>
-      <c r="V41" s="33">
-        <v>162</v>
-      </c>
-      <c r="W41" s="31"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="N42" s="34"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11" t="str">
-        <f>DEC2HEX(V41)</f>
-        <v>A2</v>
-      </c>
-      <c r="W42" s="35"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="E43" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B44" t="s">
-        <v>108</v>
-      </c>
-      <c r="E44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="A45">
-        <f>HEX2DEC(A44)</f>
-        <v>464</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>2</v>
-      </c>
-      <c r="F45">
-        <v>3</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <v>5</v>
-      </c>
-      <c r="I45">
-        <v>6</v>
-      </c>
-      <c r="J45">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C46" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="16">
-        <v>43</v>
-      </c>
-      <c r="F46" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="G46" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H46" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="J46" s="16" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
-      <c r="C47" s="16">
-        <f>HEX2DEC(C46)</f>
-        <v>124</v>
-      </c>
-      <c r="D47" s="16">
-        <f t="shared" ref="D47:J47" si="7">HEX2DEC(D46)</f>
-        <v>255</v>
-      </c>
-      <c r="E47" s="16">
-        <f t="shared" si="7"/>
-        <v>67</v>
-      </c>
-      <c r="F47" s="16">
-        <f t="shared" si="7"/>
-        <v>177</v>
-      </c>
-      <c r="G47" s="16">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-      <c r="H47" s="16">
-        <f t="shared" si="7"/>
-        <v>182</v>
-      </c>
-      <c r="I47" s="16">
-        <f t="shared" si="7"/>
-        <v>204</v>
-      </c>
-      <c r="J47" s="16">
-        <f t="shared" si="7"/>
         <v>166</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A51">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A47">
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A52">
-        <f>HEX2DEC(A51)</f>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <f>HEX2DEC(A47)</f>
         <v>818</v>
       </c>
     </row>
@@ -1906,7 +1828,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1921,36 +1843,36 @@
       <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" customWidth="1"/>
-    <col min="3" max="3" width="5.53125" customWidth="1"/>
-    <col min="4" max="4" width="19.46484375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" style="17"/>
+    <col min="1" max="1" width="4.69140625" customWidth="1"/>
+    <col min="2" max="2" width="4.61328125" customWidth="1"/>
+    <col min="3" max="3" width="5.53515625" customWidth="1"/>
+    <col min="4" max="4" width="19.4609375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.84375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" style="17"/>
     <col min="7" max="7" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1328125" customWidth="1"/>
-    <col min="9" max="10" width="5.9296875" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="1.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.19921875" style="5"/>
-    <col min="16" max="16" width="5.59765625" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" customWidth="1"/>
-    <col min="18" max="18" width="5.46484375" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.06640625" style="3"/>
-    <col min="23" max="23" width="7.6640625" customWidth="1"/>
-    <col min="24" max="25" width="7.59765625" customWidth="1"/>
-    <col min="26" max="26" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.6640625" style="2" customWidth="1"/>
-    <col min="28" max="29" width="9.19921875" style="2"/>
-    <col min="30" max="30" width="6.33203125" customWidth="1"/>
-    <col min="33" max="35" width="9.19921875" style="23"/>
+    <col min="8" max="8" width="6.15234375" customWidth="1"/>
+    <col min="9" max="10" width="5.921875" customWidth="1"/>
+    <col min="11" max="11" width="15.69140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="1.84375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.23046875" style="5"/>
+    <col min="16" max="16" width="5.61328125" customWidth="1"/>
+    <col min="17" max="17" width="5.69140625" customWidth="1"/>
+    <col min="18" max="18" width="5.4609375" customWidth="1"/>
+    <col min="19" max="19" width="19.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.07421875" style="3"/>
+    <col min="23" max="23" width="7.69140625" customWidth="1"/>
+    <col min="24" max="25" width="7.61328125" customWidth="1"/>
+    <col min="26" max="26" width="16.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.69140625" style="2" customWidth="1"/>
+    <col min="28" max="29" width="9.23046875" style="2"/>
+    <col min="30" max="30" width="6.3046875" customWidth="1"/>
+    <col min="33" max="35" width="9.23046875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -2002,7 +1924,7 @@
       </c>
       <c r="AJ1" s="23"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="D2" s="17" t="s">
         <v>75</v>
       </c>
@@ -2019,7 +1941,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -2067,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="V3" s="9"/>
       <c r="W3" s="6" t="s">
@@ -2102,7 +2024,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2131,7 +2053,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2160,7 +2082,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2189,7 +2111,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2221,7 +2143,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2250,7 +2172,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2279,7 +2201,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
         <v>0</v>
       </c>
@@ -2324,7 +2246,7 @@
       <c r="AH10" s="25"/>
       <c r="AI10" s="25"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -2367,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="W11">
         <v>10</v>
@@ -2399,7 +2321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2431,7 +2353,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2463,7 +2385,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2495,7 +2417,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2534,7 +2456,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -2563,7 +2485,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2592,7 +2514,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -2621,7 +2543,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -2695,7 +2617,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2718,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2741,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2764,7 +2686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2793,7 +2715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2816,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2845,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
         <v>2</v>
       </c>
@@ -2887,7 +2809,7 @@
       <c r="AH26" s="25"/>
       <c r="AI26" s="25"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -2965,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -2994,7 +2916,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -3023,7 +2945,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -3052,7 +2974,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -3084,7 +3006,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -3113,7 +3035,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>3</v>
       </c>
@@ -3145,7 +3067,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>3</v>
       </c>
@@ -3177,7 +3099,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
         <v>4</v>
       </c>
@@ -3259,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3291,7 +3213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3323,7 +3245,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3355,7 +3277,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3391,7 +3313,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3420,7 +3342,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3449,7 +3371,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11">
         <v>4</v>
       </c>
@@ -3491,7 +3413,7 @@
       <c r="AH42" s="25"/>
       <c r="AI42" s="25"/>
     </row>
-    <row r="43" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="21">
         <v>5</v>
       </c>
@@ -3560,7 +3482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -3583,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -3606,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -3629,7 +3551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>5</v>
       </c>
@@ -3652,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>5</v>
       </c>
@@ -3675,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -3698,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="22">
         <v>5</v>
       </c>
@@ -3736,7 +3658,7 @@
       <c r="AH50" s="25"/>
       <c r="AI50" s="25"/>
     </row>
-    <row r="51" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <v>6</v>
       </c>
@@ -3805,7 +3727,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>6</v>
       </c>
@@ -3831,7 +3753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>6</v>
       </c>
@@ -3854,7 +3776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>6</v>
       </c>
@@ -3877,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3906,7 +3828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>6</v>
       </c>
@@ -3929,7 +3851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3952,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="11">
         <v>6</v>
       </c>
@@ -3990,7 +3912,7 @@
       <c r="AH58" s="25"/>
       <c r="AI58" s="25"/>
     </row>
-    <row r="59" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="21">
         <v>7</v>
       </c>
@@ -4051,7 +3973,7 @@
       <c r="AH59" s="24"/>
       <c r="AI59" s="24"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>7</v>
       </c>
@@ -4071,7 +3993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>7</v>
       </c>
@@ -4091,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>7</v>
       </c>
@@ -4111,7 +4033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>7</v>
       </c>
@@ -4131,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>7</v>
       </c>
@@ -4151,7 +4073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>7</v>
       </c>
@@ -4171,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="22">
         <v>7</v>
       </c>
@@ -4207,7 +4129,7 @@
       <c r="AH66" s="25"/>
       <c r="AI66" s="25"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.4">
       <c r="I68">
         <f>SUM(I11:I66)</f>
         <v>336</v>
@@ -4229,7 +4151,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.4">
       <c r="I69">
         <f>I68-(255-I1)</f>
         <v>251</v>
@@ -4247,7 +4169,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.4">
       <c r="I71" s="1">
         <f>I69-I3</f>
         <v>0</v>
@@ -4261,7 +4183,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.4">
       <c r="I72">
         <f>I68-I69</f>
         <v>85</v>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2465320F-10BD-48DF-8FE5-E5DA57F9AA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0770A77B-C442-4192-AAB6-B8523F389474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="360" windowWidth="20786" windowHeight="18154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2109" yWindow="214" windowWidth="20785" windowHeight="18155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0770A77B-C442-4192-AAB6-B8523F389474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB8CD84-A5FF-4D72-A228-5E60D4BF3111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2109" yWindow="214" windowWidth="20785" windowHeight="18155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1718" yWindow="255" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="134">
   <si>
     <t>(Sum_B1_to_B7 - (0xFF-CanMsg_id))%0xFF</t>
   </si>
@@ -454,6 +454,9 @@
   </si>
   <si>
     <t>c1</t>
+  </si>
+  <si>
+    <t>ec</t>
   </si>
 </sst>
 </file>
@@ -940,36 +943,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Y48"/>
+  <dimension ref="A2:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43:Z47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="7.3828125" customWidth="1"/>
-    <col min="3" max="3" width="6.3828125" customWidth="1"/>
-    <col min="4" max="10" width="4.921875" customWidth="1"/>
-    <col min="14" max="21" width="5.61328125" customWidth="1"/>
+    <col min="1" max="2" width="7.3984375" customWidth="1"/>
+    <col min="3" max="3" width="6.3984375" customWidth="1"/>
+    <col min="4" max="10" width="4.9296875" customWidth="1"/>
+    <col min="14" max="21" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>98</v>
       </c>
@@ -983,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8">
         <f>HEX2DEC(A7)</f>
         <v>170</v>
@@ -992,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="C9">
         <v>0</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -1048,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B11" s="16"/>
       <c r="C11">
         <f>HEX2DEC(C10)</f>
@@ -1087,7 +1090,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="B12" s="1" t="s">
         <v>123</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>F5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" s="16" t="s">
         <v>101</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16">
         <f>HEX2DEC(A15)</f>
         <v>196</v>
@@ -1135,7 +1138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C17" s="16" t="s">
         <v>103</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C18">
         <f>HEX2DEC(C17)</f>
         <v>189</v>
@@ -1188,7 +1191,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="N22">
         <v>65</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>1BC</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="G24" t="s">
         <v>120</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>130</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26">
         <f>HEX2DEC(A25)</f>
         <v>304</v>
@@ -1291,7 +1294,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C27">
         <v>41</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="C28">
         <f>HEX2DEC(C27)</f>
         <v>65</v>
@@ -1383,7 +1386,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="F29" s="1" t="s">
         <v>123</v>
       </c>
@@ -1421,16 +1424,19 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="Y30">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>100</v>
       </c>
-      <c r="N31" s="27"/>
+      <c r="N31" s="27">
+        <f>N35*0.103</f>
+        <v>24.72</v>
+      </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
@@ -1447,7 +1453,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>CC</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A33">
         <f>HEX2DEC(A32)</f>
         <v>416</v>
@@ -1522,7 +1528,7 @@
       </c>
       <c r="W33" s="30"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34">
@@ -1575,7 +1581,7 @@
       </c>
       <c r="W34" s="30"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C35">
         <f>HEX2DEC(C34)</f>
         <v>0</v>
@@ -1657,7 +1663,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
       <c r="I36" s="26" t="s">
         <v>122</v>
       </c>
@@ -1667,7 +1673,7 @@
       </c>
       <c r="W36" s="30"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
       <c r="J37" s="1" t="s">
         <v>123</v>
       </c>
@@ -1683,7 +1689,7 @@
       </c>
       <c r="W37" s="30"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
       <c r="N38" s="31"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
@@ -1698,12 +1704,12 @@
       </c>
       <c r="W38" s="32"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
       <c r="E39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -1713,8 +1719,23 @@
       <c r="E40">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N40" s="27">
+        <f>N44*0.103</f>
+        <v>6.5919999999999996</v>
+      </c>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="28"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A41">
         <f>HEX2DEC(A40)</f>
         <v>464</v>
@@ -1743,8 +1764,13 @@
       <c r="J41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N41" s="29"/>
+      <c r="T41">
+        <v>5</v>
+      </c>
+      <c r="W41" s="30"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C42" s="16" t="s">
         <v>114</v>
       </c>
@@ -1769,8 +1795,33 @@
       <c r="J42" s="16" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N42" s="29">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+      <c r="Q42">
+        <v>3</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
+      </c>
+      <c r="S42">
+        <v>5</v>
+      </c>
+      <c r="T42">
+        <v>6</v>
+      </c>
+      <c r="U42">
+        <v>7</v>
+      </c>
+      <c r="W42" s="30"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
       <c r="C43" s="16">
         <f>HEX2DEC(C42)</f>
         <v>124</v>
@@ -1803,17 +1854,263 @@
         <f t="shared" si="6"/>
         <v>166</v>
       </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N43" s="29">
+        <v>40</v>
+      </c>
+      <c r="O43">
+        <v>10</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>58</v>
+      </c>
+      <c r="U43" t="s">
+        <v>9</v>
+      </c>
+      <c r="W43" s="30"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="N44" s="29">
+        <f t="shared" ref="N44:U44" si="7">HEX2DEC(N43)</f>
+        <v>64</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="7"/>
+        <v>88</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="7"/>
+        <v>250</v>
+      </c>
+      <c r="V44">
+        <f>SUM(N44:T44)</f>
+        <v>168</v>
+      </c>
+      <c r="W44" s="30">
+        <f>V44+V46</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="N45" s="29"/>
+      <c r="T45" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="W45" s="30"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="N46" s="29"/>
+      <c r="U46" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V46" s="1">
+        <v>82</v>
+      </c>
+      <c r="W46" s="30"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>332</v>
       </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="N47" s="31"/>
+      <c r="O47" s="11"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
+      <c r="R47" s="11"/>
+      <c r="S47" s="11"/>
+      <c r="T47" s="11"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11" t="str">
+        <f>DEC2HEX(V46)</f>
+        <v>52</v>
+      </c>
+      <c r="W47" s="32"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A48">
         <f>HEX2DEC(A47)</f>
         <v>818</v>
       </c>
+    </row>
+    <row r="49" spans="14:23" x14ac:dyDescent="0.45">
+      <c r="N49" s="27"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="28"/>
+    </row>
+    <row r="50" spans="14:23" x14ac:dyDescent="0.45">
+      <c r="N50" s="29"/>
+      <c r="T50">
+        <v>5</v>
+      </c>
+      <c r="W50" s="30"/>
+    </row>
+    <row r="51" spans="14:23" x14ac:dyDescent="0.45">
+      <c r="N51" s="29">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51">
+        <v>2</v>
+      </c>
+      <c r="Q51">
+        <v>3</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51">
+        <v>5</v>
+      </c>
+      <c r="T51">
+        <v>6</v>
+      </c>
+      <c r="U51">
+        <v>7</v>
+      </c>
+      <c r="W51" s="30"/>
+    </row>
+    <row r="52" spans="14:23" x14ac:dyDescent="0.45">
+      <c r="N52" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="O52">
+        <v>14</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>58</v>
+      </c>
+      <c r="U52" t="s">
+        <v>9</v>
+      </c>
+      <c r="W52" s="30"/>
+    </row>
+    <row r="53" spans="14:23" x14ac:dyDescent="0.45">
+      <c r="N53" s="29">
+        <f t="shared" ref="N53:U53" si="8">HEX2DEC(N52)</f>
+        <v>236</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="8"/>
+        <v>250</v>
+      </c>
+      <c r="V53">
+        <f>SUM(N53:T53)</f>
+        <v>344</v>
+      </c>
+      <c r="W53" s="30">
+        <f>V53+V55-256</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="14:23" x14ac:dyDescent="0.45">
+      <c r="N54" s="29"/>
+      <c r="T54" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="W54" s="30"/>
+    </row>
+    <row r="55" spans="14:23" x14ac:dyDescent="0.45">
+      <c r="N55" s="29"/>
+      <c r="U55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V55" s="1">
+        <v>162</v>
+      </c>
+      <c r="W55" s="30"/>
+    </row>
+    <row r="56" spans="14:23" x14ac:dyDescent="0.45">
+      <c r="N56" s="31"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11" t="str">
+        <f>DEC2HEX(V55)</f>
+        <v>A2</v>
+      </c>
+      <c r="W56" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1828,7 +2125,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1843,36 +2140,36 @@
       <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="4.69140625" customWidth="1"/>
-    <col min="2" max="2" width="4.61328125" customWidth="1"/>
-    <col min="3" max="3" width="5.53515625" customWidth="1"/>
-    <col min="4" max="4" width="19.4609375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.84375" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.23046875" style="17"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.59765625" customWidth="1"/>
+    <col min="3" max="3" width="5.53125" customWidth="1"/>
+    <col min="4" max="4" width="19.46484375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.86328125" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.19921875" style="17"/>
     <col min="7" max="7" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.15234375" customWidth="1"/>
-    <col min="9" max="10" width="5.921875" customWidth="1"/>
-    <col min="11" max="11" width="15.69140625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="1.84375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.23046875" style="5"/>
-    <col min="16" max="16" width="5.61328125" customWidth="1"/>
-    <col min="17" max="17" width="5.69140625" customWidth="1"/>
-    <col min="18" max="18" width="5.4609375" customWidth="1"/>
-    <col min="19" max="19" width="19.3046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.07421875" style="3"/>
-    <col min="23" max="23" width="7.69140625" customWidth="1"/>
-    <col min="24" max="25" width="7.61328125" customWidth="1"/>
-    <col min="26" max="26" width="16.69140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.69140625" style="2" customWidth="1"/>
-    <col min="28" max="29" width="9.23046875" style="2"/>
-    <col min="30" max="30" width="6.3046875" customWidth="1"/>
-    <col min="33" max="35" width="9.23046875" style="23"/>
+    <col min="8" max="8" width="6.1328125" customWidth="1"/>
+    <col min="9" max="10" width="5.9296875" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="1.86328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.19921875" style="5"/>
+    <col min="16" max="16" width="5.59765625" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" customWidth="1"/>
+    <col min="18" max="18" width="5.46484375" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.9296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.06640625" style="3"/>
+    <col min="23" max="23" width="7.6640625" customWidth="1"/>
+    <col min="24" max="25" width="7.59765625" customWidth="1"/>
+    <col min="26" max="26" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.6640625" style="2" customWidth="1"/>
+    <col min="28" max="29" width="9.19921875" style="2"/>
+    <col min="30" max="30" width="6.33203125" customWidth="1"/>
+    <col min="33" max="35" width="9.19921875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -1924,7 +2221,7 @@
       </c>
       <c r="AJ1" s="23"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="D2" s="17" t="s">
         <v>75</v>
       </c>
@@ -1941,7 +2238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -2024,7 +2321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2053,7 +2350,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2082,7 +2379,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2111,7 +2408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2143,7 +2440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2172,7 +2469,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2201,7 +2498,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A10" s="11">
         <v>0</v>
       </c>
@@ -2246,7 +2543,7 @@
       <c r="AH10" s="25"/>
       <c r="AI10" s="25"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -2321,7 +2618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2353,7 +2650,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2385,7 +2682,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2417,7 +2714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2456,7 +2753,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -2485,7 +2782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2514,7 +2811,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -2543,7 +2840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -2617,7 +2914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2640,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2663,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2686,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2715,7 +3012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2738,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2767,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A26" s="11">
         <v>2</v>
       </c>
@@ -2809,7 +3106,7 @@
       <c r="AH26" s="25"/>
       <c r="AI26" s="25"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -2887,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -2916,7 +3213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -2945,7 +3242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -2974,7 +3271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -3006,7 +3303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -3035,7 +3332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
         <v>3</v>
       </c>
@@ -3067,7 +3364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A34" s="4">
         <v>3</v>
       </c>
@@ -3099,7 +3396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A35" s="6">
         <v>4</v>
       </c>
@@ -3181,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3213,7 +3510,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3245,7 +3542,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3277,7 +3574,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3313,7 +3610,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3342,7 +3639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3371,7 +3668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A42" s="11">
         <v>4</v>
       </c>
@@ -3413,7 +3710,7 @@
       <c r="AH42" s="25"/>
       <c r="AI42" s="25"/>
     </row>
-    <row r="43" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A43" s="21">
         <v>5</v>
       </c>
@@ -3482,7 +3779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -3505,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -3528,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -3551,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A47" s="4">
         <v>5</v>
       </c>
@@ -3574,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
         <v>5</v>
       </c>
@@ -3597,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -3620,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A50" s="22">
         <v>5</v>
       </c>
@@ -3658,7 +3955,7 @@
       <c r="AH50" s="25"/>
       <c r="AI50" s="25"/>
     </row>
-    <row r="51" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A51" s="6">
         <v>6</v>
       </c>
@@ -3727,7 +4024,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>6</v>
       </c>
@@ -3753,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>6</v>
       </c>
@@ -3776,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>6</v>
       </c>
@@ -3799,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>6</v>
       </c>
@@ -3828,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>6</v>
       </c>
@@ -3851,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>6</v>
       </c>
@@ -3874,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A58" s="11">
         <v>6</v>
       </c>
@@ -3912,7 +4209,7 @@
       <c r="AH58" s="25"/>
       <c r="AI58" s="25"/>
     </row>
-    <row r="59" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="21">
         <v>7</v>
       </c>
@@ -3973,7 +4270,7 @@
       <c r="AH59" s="24"/>
       <c r="AI59" s="24"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A60" s="4">
         <v>7</v>
       </c>
@@ -3993,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A61" s="4">
         <v>7</v>
       </c>
@@ -4013,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A62" s="4">
         <v>7</v>
       </c>
@@ -4033,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A63" s="4">
         <v>7</v>
       </c>
@@ -4053,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A64" s="4">
         <v>7</v>
       </c>
@@ -4073,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A65" s="4">
         <v>7</v>
       </c>
@@ -4093,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A66" s="22">
         <v>7</v>
       </c>
@@ -4129,7 +4426,7 @@
       <c r="AH66" s="25"/>
       <c r="AI66" s="25"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I68">
         <f>SUM(I11:I66)</f>
         <v>336</v>
@@ -4151,7 +4448,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I69">
         <f>I68-(255-I1)</f>
         <v>251</v>
@@ -4169,7 +4466,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I71" s="1">
         <f>I69-I3</f>
         <v>0</v>
@@ -4183,7 +4480,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.45">
       <c r="I72">
         <f>I68-I69</f>
         <v>85</v>

--- a/checksum.xlsx
+++ b/checksum.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\GitHub\ESP32C6-LCD-CAN-gear\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rh\Documents\Arduino\ESP32C6-LCD-CAN-gear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB8CD84-A5FF-4D72-A228-5E60D4BF3111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338BD523-B7E6-4398-BE7B-F59CC0A415E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1718" yWindow="255" windowWidth="25147" windowHeight="15945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1440" yWindow="129" windowWidth="23126" windowHeight="18154" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -945,34 +945,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X43" sqref="X43:Z47"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y39" sqref="Y39:AA45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="7.3984375" customWidth="1"/>
-    <col min="3" max="3" width="6.3984375" customWidth="1"/>
-    <col min="4" max="10" width="4.9296875" customWidth="1"/>
-    <col min="14" max="21" width="5.59765625" customWidth="1"/>
+    <col min="1" max="2" width="7.3828125" customWidth="1"/>
+    <col min="3" max="3" width="6.3828125" customWidth="1"/>
+    <col min="4" max="10" width="4.921875" customWidth="1"/>
+    <col min="14" max="21" width="5.61328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="16" t="s">
         <v>98</v>
       </c>
@@ -986,7 +986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8">
         <f>HEX2DEC(A7)</f>
         <v>170</v>
@@ -995,7 +995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C9">
         <v>0</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B11" s="16"/>
       <c r="C11">
         <f>HEX2DEC(C10)</f>
@@ -1090,7 +1090,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>123</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>F5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="16" t="s">
         <v>101</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16">
         <f>HEX2DEC(A15)</f>
         <v>196</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C17" s="16" t="s">
         <v>103</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C18">
         <f>HEX2DEC(C17)</f>
         <v>189</v>
@@ -1191,7 +1191,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
       <c r="N22">
         <v>65</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>1BC</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="G24" t="s">
         <v>120</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>130</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26">
         <f>HEX2DEC(A25)</f>
         <v>304</v>
@@ -1294,7 +1294,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C27">
         <v>41</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="C28">
         <f>HEX2DEC(C27)</f>
         <v>65</v>
@@ -1386,7 +1386,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
       <c r="F29" s="1" t="s">
         <v>123</v>
       </c>
@@ -1424,12 +1424,12 @@
         <v>BD</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="Y30">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="I31" t="s">
         <v>100</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>111</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>CC</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33">
         <f>HEX2DEC(A32)</f>
         <v>416</v>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="W33" s="30"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="W34" s="30"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C35">
         <f>HEX2DEC(C34)</f>
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="I36" s="26" t="s">
         <v>122</v>
       </c>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="W36" s="30"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="J37" s="1" t="s">
         <v>123</v>
       </c>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="W37" s="30"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="N38" s="31"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="W38" s="32"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="E39" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -1735,7 +1735,7 @@
       <c r="V40" s="6"/>
       <c r="W40" s="28"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41">
         <f>HEX2DEC(A40)</f>
         <v>464</v>
@@ -1770,7 +1770,7 @@
       </c>
       <c r="W41" s="30"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C42" s="16" t="s">
         <v>114</v>
       </c>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="W42" s="30"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="C43" s="16">
         <f>HEX2DEC(C42)</f>
         <v>124</v>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="W43" s="30"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="N44" s="29">
         <f t="shared" ref="N44:U44" si="7">HEX2DEC(N43)</f>
         <v>64</v>
@@ -1922,14 +1922,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="N45" s="29"/>
       <c r="T45" s="26" t="s">
         <v>122</v>
       </c>
       <c r="W45" s="30"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="N46" s="29"/>
       <c r="U46" s="1" t="s">
         <v>123</v>
@@ -1939,7 +1939,7 @@
       </c>
       <c r="W46" s="30"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>332</v>
       </c>
@@ -1957,13 +1957,13 @@
       </c>
       <c r="W47" s="32"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48">
         <f>HEX2DEC(A47)</f>
         <v>818</v>
       </c>
     </row>
-    <row r="49" spans="14:23" x14ac:dyDescent="0.45">
+    <row r="49" spans="14:23" x14ac:dyDescent="0.4">
       <c r="N49" s="27"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -1977,14 +1977,14 @@
       <c r="V49" s="6"/>
       <c r="W49" s="28"/>
     </row>
-    <row r="50" spans="14:23" x14ac:dyDescent="0.45">
+    <row r="50" spans="14:23" x14ac:dyDescent="0.4">
       <c r="N50" s="29"/>
       <c r="T50">
         <v>5</v>
       </c>
       <c r="W50" s="30"/>
     </row>
-    <row r="51" spans="14:23" x14ac:dyDescent="0.45">
+    <row r="51" spans="14:23" x14ac:dyDescent="0.4">
       <c r="N51" s="29">
         <v>0</v>
       </c>
@@ -2011,7 +2011,7 @@
       </c>
       <c r="W51" s="30"/>
     </row>
-    <row r="52" spans="14:23" x14ac:dyDescent="0.45">
+    <row r="52" spans="14:23" x14ac:dyDescent="0.4">
       <c r="N52" s="29" t="s">
         <v>133</v>
       </c>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="W52" s="30"/>
     </row>
-    <row r="53" spans="14:23" x14ac:dyDescent="0.45">
+    <row r="53" spans="14:23" x14ac:dyDescent="0.4">
       <c r="N53" s="29">
         <f t="shared" ref="N53:U53" si="8">HEX2DEC(N52)</f>
         <v>236</v>
@@ -2080,14 +2080,14 @@
         <v>250</v>
       </c>
     </row>
-    <row r="54" spans="14:23" x14ac:dyDescent="0.45">
+    <row r="54" spans="14:23" x14ac:dyDescent="0.4">
       <c r="N54" s="29"/>
       <c r="T54" s="26" t="s">
         <v>122</v>
       </c>
       <c r="W54" s="30"/>
     </row>
-    <row r="55" spans="14:23" x14ac:dyDescent="0.45">
+    <row r="55" spans="14:23" x14ac:dyDescent="0.4">
       <c r="N55" s="29"/>
       <c r="U55" s="1" t="s">
         <v>123</v>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="W55" s="30"/>
     </row>
-    <row r="56" spans="14:23" x14ac:dyDescent="0.45">
+    <row r="56" spans="14:23" x14ac:dyDescent="0.4">
       <c r="N56" s="31"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
@@ -2125,7 +2125,7 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2140,36 +2140,36 @@
       <selection pane="bottomLeft" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="4.59765625" customWidth="1"/>
-    <col min="3" max="3" width="5.53125" customWidth="1"/>
-    <col min="4" max="4" width="19.46484375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.86328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" style="17"/>
+    <col min="1" max="1" width="4.69140625" customWidth="1"/>
+    <col min="2" max="2" width="4.61328125" customWidth="1"/>
+    <col min="3" max="3" width="5.53515625" customWidth="1"/>
+    <col min="4" max="4" width="19.4609375" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.84375" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.23046875" style="17"/>
     <col min="7" max="7" width="11" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1328125" customWidth="1"/>
-    <col min="9" max="10" width="5.9296875" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="1.86328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.19921875" style="5"/>
-    <col min="16" max="16" width="5.59765625" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" customWidth="1"/>
-    <col min="18" max="18" width="5.46484375" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="2.9296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.06640625" style="3"/>
-    <col min="23" max="23" width="7.6640625" customWidth="1"/>
-    <col min="24" max="25" width="7.59765625" customWidth="1"/>
-    <col min="26" max="26" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="3.6640625" style="2" customWidth="1"/>
-    <col min="28" max="29" width="9.19921875" style="2"/>
-    <col min="30" max="30" width="6.33203125" customWidth="1"/>
-    <col min="33" max="35" width="9.19921875" style="23"/>
+    <col min="8" max="8" width="6.15234375" customWidth="1"/>
+    <col min="9" max="10" width="5.921875" customWidth="1"/>
+    <col min="11" max="11" width="15.69140625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="1.84375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.23046875" style="5"/>
+    <col min="16" max="16" width="5.61328125" customWidth="1"/>
+    <col min="17" max="17" width="5.69140625" customWidth="1"/>
+    <col min="18" max="18" width="5.4609375" customWidth="1"/>
+    <col min="19" max="19" width="19.3046875" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="2.921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.07421875" style="3"/>
+    <col min="23" max="23" width="7.69140625" customWidth="1"/>
+    <col min="24" max="25" width="7.61328125" customWidth="1"/>
+    <col min="26" max="26" width="16.69140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.69140625" style="2" customWidth="1"/>
+    <col min="28" max="29" width="9.23046875" style="2"/>
+    <col min="30" max="30" width="6.3046875" customWidth="1"/>
+    <col min="33" max="35" width="9.23046875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="AJ1" s="23"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
       <c r="D2" s="17" t="s">
         <v>75</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6">
         <v>0</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:36" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
         <v>0</v>
       </c>
@@ -2543,7 +2543,7 @@
       <c r="AH10" s="25"/>
       <c r="AI10" s="25"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>1</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6">
         <v>2</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3012,7 +3012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11">
         <v>2</v>
       </c>
@@ -3106,7 +3106,7 @@
       <c r="AH26" s="25"/>
       <c r="AI26" s="25"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>3</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>3</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>3</v>
       </c>
@@ -3242,7 +3242,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>3</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>3</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6">
         <v>4</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>4</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>4</v>
       </c>
@@ -3574,7 +3574,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>4</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>4</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>4</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="11">
         <v>4</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="AH42" s="25"/>
       <c r="AI42" s="25"/>
     </row>
-    <row r="43" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="21">
         <v>5</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>5</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>5</v>
       </c>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>5</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>5</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>5</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>5</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="22">
         <v>5</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="AH50" s="25"/>
       <c r="AI50" s="25"/>
     </row>
-    <row r="51" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="6">
         <v>6</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>6</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>6</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>6</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>6</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>6</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>6</v>
       </c>
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="11">
         <v>6</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="AH58" s="25"/>
       <c r="AI58" s="25"/>
     </row>
-    <row r="59" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="21">
         <v>7</v>
       </c>
@@ -4270,7 +4270,7 @@
       <c r="AH59" s="24"/>
       <c r="AI59" s="24"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>7</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>7</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>7</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>7</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>7</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>7</v>
       </c>
@@ -4390,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:35" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="22">
         <v>7</v>
       </c>
@@ -4426,7 +4426,7 @@
       <c r="AH66" s="25"/>
       <c r="AI66" s="25"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.4">
       <c r="I68">
         <f>SUM(I11:I66)</f>
         <v>336</v>
@@ -4448,7 +4448,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.4">
       <c r="I69">
         <f>I68-(255-I1)</f>
         <v>251</v>
@@ -4466,7 +4466,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.4">
       <c r="I71" s="1">
         <f>I69-I3</f>
         <v>0</v>
@@ -4480,7 +4480,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.4">
       <c r="I72">
         <f>I68-I69</f>
         <v>85</v>
